--- a/etc/Storage Ring A Interlock EPICS.xlsx
+++ b/etc/Storage Ring A Interlock EPICS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23716"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B896AEE-27CF-487F-81B1-27AEBA798A28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF445BBD-7F34-41C8-8A30-F9458A665BD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSAmp Tower 04" sheetId="15" r:id="rId1"/>
@@ -2295,7 +2295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2506,6 +2506,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -33912,8 +33915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D9DEC3-FCCA-4464-9BBF-01B2481D03F0}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="H11" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42137,8 +42140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC2DBB1-5D49-469C-81C7-E7BFC2EB4E9C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42628,8 +42631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A52F41C-E692-4BB3-8E5F-3C78FBFA71A0}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42716,65 +42719,65 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="66" customFormat="1">
-      <c r="A2" s="27">
+    <row r="2" spans="1:21" s="74" customFormat="1">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>612</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="E2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>617</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="30" t="str">
+      <c r="I2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="36" t="str">
         <f>IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"-"&amp;I2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"-"&amp;I2)</f>
         <v>RA-RaSIA01:RF-LLRF:Intlk-Mon</v>
       </c>
-      <c r="K2" s="30" t="str">
+      <c r="K2" s="36" t="str">
         <f>IF(OR(P2="",P2="N/A"),"N/A",IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"UpperLimit-Cte",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"UpperLimit-Cte"))</f>
         <v>N/A</v>
       </c>
-      <c r="L2" s="30" t="str">
+      <c r="L2" s="36" t="str">
         <f>IF(OR(Q2="",Q2="N/A"),"N/A",IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"LowerLimit-Cte",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"LowerLimit-Cte"))</f>
         <v>N/A</v>
       </c>
-      <c r="M2" s="31" t="str">
+      <c r="M2" s="37" t="str">
         <f>IF(G2="-",C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;H2&amp;""&amp;I2,C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;G2&amp;"_"&amp;H2&amp;""&amp;I2)</f>
         <v>RA_RaSIA01_RF_LLRF_IntlkMon</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31" t="str">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37" t="str">
         <f>M2</f>
         <v>RA_RaSIA01_RF_LLRF_IntlkMon</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="38"/>
     </row>
     <row r="3" spans="1:21" s="66" customFormat="1">
       <c r="A3" s="27">

--- a/etc/Storage Ring A Interlock EPICS.xlsx
+++ b/etc/Storage Ring A Interlock EPICS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF445BBD-7F34-41C8-8A30-F9458A665BD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3101695D-1059-4F80-B3B0-FDCD40C07F1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6514" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6515" uniqueCount="657">
   <si>
     <t>Nº</t>
   </si>
@@ -1060,7 +1060,7 @@
     <t>Potencia na carga</t>
   </si>
   <si>
-    <t>Pwr</t>
+    <t>PwrRevIndBm</t>
   </si>
   <si>
     <t>Combinador</t>
@@ -33916,7 +33916,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34970,7 +34970,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G19" s="62" t="s">
         <v>26</v>
@@ -34983,13 +34983,13 @@
       </c>
       <c r="J19" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>RA-TLSIA:RF-Load:Pwr-Mon</v>
+        <v>RA-TLSIA:RF-Circulator:PwrRevIndBm-Mon</v>
       </c>
       <c r="K19" s="63"/>
       <c r="L19" s="63"/>
       <c r="M19" s="64" t="str">
         <f t="shared" si="1"/>
-        <v>RA_TLSIA_RF_Load_Pwr_Mon</v>
+        <v>RA_TLSIA_RF_Circulator_PwrRevIndBm_Mon</v>
       </c>
       <c r="N19" s="64" t="s">
         <v>50</v>
@@ -35002,7 +35002,7 @@
       <c r="R19" s="64"/>
       <c r="S19" s="64" t="str">
         <f>M19</f>
-        <v>RA_TLSIA_RF_Load_Pwr_Mon</v>
+        <v>RA_TLSIA_RF_Circulator_PwrRevIndBm_Mon</v>
       </c>
       <c r="T19" s="64" t="s">
         <v>52</v>
@@ -35190,8 +35190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188945DB-2545-476B-BE7E-6067BB31C627}">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42140,7 +42140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC2DBB1-5D49-469C-81C7-E7BFC2EB4E9C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -42631,8 +42631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A52F41C-E692-4BB3-8E5F-3C78FBFA71A0}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42776,7 +42776,9 @@
         <f>M2</f>
         <v>RA_RaSIA01_RF_LLRF_IntlkMon</v>
       </c>
-      <c r="T2" s="37"/>
+      <c r="T2" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="U2" s="38"/>
     </row>
     <row r="3" spans="1:21" s="66" customFormat="1">

--- a/etc/Storage Ring A Interlock EPICS.xlsx
+++ b/etc/Storage Ring A Interlock EPICS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23802"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3101695D-1059-4F80-B3B0-FDCD40C07F1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46E0969C-555B-4835-A1A1-CD688E099416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSAmp Tower 04" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6515" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6512" uniqueCount="657">
   <si>
     <t>Nº</t>
   </si>
@@ -27340,8 +27340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView topLeftCell="B96" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="C77" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27355,7 +27355,7 @@
     <col min="10" max="10" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="44.28515625" customWidth="1"/>
     <col min="12" max="12" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" customWidth="1"/>
+    <col min="13" max="13" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
@@ -33915,8 +33915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D9DEC3-FCCA-4464-9BBF-01B2481D03F0}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="J11" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34987,26 +34987,14 @@
       </c>
       <c r="K19" s="63"/>
       <c r="L19" s="63"/>
-      <c r="M19" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>RA_TLSIA_RF_Circulator_PwrRevIndBm_Mon</v>
-      </c>
-      <c r="N19" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="64" t="s">
-        <v>30</v>
-      </c>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
       <c r="P19" s="64"/>
       <c r="Q19" s="64"/>
       <c r="R19" s="64"/>
-      <c r="S19" s="64" t="str">
-        <f>M19</f>
-        <v>RA_TLSIA_RF_Circulator_PwrRevIndBm_Mon</v>
-      </c>
-      <c r="T19" s="64" t="s">
-        <v>52</v>
-      </c>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
       <c r="U19" s="65"/>
     </row>
     <row r="20" spans="1:21" s="5" customFormat="1">
@@ -42631,8 +42619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A52F41C-E692-4BB3-8E5F-3C78FBFA71A0}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/etc/Storage Ring A Interlock EPICS.xlsx
+++ b/etc/Storage Ring A Interlock EPICS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23716"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B896AEE-27CF-487F-81B1-27AEBA798A28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B75CD540-DBA6-4116-AFF1-F4AF81C32260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="90" yWindow="1560" windowWidth="20400" windowHeight="9480" tabRatio="719" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSAmp Tower 04" sheetId="15" r:id="rId1"/>
@@ -20,15 +20,15 @@
     <sheet name="Legenda" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Petra 7'!$A$1:$T$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'SSAmp Tower 01'!$A$1:$T$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Transmission Line'!$A$1:$T$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SSAmp Tower 02'!$A$1:$T$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Petra 7 WaterTemp'!$A$1:$T$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Interlock!$A$1:$T$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">LLRF!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Petra 7'!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Petra 7 WaterTemp'!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'SSAmp Tower 01'!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SSAmp Tower 02'!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Transmission Line'!$A$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6514" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6526" uniqueCount="661">
   <si>
     <t>Nº</t>
   </si>
@@ -1060,7 +1060,7 @@
     <t>Potencia na carga</t>
   </si>
   <si>
-    <t>Pwr</t>
+    <t>PwrRevIndBm</t>
   </si>
   <si>
     <t>Combinador</t>
@@ -1364,6 +1364,18 @@
   </si>
   <si>
     <t>dBm</t>
+  </si>
+  <si>
+    <t>PT - 100 Janela de Quartzo P7</t>
+  </si>
+  <si>
+    <t>GlassWinT</t>
+  </si>
+  <si>
+    <t>Set_Temp[8]</t>
+  </si>
+  <si>
+    <t>Set_Temp[9]</t>
   </si>
   <si>
     <t>Disc 1 Water Temperature</t>
@@ -2295,7 +2307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2508,6 +2520,9 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8503,8 +8518,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C14A82AC-8A8B-4AE6-8243-55496A5CEF7D}" name="Table9" displayName="Table9" ref="A1:U47" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" headerRowBorderDxfId="98" tableBorderDxfId="99" totalsRowBorderDxfId="97">
-  <autoFilter ref="A1:U47" xr:uid="{7CB02FD4-FF14-4496-98B3-4F8B1299769D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C14A82AC-8A8B-4AE6-8243-55496A5CEF7D}" name="Table9" displayName="Table9" ref="A1:U48" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" headerRowBorderDxfId="98" tableBorderDxfId="99" totalsRowBorderDxfId="97">
+  <autoFilter ref="A1:U48" xr:uid="{7CB02FD4-FF14-4496-98B3-4F8B1299769D}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{3D88C2FC-5174-41B4-A3FD-F1FA680784DE}" name="Nº" dataDxfId="96"/>
     <tableColumn id="2" xr3:uid="{05D8D350-F8D6-4479-AC39-69A78320DBEF}" name="Description" dataDxfId="95"/>
@@ -8915,9 +8930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7056BFD-1BB4-409F-A052-BA04ED9F8151}">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9150,13 +9163,13 @@
         <v>34</v>
       </c>
       <c r="J4" s="15" t="str">
-        <f t="shared" ref="J3:J65" si="3">IF(G4="-",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;":"&amp;H4&amp;"-"&amp;I4,C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;G4&amp;":"&amp;H4&amp;"-"&amp;I4)</f>
+        <f t="shared" ref="J4:J65" si="3">IF(G4="-",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;":"&amp;H4&amp;"-"&amp;I4,C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;G4&amp;":"&amp;H4&amp;"-"&amp;I4)</f>
         <v>RA-ToSIA04:RF-ACPanel:PwrACEnbl-Sel</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="16" t="str">
-        <f t="shared" ref="M3:M66" si="4">IF(G4="-",C4&amp;"_"&amp;D4&amp;"_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;H4&amp;""&amp;I4,C4&amp;"_"&amp;D4&amp;"_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;G4&amp;"_"&amp;H4&amp;""&amp;I4)</f>
+        <f t="shared" ref="M4:M66" si="4">IF(G4="-",C4&amp;"_"&amp;D4&amp;"_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;H4&amp;""&amp;I4,C4&amp;"_"&amp;D4&amp;"_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;G4&amp;"_"&amp;H4&amp;""&amp;I4)</f>
         <v>RA_ToSIA04_RF_ACPanel_PwrACEnblSel</v>
       </c>
       <c r="N4" s="16" t="s">
@@ -9169,7 +9182,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16" t="str">
-        <f t="shared" ref="S3:S66" si="5">M4</f>
+        <f t="shared" ref="S4:S66" si="5">M4</f>
         <v>RA_ToSIA04_RF_ACPanel_PwrACEnblSel</v>
       </c>
       <c r="T4" s="16" t="s">
@@ -13936,7 +13949,7 @@
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
       <c r="M88" s="16" t="str">
-        <f>IF(G88="-",C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;H88&amp;""&amp;I88,C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;""&amp;I88)</f>
+        <f t="shared" ref="M88:M105" si="9">IF(G88="-",C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;H88&amp;""&amp;I88,C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;""&amp;I88)</f>
         <v>RA_ToSIA04_RF_ACPanel_PhsCurrent1Mon</v>
       </c>
       <c r="N88" s="16"/>
@@ -13945,7 +13958,7 @@
       <c r="Q88" s="16"/>
       <c r="R88" s="16"/>
       <c r="S88" s="16" t="str">
-        <f>M88</f>
+        <f t="shared" ref="S88:S105" si="10">M88</f>
         <v>RA_ToSIA04_RF_ACPanel_PhsCurrent1Mon</v>
       </c>
       <c r="T88" s="16"/>
@@ -13986,7 +13999,7 @@
       <c r="K89" s="15"/>
       <c r="L89" s="15"/>
       <c r="M89" s="16" t="str">
-        <f>IF(G89="-",C89&amp;"_"&amp;D89&amp;"_"&amp;E89&amp;"_"&amp;F89&amp;"_"&amp;H89&amp;""&amp;I89,C89&amp;"_"&amp;D89&amp;"_"&amp;E89&amp;"_"&amp;F89&amp;"_"&amp;G89&amp;"_"&amp;H89&amp;""&amp;I89)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_PhsCurrent2Mon</v>
       </c>
       <c r="N89" s="16"/>
@@ -13995,7 +14008,7 @@
       <c r="Q89" s="16"/>
       <c r="R89" s="16"/>
       <c r="S89" s="16" t="str">
-        <f>M89</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_PhsCurrent2Mon</v>
       </c>
       <c r="T89" s="16"/>
@@ -14036,7 +14049,7 @@
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>
       <c r="M90" s="16" t="str">
-        <f>IF(G90="-",C90&amp;"_"&amp;D90&amp;"_"&amp;E90&amp;"_"&amp;F90&amp;"_"&amp;H90&amp;""&amp;I90,C90&amp;"_"&amp;D90&amp;"_"&amp;E90&amp;"_"&amp;F90&amp;"_"&amp;G90&amp;"_"&amp;H90&amp;""&amp;I90)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_PhsCurrent3Mon</v>
       </c>
       <c r="N90" s="16"/>
@@ -14045,7 +14058,7 @@
       <c r="Q90" s="16"/>
       <c r="R90" s="16"/>
       <c r="S90" s="16" t="str">
-        <f>M90</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_PhsCurrent3Mon</v>
       </c>
       <c r="T90" s="16"/>
@@ -14086,7 +14099,7 @@
       <c r="K91" s="15"/>
       <c r="L91" s="15"/>
       <c r="M91" s="16" t="str">
-        <f>IF(G91="-",C91&amp;"_"&amp;D91&amp;"_"&amp;E91&amp;"_"&amp;F91&amp;"_"&amp;H91&amp;""&amp;I91,C91&amp;"_"&amp;D91&amp;"_"&amp;E91&amp;"_"&amp;F91&amp;"_"&amp;G91&amp;"_"&amp;H91&amp;""&amp;I91)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_PhsVoltage1Mon</v>
       </c>
       <c r="N91" s="16"/>
@@ -14095,7 +14108,7 @@
       <c r="Q91" s="16"/>
       <c r="R91" s="16"/>
       <c r="S91" s="16" t="str">
-        <f>M91</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_PhsVoltage1Mon</v>
       </c>
       <c r="T91" s="16"/>
@@ -14136,7 +14149,7 @@
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
       <c r="M92" s="16" t="str">
-        <f>IF(G92="-",C92&amp;"_"&amp;D92&amp;"_"&amp;E92&amp;"_"&amp;F92&amp;"_"&amp;H92&amp;""&amp;I92,C92&amp;"_"&amp;D92&amp;"_"&amp;E92&amp;"_"&amp;F92&amp;"_"&amp;G92&amp;"_"&amp;H92&amp;""&amp;I92)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_PhsVoltage2Mon</v>
       </c>
       <c r="N92" s="16"/>
@@ -14145,7 +14158,7 @@
       <c r="Q92" s="16"/>
       <c r="R92" s="16"/>
       <c r="S92" s="16" t="str">
-        <f>M92</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_PhsVoltage2Mon</v>
       </c>
       <c r="T92" s="16"/>
@@ -14186,7 +14199,7 @@
       <c r="K93" s="15"/>
       <c r="L93" s="15"/>
       <c r="M93" s="16" t="str">
-        <f>IF(G93="-",C93&amp;"_"&amp;D93&amp;"_"&amp;E93&amp;"_"&amp;F93&amp;"_"&amp;H93&amp;""&amp;I93,C93&amp;"_"&amp;D93&amp;"_"&amp;E93&amp;"_"&amp;F93&amp;"_"&amp;G93&amp;"_"&amp;H93&amp;""&amp;I93)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_PhsVoltage3Mon</v>
       </c>
       <c r="N93" s="16"/>
@@ -14195,7 +14208,7 @@
       <c r="Q93" s="16"/>
       <c r="R93" s="16"/>
       <c r="S93" s="16" t="str">
-        <f>M93</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_PhsVoltage3Mon</v>
       </c>
       <c r="T93" s="16"/>
@@ -14236,7 +14249,7 @@
       <c r="K94" s="15"/>
       <c r="L94" s="15"/>
       <c r="M94" s="16" t="str">
-        <f>IF(G94="-",C94&amp;"_"&amp;D94&amp;"_"&amp;E94&amp;"_"&amp;F94&amp;"_"&amp;H94&amp;""&amp;I94,C94&amp;"_"&amp;D94&amp;"_"&amp;E94&amp;"_"&amp;F94&amp;"_"&amp;G94&amp;"_"&amp;H94&amp;""&amp;I94)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_LineVoltage12Mon</v>
       </c>
       <c r="N94" s="16"/>
@@ -14245,7 +14258,7 @@
       <c r="Q94" s="16"/>
       <c r="R94" s="16"/>
       <c r="S94" s="16" t="str">
-        <f>M94</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_LineVoltage12Mon</v>
       </c>
       <c r="T94" s="16"/>
@@ -14286,7 +14299,7 @@
       <c r="K95" s="15"/>
       <c r="L95" s="15"/>
       <c r="M95" s="16" t="str">
-        <f>IF(G95="-",C95&amp;"_"&amp;D95&amp;"_"&amp;E95&amp;"_"&amp;F95&amp;"_"&amp;H95&amp;""&amp;I95,C95&amp;"_"&amp;D95&amp;"_"&amp;E95&amp;"_"&amp;F95&amp;"_"&amp;G95&amp;"_"&amp;H95&amp;""&amp;I95)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_LineVoltage13Mon</v>
       </c>
       <c r="N95" s="16"/>
@@ -14295,7 +14308,7 @@
       <c r="Q95" s="16"/>
       <c r="R95" s="16"/>
       <c r="S95" s="16" t="str">
-        <f>M95</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_LineVoltage13Mon</v>
       </c>
       <c r="T95" s="16"/>
@@ -14336,7 +14349,7 @@
       <c r="K96" s="15"/>
       <c r="L96" s="15"/>
       <c r="M96" s="16" t="str">
-        <f>IF(G96="-",C96&amp;"_"&amp;D96&amp;"_"&amp;E96&amp;"_"&amp;F96&amp;"_"&amp;H96&amp;""&amp;I96,C96&amp;"_"&amp;D96&amp;"_"&amp;E96&amp;"_"&amp;F96&amp;"_"&amp;G96&amp;"_"&amp;H96&amp;""&amp;I96)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_LineVoltage23Mon</v>
       </c>
       <c r="N96" s="16"/>
@@ -14345,7 +14358,7 @@
       <c r="Q96" s="16"/>
       <c r="R96" s="16"/>
       <c r="S96" s="16" t="str">
-        <f>M96</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_LineVoltage23Mon</v>
       </c>
       <c r="T96" s="16"/>
@@ -14386,7 +14399,7 @@
       <c r="K97" s="15"/>
       <c r="L97" s="15"/>
       <c r="M97" s="16" t="str">
-        <f>IF(G97="-",C97&amp;"_"&amp;D97&amp;"_"&amp;E97&amp;"_"&amp;F97&amp;"_"&amp;H97&amp;""&amp;I97,C97&amp;"_"&amp;D97&amp;"_"&amp;E97&amp;"_"&amp;F97&amp;"_"&amp;G97&amp;"_"&amp;H97&amp;""&amp;I97)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_PwrSMon</v>
       </c>
       <c r="N97" s="16"/>
@@ -14395,7 +14408,7 @@
       <c r="Q97" s="16"/>
       <c r="R97" s="16"/>
       <c r="S97" s="16" t="str">
-        <f>M97</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_PwrSMon</v>
       </c>
       <c r="T97" s="16"/>
@@ -14436,7 +14449,7 @@
       <c r="K98" s="15"/>
       <c r="L98" s="15"/>
       <c r="M98" s="16" t="str">
-        <f>IF(G98="-",C98&amp;"_"&amp;D98&amp;"_"&amp;E98&amp;"_"&amp;F98&amp;"_"&amp;H98&amp;""&amp;I98,C98&amp;"_"&amp;D98&amp;"_"&amp;E98&amp;"_"&amp;F98&amp;"_"&amp;G98&amp;"_"&amp;H98&amp;""&amp;I98)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_PwrPMon</v>
       </c>
       <c r="N98" s="16"/>
@@ -14445,7 +14458,7 @@
       <c r="Q98" s="16"/>
       <c r="R98" s="16"/>
       <c r="S98" s="16" t="str">
-        <f>M98</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_PwrPMon</v>
       </c>
       <c r="T98" s="16"/>
@@ -14486,7 +14499,7 @@
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
       <c r="M99" s="16" t="str">
-        <f>IF(G99="-",C99&amp;"_"&amp;D99&amp;"_"&amp;E99&amp;"_"&amp;F99&amp;"_"&amp;H99&amp;""&amp;I99,C99&amp;"_"&amp;D99&amp;"_"&amp;E99&amp;"_"&amp;F99&amp;"_"&amp;G99&amp;"_"&amp;H99&amp;""&amp;I99)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_PwrQMon</v>
       </c>
       <c r="N99" s="16"/>
@@ -14495,7 +14508,7 @@
       <c r="Q99" s="16"/>
       <c r="R99" s="16"/>
       <c r="S99" s="16" t="str">
-        <f>M99</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_PwrQMon</v>
       </c>
       <c r="T99" s="16"/>
@@ -14536,7 +14549,7 @@
       <c r="K100" s="15"/>
       <c r="L100" s="15"/>
       <c r="M100" s="16" t="str">
-        <f>IF(G100="-",C100&amp;"_"&amp;D100&amp;"_"&amp;E100&amp;"_"&amp;F100&amp;"_"&amp;H100&amp;""&amp;I100,C100&amp;"_"&amp;D100&amp;"_"&amp;E100&amp;"_"&amp;F100&amp;"_"&amp;G100&amp;"_"&amp;H100&amp;""&amp;I100)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_PwrFactorMon</v>
       </c>
       <c r="N100" s="16"/>
@@ -14545,7 +14558,7 @@
       <c r="Q100" s="16"/>
       <c r="R100" s="16"/>
       <c r="S100" s="16" t="str">
-        <f>M100</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_PwrFactorMon</v>
       </c>
       <c r="T100" s="16"/>
@@ -14586,7 +14599,7 @@
       <c r="K101" s="15"/>
       <c r="L101" s="15"/>
       <c r="M101" s="16" t="str">
-        <f>IF(G101="-",C101&amp;"_"&amp;D101&amp;"_"&amp;E101&amp;"_"&amp;F101&amp;"_"&amp;H101&amp;""&amp;I101,C101&amp;"_"&amp;D101&amp;"_"&amp;E101&amp;"_"&amp;F101&amp;"_"&amp;G101&amp;"_"&amp;H101&amp;""&amp;I101)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_THD1Mon</v>
       </c>
       <c r="N101" s="16"/>
@@ -14595,7 +14608,7 @@
       <c r="Q101" s="16"/>
       <c r="R101" s="16"/>
       <c r="S101" s="16" t="str">
-        <f>M101</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_THD1Mon</v>
       </c>
       <c r="T101" s="16"/>
@@ -14636,7 +14649,7 @@
       <c r="K102" s="15"/>
       <c r="L102" s="15"/>
       <c r="M102" s="16" t="str">
-        <f>IF(G102="-",C102&amp;"_"&amp;D102&amp;"_"&amp;E102&amp;"_"&amp;F102&amp;"_"&amp;H102&amp;""&amp;I102,C102&amp;"_"&amp;D102&amp;"_"&amp;E102&amp;"_"&amp;F102&amp;"_"&amp;G102&amp;"_"&amp;H102&amp;""&amp;I102)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_THD2Mon</v>
       </c>
       <c r="N102" s="16"/>
@@ -14645,7 +14658,7 @@
       <c r="Q102" s="16"/>
       <c r="R102" s="16"/>
       <c r="S102" s="16" t="str">
-        <f>M102</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_THD2Mon</v>
       </c>
       <c r="T102" s="16"/>
@@ -14686,7 +14699,7 @@
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
       <c r="M103" s="16" t="str">
-        <f>IF(G103="-",C103&amp;"_"&amp;D103&amp;"_"&amp;E103&amp;"_"&amp;F103&amp;"_"&amp;H103&amp;""&amp;I103,C103&amp;"_"&amp;D103&amp;"_"&amp;E103&amp;"_"&amp;F103&amp;"_"&amp;G103&amp;"_"&amp;H103&amp;""&amp;I103)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_THD3Mon</v>
       </c>
       <c r="N103" s="16"/>
@@ -14695,7 +14708,7 @@
       <c r="Q103" s="16"/>
       <c r="R103" s="16"/>
       <c r="S103" s="16" t="str">
-        <f>M103</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_THD3Mon</v>
       </c>
       <c r="T103" s="16"/>
@@ -14736,7 +14749,7 @@
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
       <c r="M104" s="16" t="str">
-        <f>IF(G104="-",C104&amp;"_"&amp;D104&amp;"_"&amp;E104&amp;"_"&amp;F104&amp;"_"&amp;H104&amp;""&amp;I104,C104&amp;"_"&amp;D104&amp;"_"&amp;E104&amp;"_"&amp;F104&amp;"_"&amp;G104&amp;"_"&amp;H104&amp;""&amp;I104)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_CurrentNMon</v>
       </c>
       <c r="N104" s="16"/>
@@ -14745,7 +14758,7 @@
       <c r="Q104" s="16"/>
       <c r="R104" s="16"/>
       <c r="S104" s="16" t="str">
-        <f>M104</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_CurrentNMon</v>
       </c>
       <c r="T104" s="16"/>
@@ -14786,7 +14799,7 @@
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
       <c r="M105" s="16" t="str">
-        <f>IF(G105="-",C105&amp;"_"&amp;D105&amp;"_"&amp;E105&amp;"_"&amp;F105&amp;"_"&amp;H105&amp;""&amp;I105,C105&amp;"_"&amp;D105&amp;"_"&amp;E105&amp;"_"&amp;F105&amp;"_"&amp;G105&amp;"_"&amp;H105&amp;""&amp;I105)</f>
+        <f t="shared" si="9"/>
         <v>RA_ToSIA04_RF_ACPanel_FreqMon</v>
       </c>
       <c r="N105" s="16"/>
@@ -14795,7 +14808,7 @@
       <c r="Q105" s="16"/>
       <c r="R105" s="16"/>
       <c r="S105" s="16" t="str">
-        <f>M105</f>
+        <f t="shared" si="10"/>
         <v>RA_ToSIA04_RF_ACPanel_FreqMon</v>
       </c>
       <c r="T105" s="16"/>
@@ -14824,27 +14837,27 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="4" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -14856,30 +14869,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853BE69E-AD65-44CD-97E2-95D4CB3A240B}">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1">
@@ -19878,7 +19892,7 @@
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
       <c r="M88" s="16" t="str">
-        <f>IF(G88="-",C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;H88&amp;""&amp;I88,C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;""&amp;I88)</f>
+        <f t="shared" ref="M88:M105" si="6">IF(G88="-",C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;H88&amp;""&amp;I88,C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;""&amp;I88)</f>
         <v>RA_ToSIA03_RF_ACPanel_PhsCurrent1Mon</v>
       </c>
       <c r="N88" s="16"/>
@@ -19887,7 +19901,7 @@
       <c r="Q88" s="16"/>
       <c r="R88" s="16"/>
       <c r="S88" s="16" t="str">
-        <f>M88</f>
+        <f t="shared" ref="S88:S105" si="7">M88</f>
         <v>RA_ToSIA03_RF_ACPanel_PhsCurrent1Mon</v>
       </c>
       <c r="T88" s="16"/>
@@ -19928,7 +19942,7 @@
       <c r="K89" s="15"/>
       <c r="L89" s="15"/>
       <c r="M89" s="16" t="str">
-        <f>IF(G89="-",C89&amp;"_"&amp;D89&amp;"_"&amp;E89&amp;"_"&amp;F89&amp;"_"&amp;H89&amp;""&amp;I89,C89&amp;"_"&amp;D89&amp;"_"&amp;E89&amp;"_"&amp;F89&amp;"_"&amp;G89&amp;"_"&amp;H89&amp;""&amp;I89)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_PhsCurrent2Mon</v>
       </c>
       <c r="N89" s="16"/>
@@ -19937,7 +19951,7 @@
       <c r="Q89" s="16"/>
       <c r="R89" s="16"/>
       <c r="S89" s="16" t="str">
-        <f>M89</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_PhsCurrent2Mon</v>
       </c>
       <c r="T89" s="16"/>
@@ -19978,7 +19992,7 @@
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>
       <c r="M90" s="16" t="str">
-        <f>IF(G90="-",C90&amp;"_"&amp;D90&amp;"_"&amp;E90&amp;"_"&amp;F90&amp;"_"&amp;H90&amp;""&amp;I90,C90&amp;"_"&amp;D90&amp;"_"&amp;E90&amp;"_"&amp;F90&amp;"_"&amp;G90&amp;"_"&amp;H90&amp;""&amp;I90)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_PhsCurrent3Mon</v>
       </c>
       <c r="N90" s="16"/>
@@ -19987,7 +20001,7 @@
       <c r="Q90" s="16"/>
       <c r="R90" s="16"/>
       <c r="S90" s="16" t="str">
-        <f>M90</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_PhsCurrent3Mon</v>
       </c>
       <c r="T90" s="16"/>
@@ -20028,7 +20042,7 @@
       <c r="K91" s="15"/>
       <c r="L91" s="15"/>
       <c r="M91" s="16" t="str">
-        <f>IF(G91="-",C91&amp;"_"&amp;D91&amp;"_"&amp;E91&amp;"_"&amp;F91&amp;"_"&amp;H91&amp;""&amp;I91,C91&amp;"_"&amp;D91&amp;"_"&amp;E91&amp;"_"&amp;F91&amp;"_"&amp;G91&amp;"_"&amp;H91&amp;""&amp;I91)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_PhsVoltage1Mon</v>
       </c>
       <c r="N91" s="16"/>
@@ -20037,7 +20051,7 @@
       <c r="Q91" s="16"/>
       <c r="R91" s="16"/>
       <c r="S91" s="16" t="str">
-        <f>M91</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_PhsVoltage1Mon</v>
       </c>
       <c r="T91" s="16"/>
@@ -20078,7 +20092,7 @@
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
       <c r="M92" s="16" t="str">
-        <f>IF(G92="-",C92&amp;"_"&amp;D92&amp;"_"&amp;E92&amp;"_"&amp;F92&amp;"_"&amp;H92&amp;""&amp;I92,C92&amp;"_"&amp;D92&amp;"_"&amp;E92&amp;"_"&amp;F92&amp;"_"&amp;G92&amp;"_"&amp;H92&amp;""&amp;I92)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_PhsVoltage2Mon</v>
       </c>
       <c r="N92" s="16"/>
@@ -20087,7 +20101,7 @@
       <c r="Q92" s="16"/>
       <c r="R92" s="16"/>
       <c r="S92" s="16" t="str">
-        <f>M92</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_PhsVoltage2Mon</v>
       </c>
       <c r="T92" s="16"/>
@@ -20128,7 +20142,7 @@
       <c r="K93" s="15"/>
       <c r="L93" s="15"/>
       <c r="M93" s="16" t="str">
-        <f>IF(G93="-",C93&amp;"_"&amp;D93&amp;"_"&amp;E93&amp;"_"&amp;F93&amp;"_"&amp;H93&amp;""&amp;I93,C93&amp;"_"&amp;D93&amp;"_"&amp;E93&amp;"_"&amp;F93&amp;"_"&amp;G93&amp;"_"&amp;H93&amp;""&amp;I93)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_PhsVoltage3Mon</v>
       </c>
       <c r="N93" s="16"/>
@@ -20137,7 +20151,7 @@
       <c r="Q93" s="16"/>
       <c r="R93" s="16"/>
       <c r="S93" s="16" t="str">
-        <f>M93</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_PhsVoltage3Mon</v>
       </c>
       <c r="T93" s="16"/>
@@ -20178,7 +20192,7 @@
       <c r="K94" s="15"/>
       <c r="L94" s="15"/>
       <c r="M94" s="16" t="str">
-        <f>IF(G94="-",C94&amp;"_"&amp;D94&amp;"_"&amp;E94&amp;"_"&amp;F94&amp;"_"&amp;H94&amp;""&amp;I94,C94&amp;"_"&amp;D94&amp;"_"&amp;E94&amp;"_"&amp;F94&amp;"_"&amp;G94&amp;"_"&amp;H94&amp;""&amp;I94)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_LineVoltage12Mon</v>
       </c>
       <c r="N94" s="16"/>
@@ -20187,7 +20201,7 @@
       <c r="Q94" s="16"/>
       <c r="R94" s="16"/>
       <c r="S94" s="16" t="str">
-        <f>M94</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_LineVoltage12Mon</v>
       </c>
       <c r="T94" s="16"/>
@@ -20228,7 +20242,7 @@
       <c r="K95" s="15"/>
       <c r="L95" s="15"/>
       <c r="M95" s="16" t="str">
-        <f>IF(G95="-",C95&amp;"_"&amp;D95&amp;"_"&amp;E95&amp;"_"&amp;F95&amp;"_"&amp;H95&amp;""&amp;I95,C95&amp;"_"&amp;D95&amp;"_"&amp;E95&amp;"_"&amp;F95&amp;"_"&amp;G95&amp;"_"&amp;H95&amp;""&amp;I95)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_LineVoltage13Mon</v>
       </c>
       <c r="N95" s="16"/>
@@ -20237,7 +20251,7 @@
       <c r="Q95" s="16"/>
       <c r="R95" s="16"/>
       <c r="S95" s="16" t="str">
-        <f>M95</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_LineVoltage13Mon</v>
       </c>
       <c r="T95" s="16"/>
@@ -20278,7 +20292,7 @@
       <c r="K96" s="15"/>
       <c r="L96" s="15"/>
       <c r="M96" s="16" t="str">
-        <f>IF(G96="-",C96&amp;"_"&amp;D96&amp;"_"&amp;E96&amp;"_"&amp;F96&amp;"_"&amp;H96&amp;""&amp;I96,C96&amp;"_"&amp;D96&amp;"_"&amp;E96&amp;"_"&amp;F96&amp;"_"&amp;G96&amp;"_"&amp;H96&amp;""&amp;I96)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_LineVoltage23Mon</v>
       </c>
       <c r="N96" s="16"/>
@@ -20287,7 +20301,7 @@
       <c r="Q96" s="16"/>
       <c r="R96" s="16"/>
       <c r="S96" s="16" t="str">
-        <f>M96</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_LineVoltage23Mon</v>
       </c>
       <c r="T96" s="16"/>
@@ -20328,7 +20342,7 @@
       <c r="K97" s="15"/>
       <c r="L97" s="15"/>
       <c r="M97" s="16" t="str">
-        <f>IF(G97="-",C97&amp;"_"&amp;D97&amp;"_"&amp;E97&amp;"_"&amp;F97&amp;"_"&amp;H97&amp;""&amp;I97,C97&amp;"_"&amp;D97&amp;"_"&amp;E97&amp;"_"&amp;F97&amp;"_"&amp;G97&amp;"_"&amp;H97&amp;""&amp;I97)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_PwrSMon</v>
       </c>
       <c r="N97" s="16"/>
@@ -20337,7 +20351,7 @@
       <c r="Q97" s="16"/>
       <c r="R97" s="16"/>
       <c r="S97" s="16" t="str">
-        <f>M97</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_PwrSMon</v>
       </c>
       <c r="T97" s="16"/>
@@ -20378,7 +20392,7 @@
       <c r="K98" s="15"/>
       <c r="L98" s="15"/>
       <c r="M98" s="16" t="str">
-        <f>IF(G98="-",C98&amp;"_"&amp;D98&amp;"_"&amp;E98&amp;"_"&amp;F98&amp;"_"&amp;H98&amp;""&amp;I98,C98&amp;"_"&amp;D98&amp;"_"&amp;E98&amp;"_"&amp;F98&amp;"_"&amp;G98&amp;"_"&amp;H98&amp;""&amp;I98)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_PwrPMon</v>
       </c>
       <c r="N98" s="16"/>
@@ -20387,7 +20401,7 @@
       <c r="Q98" s="16"/>
       <c r="R98" s="16"/>
       <c r="S98" s="16" t="str">
-        <f>M98</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_PwrPMon</v>
       </c>
       <c r="T98" s="16"/>
@@ -20428,7 +20442,7 @@
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
       <c r="M99" s="16" t="str">
-        <f>IF(G99="-",C99&amp;"_"&amp;D99&amp;"_"&amp;E99&amp;"_"&amp;F99&amp;"_"&amp;H99&amp;""&amp;I99,C99&amp;"_"&amp;D99&amp;"_"&amp;E99&amp;"_"&amp;F99&amp;"_"&amp;G99&amp;"_"&amp;H99&amp;""&amp;I99)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_PwrQMon</v>
       </c>
       <c r="N99" s="16"/>
@@ -20437,7 +20451,7 @@
       <c r="Q99" s="16"/>
       <c r="R99" s="16"/>
       <c r="S99" s="16" t="str">
-        <f>M99</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_PwrQMon</v>
       </c>
       <c r="T99" s="16"/>
@@ -20478,7 +20492,7 @@
       <c r="K100" s="15"/>
       <c r="L100" s="15"/>
       <c r="M100" s="16" t="str">
-        <f>IF(G100="-",C100&amp;"_"&amp;D100&amp;"_"&amp;E100&amp;"_"&amp;F100&amp;"_"&amp;H100&amp;""&amp;I100,C100&amp;"_"&amp;D100&amp;"_"&amp;E100&amp;"_"&amp;F100&amp;"_"&amp;G100&amp;"_"&amp;H100&amp;""&amp;I100)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_PwrFactorMon</v>
       </c>
       <c r="N100" s="16"/>
@@ -20487,7 +20501,7 @@
       <c r="Q100" s="16"/>
       <c r="R100" s="16"/>
       <c r="S100" s="16" t="str">
-        <f>M100</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_PwrFactorMon</v>
       </c>
       <c r="T100" s="16"/>
@@ -20528,7 +20542,7 @@
       <c r="K101" s="15"/>
       <c r="L101" s="15"/>
       <c r="M101" s="16" t="str">
-        <f>IF(G101="-",C101&amp;"_"&amp;D101&amp;"_"&amp;E101&amp;"_"&amp;F101&amp;"_"&amp;H101&amp;""&amp;I101,C101&amp;"_"&amp;D101&amp;"_"&amp;E101&amp;"_"&amp;F101&amp;"_"&amp;G101&amp;"_"&amp;H101&amp;""&amp;I101)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_THD1Mon</v>
       </c>
       <c r="N101" s="16"/>
@@ -20537,7 +20551,7 @@
       <c r="Q101" s="16"/>
       <c r="R101" s="16"/>
       <c r="S101" s="16" t="str">
-        <f>M101</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_THD1Mon</v>
       </c>
       <c r="T101" s="16"/>
@@ -20578,7 +20592,7 @@
       <c r="K102" s="15"/>
       <c r="L102" s="15"/>
       <c r="M102" s="16" t="str">
-        <f>IF(G102="-",C102&amp;"_"&amp;D102&amp;"_"&amp;E102&amp;"_"&amp;F102&amp;"_"&amp;H102&amp;""&amp;I102,C102&amp;"_"&amp;D102&amp;"_"&amp;E102&amp;"_"&amp;F102&amp;"_"&amp;G102&amp;"_"&amp;H102&amp;""&amp;I102)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_THD2Mon</v>
       </c>
       <c r="N102" s="16"/>
@@ -20587,7 +20601,7 @@
       <c r="Q102" s="16"/>
       <c r="R102" s="16"/>
       <c r="S102" s="16" t="str">
-        <f>M102</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_THD2Mon</v>
       </c>
       <c r="T102" s="16"/>
@@ -20628,7 +20642,7 @@
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
       <c r="M103" s="16" t="str">
-        <f>IF(G103="-",C103&amp;"_"&amp;D103&amp;"_"&amp;E103&amp;"_"&amp;F103&amp;"_"&amp;H103&amp;""&amp;I103,C103&amp;"_"&amp;D103&amp;"_"&amp;E103&amp;"_"&amp;F103&amp;"_"&amp;G103&amp;"_"&amp;H103&amp;""&amp;I103)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_THD3Mon</v>
       </c>
       <c r="N103" s="16"/>
@@ -20637,7 +20651,7 @@
       <c r="Q103" s="16"/>
       <c r="R103" s="16"/>
       <c r="S103" s="16" t="str">
-        <f>M103</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_THD3Mon</v>
       </c>
       <c r="T103" s="16"/>
@@ -20678,7 +20692,7 @@
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
       <c r="M104" s="16" t="str">
-        <f>IF(G104="-",C104&amp;"_"&amp;D104&amp;"_"&amp;E104&amp;"_"&amp;F104&amp;"_"&amp;H104&amp;""&amp;I104,C104&amp;"_"&amp;D104&amp;"_"&amp;E104&amp;"_"&amp;F104&amp;"_"&amp;G104&amp;"_"&amp;H104&amp;""&amp;I104)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_CurrentNMon</v>
       </c>
       <c r="N104" s="16"/>
@@ -20687,7 +20701,7 @@
       <c r="Q104" s="16"/>
       <c r="R104" s="16"/>
       <c r="S104" s="16" t="str">
-        <f>M104</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_CurrentNMon</v>
       </c>
       <c r="T104" s="16"/>
@@ -20728,7 +20742,7 @@
       <c r="K105" s="22"/>
       <c r="L105" s="22"/>
       <c r="M105" s="23" t="str">
-        <f>IF(G105="-",C105&amp;"_"&amp;D105&amp;"_"&amp;E105&amp;"_"&amp;F105&amp;"_"&amp;H105&amp;""&amp;I105,C105&amp;"_"&amp;D105&amp;"_"&amp;E105&amp;"_"&amp;F105&amp;"_"&amp;G105&amp;"_"&amp;H105&amp;""&amp;I105)</f>
+        <f t="shared" si="6"/>
         <v>RA_ToSIA03_RF_ACPanel_FreqMon</v>
       </c>
       <c r="N105" s="23"/>
@@ -20737,7 +20751,7 @@
       <c r="Q105" s="23"/>
       <c r="R105" s="23"/>
       <c r="S105" s="23" t="str">
-        <f>M105</f>
+        <f t="shared" si="7"/>
         <v>RA_ToSIA03_RF_ACPanel_FreqMon</v>
       </c>
       <c r="T105" s="23"/>
@@ -20755,7 +20769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA0C024-B543-4974-9C2B-6A512F27BEFD}">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20948,7 +20962,7 @@
         <v>N/A</v>
       </c>
       <c r="M3" s="23" t="str">
-        <f t="shared" ref="M2:M33" si="3">IF(G3="-",C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;"_"&amp;H3&amp;""&amp;I3,C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;"_"&amp;G3&amp;"_"&amp;H3&amp;""&amp;I3)</f>
+        <f t="shared" ref="M3:M33" si="3">IF(G3="-",C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;"_"&amp;H3&amp;""&amp;I3,C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;"_"&amp;G3&amp;"_"&amp;H3&amp;""&amp;I3)</f>
         <v>RA_ToSIA02_RF_ACPanel_PwrACDsblSel</v>
       </c>
       <c r="N3" s="23" t="s">
@@ -25974,7 +25988,7 @@
         <v>N/A</v>
       </c>
       <c r="M82" s="16" t="str">
-        <f t="shared" ref="M82:M87" si="13">IF(G82="-",C82&amp;"_"&amp;D82&amp;"_"&amp;E82&amp;"_"&amp;F82&amp;"_"&amp;H82&amp;""&amp;I82,C82&amp;"_"&amp;D82&amp;"_"&amp;E82&amp;"_"&amp;F82&amp;"_"&amp;G82&amp;"_"&amp;H82&amp;""&amp;I82)</f>
+        <f t="shared" ref="M82:M83" si="13">IF(G82="-",C82&amp;"_"&amp;D82&amp;"_"&amp;E82&amp;"_"&amp;F82&amp;"_"&amp;H82&amp;""&amp;I82,C82&amp;"_"&amp;D82&amp;"_"&amp;E82&amp;"_"&amp;F82&amp;"_"&amp;G82&amp;"_"&amp;H82&amp;""&amp;I82)</f>
         <v>RA_ToSIA02_RF_SSAmpTower_EnblSel</v>
       </c>
       <c r="N82" s="16" t="s">
@@ -26358,7 +26372,7 @@
         <v>N/A</v>
       </c>
       <c r="M88" s="16" t="str">
-        <f>IF(G88="-",C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;H88&amp;""&amp;I88,C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;""&amp;I88)</f>
+        <f t="shared" ref="M88:M105" si="15">IF(G88="-",C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;H88&amp;""&amp;I88,C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;""&amp;I88)</f>
         <v>RA_ToSIA02_RF_ACPanel_PhsCurrent1Mon</v>
       </c>
       <c r="N88" s="16"/>
@@ -26367,7 +26381,7 @@
       <c r="Q88" s="16"/>
       <c r="R88" s="16"/>
       <c r="S88" s="16" t="str">
-        <f>M88</f>
+        <f t="shared" ref="S88:S105" si="16">M88</f>
         <v>RA_ToSIA02_RF_ACPanel_PhsCurrent1Mon</v>
       </c>
       <c r="T88" s="16"/>
@@ -26414,7 +26428,7 @@
         <v>N/A</v>
       </c>
       <c r="M89" s="16" t="str">
-        <f>IF(G89="-",C89&amp;"_"&amp;D89&amp;"_"&amp;E89&amp;"_"&amp;F89&amp;"_"&amp;H89&amp;""&amp;I89,C89&amp;"_"&amp;D89&amp;"_"&amp;E89&amp;"_"&amp;F89&amp;"_"&amp;G89&amp;"_"&amp;H89&amp;""&amp;I89)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_PhsCurrent2Mon</v>
       </c>
       <c r="N89" s="16"/>
@@ -26423,7 +26437,7 @@
       <c r="Q89" s="16"/>
       <c r="R89" s="16"/>
       <c r="S89" s="16" t="str">
-        <f>M89</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_PhsCurrent2Mon</v>
       </c>
       <c r="T89" s="16"/>
@@ -26470,7 +26484,7 @@
         <v>N/A</v>
       </c>
       <c r="M90" s="16" t="str">
-        <f>IF(G90="-",C90&amp;"_"&amp;D90&amp;"_"&amp;E90&amp;"_"&amp;F90&amp;"_"&amp;H90&amp;""&amp;I90,C90&amp;"_"&amp;D90&amp;"_"&amp;E90&amp;"_"&amp;F90&amp;"_"&amp;G90&amp;"_"&amp;H90&amp;""&amp;I90)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_PhsCurrent3Mon</v>
       </c>
       <c r="N90" s="16"/>
@@ -26479,7 +26493,7 @@
       <c r="Q90" s="16"/>
       <c r="R90" s="16"/>
       <c r="S90" s="16" t="str">
-        <f>M90</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_PhsCurrent3Mon</v>
       </c>
       <c r="T90" s="16"/>
@@ -26526,7 +26540,7 @@
         <v>N/A</v>
       </c>
       <c r="M91" s="16" t="str">
-        <f>IF(G91="-",C91&amp;"_"&amp;D91&amp;"_"&amp;E91&amp;"_"&amp;F91&amp;"_"&amp;H91&amp;""&amp;I91,C91&amp;"_"&amp;D91&amp;"_"&amp;E91&amp;"_"&amp;F91&amp;"_"&amp;G91&amp;"_"&amp;H91&amp;""&amp;I91)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_PhsVoltage1Mon</v>
       </c>
       <c r="N91" s="16"/>
@@ -26535,7 +26549,7 @@
       <c r="Q91" s="16"/>
       <c r="R91" s="16"/>
       <c r="S91" s="16" t="str">
-        <f>M91</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_PhsVoltage1Mon</v>
       </c>
       <c r="T91" s="16"/>
@@ -26582,7 +26596,7 @@
         <v>N/A</v>
       </c>
       <c r="M92" s="16" t="str">
-        <f>IF(G92="-",C92&amp;"_"&amp;D92&amp;"_"&amp;E92&amp;"_"&amp;F92&amp;"_"&amp;H92&amp;""&amp;I92,C92&amp;"_"&amp;D92&amp;"_"&amp;E92&amp;"_"&amp;F92&amp;"_"&amp;G92&amp;"_"&amp;H92&amp;""&amp;I92)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_PhsVoltage2Mon</v>
       </c>
       <c r="N92" s="16"/>
@@ -26591,7 +26605,7 @@
       <c r="Q92" s="16"/>
       <c r="R92" s="16"/>
       <c r="S92" s="16" t="str">
-        <f>M92</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_PhsVoltage2Mon</v>
       </c>
       <c r="T92" s="16"/>
@@ -26638,7 +26652,7 @@
         <v>N/A</v>
       </c>
       <c r="M93" s="16" t="str">
-        <f>IF(G93="-",C93&amp;"_"&amp;D93&amp;"_"&amp;E93&amp;"_"&amp;F93&amp;"_"&amp;H93&amp;""&amp;I93,C93&amp;"_"&amp;D93&amp;"_"&amp;E93&amp;"_"&amp;F93&amp;"_"&amp;G93&amp;"_"&amp;H93&amp;""&amp;I93)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_PhsVoltage3Mon</v>
       </c>
       <c r="N93" s="16"/>
@@ -26647,7 +26661,7 @@
       <c r="Q93" s="16"/>
       <c r="R93" s="16"/>
       <c r="S93" s="16" t="str">
-        <f>M93</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_PhsVoltage3Mon</v>
       </c>
       <c r="T93" s="16"/>
@@ -26694,7 +26708,7 @@
         <v>N/A</v>
       </c>
       <c r="M94" s="16" t="str">
-        <f>IF(G94="-",C94&amp;"_"&amp;D94&amp;"_"&amp;E94&amp;"_"&amp;F94&amp;"_"&amp;H94&amp;""&amp;I94,C94&amp;"_"&amp;D94&amp;"_"&amp;E94&amp;"_"&amp;F94&amp;"_"&amp;G94&amp;"_"&amp;H94&amp;""&amp;I94)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_LineVoltage12Mon</v>
       </c>
       <c r="N94" s="16"/>
@@ -26703,7 +26717,7 @@
       <c r="Q94" s="16"/>
       <c r="R94" s="16"/>
       <c r="S94" s="16" t="str">
-        <f>M94</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_LineVoltage12Mon</v>
       </c>
       <c r="T94" s="16"/>
@@ -26750,7 +26764,7 @@
         <v>N/A</v>
       </c>
       <c r="M95" s="16" t="str">
-        <f>IF(G95="-",C95&amp;"_"&amp;D95&amp;"_"&amp;E95&amp;"_"&amp;F95&amp;"_"&amp;H95&amp;""&amp;I95,C95&amp;"_"&amp;D95&amp;"_"&amp;E95&amp;"_"&amp;F95&amp;"_"&amp;G95&amp;"_"&amp;H95&amp;""&amp;I95)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_LineVoltage13Mon</v>
       </c>
       <c r="N95" s="16"/>
@@ -26759,7 +26773,7 @@
       <c r="Q95" s="16"/>
       <c r="R95" s="16"/>
       <c r="S95" s="16" t="str">
-        <f>M95</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_LineVoltage13Mon</v>
       </c>
       <c r="T95" s="16"/>
@@ -26806,7 +26820,7 @@
         <v>N/A</v>
       </c>
       <c r="M96" s="16" t="str">
-        <f>IF(G96="-",C96&amp;"_"&amp;D96&amp;"_"&amp;E96&amp;"_"&amp;F96&amp;"_"&amp;H96&amp;""&amp;I96,C96&amp;"_"&amp;D96&amp;"_"&amp;E96&amp;"_"&amp;F96&amp;"_"&amp;G96&amp;"_"&amp;H96&amp;""&amp;I96)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_LineVoltage23Mon</v>
       </c>
       <c r="N96" s="16"/>
@@ -26815,7 +26829,7 @@
       <c r="Q96" s="16"/>
       <c r="R96" s="16"/>
       <c r="S96" s="16" t="str">
-        <f>M96</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_LineVoltage23Mon</v>
       </c>
       <c r="T96" s="16"/>
@@ -26862,7 +26876,7 @@
         <v>N/A</v>
       </c>
       <c r="M97" s="16" t="str">
-        <f>IF(G97="-",C97&amp;"_"&amp;D97&amp;"_"&amp;E97&amp;"_"&amp;F97&amp;"_"&amp;H97&amp;""&amp;I97,C97&amp;"_"&amp;D97&amp;"_"&amp;E97&amp;"_"&amp;F97&amp;"_"&amp;G97&amp;"_"&amp;H97&amp;""&amp;I97)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_PwrSMon</v>
       </c>
       <c r="N97" s="16"/>
@@ -26871,7 +26885,7 @@
       <c r="Q97" s="16"/>
       <c r="R97" s="16"/>
       <c r="S97" s="16" t="str">
-        <f>M97</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_PwrSMon</v>
       </c>
       <c r="T97" s="16"/>
@@ -26918,7 +26932,7 @@
         <v>N/A</v>
       </c>
       <c r="M98" s="16" t="str">
-        <f>IF(G98="-",C98&amp;"_"&amp;D98&amp;"_"&amp;E98&amp;"_"&amp;F98&amp;"_"&amp;H98&amp;""&amp;I98,C98&amp;"_"&amp;D98&amp;"_"&amp;E98&amp;"_"&amp;F98&amp;"_"&amp;G98&amp;"_"&amp;H98&amp;""&amp;I98)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_PwrPMon</v>
       </c>
       <c r="N98" s="16"/>
@@ -26927,7 +26941,7 @@
       <c r="Q98" s="16"/>
       <c r="R98" s="16"/>
       <c r="S98" s="16" t="str">
-        <f>M98</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_PwrPMon</v>
       </c>
       <c r="T98" s="16"/>
@@ -26974,7 +26988,7 @@
         <v>N/A</v>
       </c>
       <c r="M99" s="16" t="str">
-        <f>IF(G99="-",C99&amp;"_"&amp;D99&amp;"_"&amp;E99&amp;"_"&amp;F99&amp;"_"&amp;H99&amp;""&amp;I99,C99&amp;"_"&amp;D99&amp;"_"&amp;E99&amp;"_"&amp;F99&amp;"_"&amp;G99&amp;"_"&amp;H99&amp;""&amp;I99)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_PwrQMon</v>
       </c>
       <c r="N99" s="16"/>
@@ -26983,7 +26997,7 @@
       <c r="Q99" s="16"/>
       <c r="R99" s="16"/>
       <c r="S99" s="16" t="str">
-        <f>M99</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_PwrQMon</v>
       </c>
       <c r="T99" s="16"/>
@@ -27030,7 +27044,7 @@
         <v>N/A</v>
       </c>
       <c r="M100" s="16" t="str">
-        <f>IF(G100="-",C100&amp;"_"&amp;D100&amp;"_"&amp;E100&amp;"_"&amp;F100&amp;"_"&amp;H100&amp;""&amp;I100,C100&amp;"_"&amp;D100&amp;"_"&amp;E100&amp;"_"&amp;F100&amp;"_"&amp;G100&amp;"_"&amp;H100&amp;""&amp;I100)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_PwrFactorMon</v>
       </c>
       <c r="N100" s="16"/>
@@ -27039,7 +27053,7 @@
       <c r="Q100" s="16"/>
       <c r="R100" s="16"/>
       <c r="S100" s="16" t="str">
-        <f>M100</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_PwrFactorMon</v>
       </c>
       <c r="T100" s="16"/>
@@ -27086,7 +27100,7 @@
         <v>N/A</v>
       </c>
       <c r="M101" s="16" t="str">
-        <f>IF(G101="-",C101&amp;"_"&amp;D101&amp;"_"&amp;E101&amp;"_"&amp;F101&amp;"_"&amp;H101&amp;""&amp;I101,C101&amp;"_"&amp;D101&amp;"_"&amp;E101&amp;"_"&amp;F101&amp;"_"&amp;G101&amp;"_"&amp;H101&amp;""&amp;I101)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_THD1Mon</v>
       </c>
       <c r="N101" s="16"/>
@@ -27095,7 +27109,7 @@
       <c r="Q101" s="16"/>
       <c r="R101" s="16"/>
       <c r="S101" s="16" t="str">
-        <f>M101</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_THD1Mon</v>
       </c>
       <c r="T101" s="16"/>
@@ -27130,7 +27144,7 @@
         <v>28</v>
       </c>
       <c r="J102" s="15" t="str">
-        <f t="shared" ref="J102:J103" si="15">IF(G102="-",C102&amp;"-"&amp;D102&amp;":"&amp;E102&amp;"-"&amp;F102&amp;":"&amp;H102&amp;"-"&amp;I102,C102&amp;"-"&amp;D102&amp;":"&amp;E102&amp;"-"&amp;F102&amp;"-"&amp;G102&amp;":"&amp;H102&amp;"-"&amp;I102)</f>
+        <f t="shared" ref="J102:J103" si="17">IF(G102="-",C102&amp;"-"&amp;D102&amp;":"&amp;E102&amp;"-"&amp;F102&amp;":"&amp;H102&amp;"-"&amp;I102,C102&amp;"-"&amp;D102&amp;":"&amp;E102&amp;"-"&amp;F102&amp;"-"&amp;G102&amp;":"&amp;H102&amp;"-"&amp;I102)</f>
         <v>RA-ToSIA02:RF-ACPanel:THD2-Mon</v>
       </c>
       <c r="K102" s="15" t="str">
@@ -27142,7 +27156,7 @@
         <v>N/A</v>
       </c>
       <c r="M102" s="16" t="str">
-        <f>IF(G102="-",C102&amp;"_"&amp;D102&amp;"_"&amp;E102&amp;"_"&amp;F102&amp;"_"&amp;H102&amp;""&amp;I102,C102&amp;"_"&amp;D102&amp;"_"&amp;E102&amp;"_"&amp;F102&amp;"_"&amp;G102&amp;"_"&amp;H102&amp;""&amp;I102)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_THD2Mon</v>
       </c>
       <c r="N102" s="16"/>
@@ -27151,7 +27165,7 @@
       <c r="Q102" s="16"/>
       <c r="R102" s="16"/>
       <c r="S102" s="16" t="str">
-        <f>M102</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_THD2Mon</v>
       </c>
       <c r="T102" s="16"/>
@@ -27186,7 +27200,7 @@
         <v>28</v>
       </c>
       <c r="J103" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>RA-ToSIA02:RF-ACPanel:THD3-Mon</v>
       </c>
       <c r="K103" s="22" t="str">
@@ -27198,7 +27212,7 @@
         <v>N/A</v>
       </c>
       <c r="M103" s="23" t="str">
-        <f>IF(G103="-",C103&amp;"_"&amp;D103&amp;"_"&amp;E103&amp;"_"&amp;F103&amp;"_"&amp;H103&amp;""&amp;I103,C103&amp;"_"&amp;D103&amp;"_"&amp;E103&amp;"_"&amp;F103&amp;"_"&amp;G103&amp;"_"&amp;H103&amp;""&amp;I103)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_THD3Mon</v>
       </c>
       <c r="N103" s="23"/>
@@ -27207,7 +27221,7 @@
       <c r="Q103" s="23"/>
       <c r="R103" s="23"/>
       <c r="S103" s="23" t="str">
-        <f>M103</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_THD3Mon</v>
       </c>
       <c r="T103" s="23"/>
@@ -27242,7 +27256,7 @@
         <v>28</v>
       </c>
       <c r="J104" s="15" t="str">
-        <f t="shared" ref="J104:J105" si="16">IF(G104="-",C104&amp;"-"&amp;D104&amp;":"&amp;E104&amp;"-"&amp;F104&amp;":"&amp;H104&amp;"-"&amp;I104,C104&amp;"-"&amp;D104&amp;":"&amp;E104&amp;"-"&amp;F104&amp;"-"&amp;G104&amp;":"&amp;H104&amp;"-"&amp;I104)</f>
+        <f t="shared" ref="J104:J105" si="18">IF(G104="-",C104&amp;"-"&amp;D104&amp;":"&amp;E104&amp;"-"&amp;F104&amp;":"&amp;H104&amp;"-"&amp;I104,C104&amp;"-"&amp;D104&amp;":"&amp;E104&amp;"-"&amp;F104&amp;"-"&amp;G104&amp;":"&amp;H104&amp;"-"&amp;I104)</f>
         <v>RA-ToSIA02:RF-ACPanel:CurrentN-Mon</v>
       </c>
       <c r="K104" s="15" t="str">
@@ -27254,7 +27268,7 @@
         <v>N/A</v>
       </c>
       <c r="M104" s="16" t="str">
-        <f>IF(G104="-",C104&amp;"_"&amp;D104&amp;"_"&amp;E104&amp;"_"&amp;F104&amp;"_"&amp;H104&amp;""&amp;I104,C104&amp;"_"&amp;D104&amp;"_"&amp;E104&amp;"_"&amp;F104&amp;"_"&amp;G104&amp;"_"&amp;H104&amp;""&amp;I104)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_CurrentNMon</v>
       </c>
       <c r="N104" s="16"/>
@@ -27263,7 +27277,7 @@
       <c r="Q104" s="16"/>
       <c r="R104" s="16"/>
       <c r="S104" s="16" t="str">
-        <f>M104</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_CurrentNMon</v>
       </c>
       <c r="T104" s="16"/>
@@ -27298,7 +27312,7 @@
         <v>28</v>
       </c>
       <c r="J105" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>RA-ToSIA02:RF-ACPanel:Freq-Mon</v>
       </c>
       <c r="K105" s="22" t="str">
@@ -27310,7 +27324,7 @@
         <v>N/A</v>
       </c>
       <c r="M105" s="23" t="str">
-        <f>IF(G105="-",C105&amp;"_"&amp;D105&amp;"_"&amp;E105&amp;"_"&amp;F105&amp;"_"&amp;H105&amp;""&amp;I105,C105&amp;"_"&amp;D105&amp;"_"&amp;E105&amp;"_"&amp;F105&amp;"_"&amp;G105&amp;"_"&amp;H105&amp;""&amp;I105)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA02_RF_ACPanel_FreqMon</v>
       </c>
       <c r="N105" s="23"/>
@@ -27319,7 +27333,7 @@
       <c r="Q105" s="23"/>
       <c r="R105" s="23"/>
       <c r="S105" s="23" t="str">
-        <f>M105</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA02_RF_ACPanel_FreqMon</v>
       </c>
       <c r="T105" s="23"/>
@@ -27337,8 +27351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView topLeftCell="B96" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="C77" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27352,7 +27366,7 @@
     <col min="10" max="10" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="44.28515625" customWidth="1"/>
     <col min="12" max="12" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" customWidth="1"/>
+    <col min="13" max="13" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
@@ -27655,7 +27669,7 @@
         <v>N/A</v>
       </c>
       <c r="M5" s="16" t="str">
-        <f t="shared" ref="M2:M33" si="4">IF(G5="-",C5&amp;"_"&amp;D5&amp;"_"&amp;E5&amp;"_"&amp;F5&amp;"_"&amp;H5&amp;""&amp;I5,C5&amp;"_"&amp;D5&amp;"_"&amp;E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;""&amp;I5)</f>
+        <f t="shared" ref="M5:M33" si="4">IF(G5="-",C5&amp;"_"&amp;D5&amp;"_"&amp;E5&amp;"_"&amp;F5&amp;"_"&amp;H5&amp;""&amp;I5,C5&amp;"_"&amp;D5&amp;"_"&amp;E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;""&amp;I5)</f>
         <v>RA_ToSIA01_RF_ACPanel_PhsFltMon</v>
       </c>
       <c r="N5" s="16" t="s">
@@ -32557,7 +32571,7 @@
         <v>N/A</v>
       </c>
       <c r="M82" s="16" t="str">
-        <f t="shared" ref="M82:M87" si="13">IF(G82="-",C82&amp;"_"&amp;D82&amp;"_"&amp;E82&amp;"_"&amp;F82&amp;"_"&amp;H82&amp;""&amp;I82,C82&amp;"_"&amp;D82&amp;"_"&amp;E82&amp;"_"&amp;F82&amp;"_"&amp;G82&amp;"_"&amp;H82&amp;""&amp;I82)</f>
+        <f t="shared" ref="M82" si="13">IF(G82="-",C82&amp;"_"&amp;D82&amp;"_"&amp;E82&amp;"_"&amp;F82&amp;"_"&amp;H82&amp;""&amp;I82,C82&amp;"_"&amp;D82&amp;"_"&amp;E82&amp;"_"&amp;F82&amp;"_"&amp;G82&amp;"_"&amp;H82&amp;""&amp;I82)</f>
         <v>RA_ToSIA01_RF_SSAmpTower_EnblSel</v>
       </c>
       <c r="N82" s="16" t="s">
@@ -32933,7 +32947,7 @@
         <v>N/A</v>
       </c>
       <c r="M88" s="16" t="str">
-        <f>IF(G88="-",C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;H88&amp;""&amp;I88,C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;""&amp;I88)</f>
+        <f t="shared" ref="M88:M105" si="15">IF(G88="-",C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;H88&amp;""&amp;I88,C88&amp;"_"&amp;D88&amp;"_"&amp;E88&amp;"_"&amp;F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;""&amp;I88)</f>
         <v>RA_ToSIA01_RF_ACPanel_PhsCurrent1Mon</v>
       </c>
       <c r="N88" s="16"/>
@@ -32942,7 +32956,7 @@
       <c r="Q88" s="16"/>
       <c r="R88" s="16"/>
       <c r="S88" s="16" t="str">
-        <f>M88</f>
+        <f t="shared" ref="S88:S105" si="16">M88</f>
         <v>RA_ToSIA01_RF_ACPanel_PhsCurrent1Mon</v>
       </c>
       <c r="T88" s="16"/>
@@ -32989,7 +33003,7 @@
         <v>N/A</v>
       </c>
       <c r="M89" s="16" t="str">
-        <f>IF(G89="-",C89&amp;"_"&amp;D89&amp;"_"&amp;E89&amp;"_"&amp;F89&amp;"_"&amp;H89&amp;""&amp;I89,C89&amp;"_"&amp;D89&amp;"_"&amp;E89&amp;"_"&amp;F89&amp;"_"&amp;G89&amp;"_"&amp;H89&amp;""&amp;I89)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_PhsCurrent2Mon</v>
       </c>
       <c r="N89" s="16"/>
@@ -32998,7 +33012,7 @@
       <c r="Q89" s="16"/>
       <c r="R89" s="16"/>
       <c r="S89" s="16" t="str">
-        <f>M89</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_PhsCurrent2Mon</v>
       </c>
       <c r="T89" s="16"/>
@@ -33045,7 +33059,7 @@
         <v>N/A</v>
       </c>
       <c r="M90" s="16" t="str">
-        <f>IF(G90="-",C90&amp;"_"&amp;D90&amp;"_"&amp;E90&amp;"_"&amp;F90&amp;"_"&amp;H90&amp;""&amp;I90,C90&amp;"_"&amp;D90&amp;"_"&amp;E90&amp;"_"&amp;F90&amp;"_"&amp;G90&amp;"_"&amp;H90&amp;""&amp;I90)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_PhsCurrent3Mon</v>
       </c>
       <c r="N90" s="16"/>
@@ -33054,7 +33068,7 @@
       <c r="Q90" s="16"/>
       <c r="R90" s="16"/>
       <c r="S90" s="16" t="str">
-        <f>M90</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_PhsCurrent3Mon</v>
       </c>
       <c r="T90" s="16"/>
@@ -33101,7 +33115,7 @@
         <v>N/A</v>
       </c>
       <c r="M91" s="16" t="str">
-        <f>IF(G91="-",C91&amp;"_"&amp;D91&amp;"_"&amp;E91&amp;"_"&amp;F91&amp;"_"&amp;H91&amp;""&amp;I91,C91&amp;"_"&amp;D91&amp;"_"&amp;E91&amp;"_"&amp;F91&amp;"_"&amp;G91&amp;"_"&amp;H91&amp;""&amp;I91)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_PhsVoltage1Mon</v>
       </c>
       <c r="N91" s="16"/>
@@ -33110,7 +33124,7 @@
       <c r="Q91" s="16"/>
       <c r="R91" s="16"/>
       <c r="S91" s="16" t="str">
-        <f>M91</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_PhsVoltage1Mon</v>
       </c>
       <c r="T91" s="16"/>
@@ -33157,7 +33171,7 @@
         <v>N/A</v>
       </c>
       <c r="M92" s="16" t="str">
-        <f>IF(G92="-",C92&amp;"_"&amp;D92&amp;"_"&amp;E92&amp;"_"&amp;F92&amp;"_"&amp;H92&amp;""&amp;I92,C92&amp;"_"&amp;D92&amp;"_"&amp;E92&amp;"_"&amp;F92&amp;"_"&amp;G92&amp;"_"&amp;H92&amp;""&amp;I92)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_PhsVoltage2Mon</v>
       </c>
       <c r="N92" s="16"/>
@@ -33166,7 +33180,7 @@
       <c r="Q92" s="16"/>
       <c r="R92" s="16"/>
       <c r="S92" s="16" t="str">
-        <f>M92</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_PhsVoltage2Mon</v>
       </c>
       <c r="T92" s="16"/>
@@ -33213,7 +33227,7 @@
         <v>N/A</v>
       </c>
       <c r="M93" s="16" t="str">
-        <f>IF(G93="-",C93&amp;"_"&amp;D93&amp;"_"&amp;E93&amp;"_"&amp;F93&amp;"_"&amp;H93&amp;""&amp;I93,C93&amp;"_"&amp;D93&amp;"_"&amp;E93&amp;"_"&amp;F93&amp;"_"&amp;G93&amp;"_"&amp;H93&amp;""&amp;I93)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_PhsVoltage3Mon</v>
       </c>
       <c r="N93" s="16"/>
@@ -33222,7 +33236,7 @@
       <c r="Q93" s="16"/>
       <c r="R93" s="16"/>
       <c r="S93" s="16" t="str">
-        <f>M93</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_PhsVoltage3Mon</v>
       </c>
       <c r="T93" s="16"/>
@@ -33269,7 +33283,7 @@
         <v>N/A</v>
       </c>
       <c r="M94" s="16" t="str">
-        <f>IF(G94="-",C94&amp;"_"&amp;D94&amp;"_"&amp;E94&amp;"_"&amp;F94&amp;"_"&amp;H94&amp;""&amp;I94,C94&amp;"_"&amp;D94&amp;"_"&amp;E94&amp;"_"&amp;F94&amp;"_"&amp;G94&amp;"_"&amp;H94&amp;""&amp;I94)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_LineVoltage12Mon</v>
       </c>
       <c r="N94" s="16"/>
@@ -33278,7 +33292,7 @@
       <c r="Q94" s="16"/>
       <c r="R94" s="16"/>
       <c r="S94" s="16" t="str">
-        <f>M94</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_LineVoltage12Mon</v>
       </c>
       <c r="T94" s="16"/>
@@ -33325,7 +33339,7 @@
         <v>N/A</v>
       </c>
       <c r="M95" s="16" t="str">
-        <f>IF(G95="-",C95&amp;"_"&amp;D95&amp;"_"&amp;E95&amp;"_"&amp;F95&amp;"_"&amp;H95&amp;""&amp;I95,C95&amp;"_"&amp;D95&amp;"_"&amp;E95&amp;"_"&amp;F95&amp;"_"&amp;G95&amp;"_"&amp;H95&amp;""&amp;I95)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_LineVoltage13Mon</v>
       </c>
       <c r="N95" s="16"/>
@@ -33334,7 +33348,7 @@
       <c r="Q95" s="16"/>
       <c r="R95" s="16"/>
       <c r="S95" s="16" t="str">
-        <f>M95</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_LineVoltage13Mon</v>
       </c>
       <c r="T95" s="16"/>
@@ -33381,7 +33395,7 @@
         <v>N/A</v>
       </c>
       <c r="M96" s="16" t="str">
-        <f>IF(G96="-",C96&amp;"_"&amp;D96&amp;"_"&amp;E96&amp;"_"&amp;F96&amp;"_"&amp;H96&amp;""&amp;I96,C96&amp;"_"&amp;D96&amp;"_"&amp;E96&amp;"_"&amp;F96&amp;"_"&amp;G96&amp;"_"&amp;H96&amp;""&amp;I96)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_LineVoltage23Mon</v>
       </c>
       <c r="N96" s="16"/>
@@ -33390,7 +33404,7 @@
       <c r="Q96" s="16"/>
       <c r="R96" s="16"/>
       <c r="S96" s="16" t="str">
-        <f>M96</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_LineVoltage23Mon</v>
       </c>
       <c r="T96" s="16"/>
@@ -33437,7 +33451,7 @@
         <v>N/A</v>
       </c>
       <c r="M97" s="16" t="str">
-        <f>IF(G97="-",C97&amp;"_"&amp;D97&amp;"_"&amp;E97&amp;"_"&amp;F97&amp;"_"&amp;H97&amp;""&amp;I97,C97&amp;"_"&amp;D97&amp;"_"&amp;E97&amp;"_"&amp;F97&amp;"_"&amp;G97&amp;"_"&amp;H97&amp;""&amp;I97)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_PwrSMon</v>
       </c>
       <c r="N97" s="16"/>
@@ -33446,7 +33460,7 @@
       <c r="Q97" s="16"/>
       <c r="R97" s="16"/>
       <c r="S97" s="16" t="str">
-        <f>M97</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_PwrSMon</v>
       </c>
       <c r="T97" s="16"/>
@@ -33493,7 +33507,7 @@
         <v>N/A</v>
       </c>
       <c r="M98" s="16" t="str">
-        <f>IF(G98="-",C98&amp;"_"&amp;D98&amp;"_"&amp;E98&amp;"_"&amp;F98&amp;"_"&amp;H98&amp;""&amp;I98,C98&amp;"_"&amp;D98&amp;"_"&amp;E98&amp;"_"&amp;F98&amp;"_"&amp;G98&amp;"_"&amp;H98&amp;""&amp;I98)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_PwrPMon</v>
       </c>
       <c r="N98" s="16"/>
@@ -33502,7 +33516,7 @@
       <c r="Q98" s="16"/>
       <c r="R98" s="16"/>
       <c r="S98" s="16" t="str">
-        <f>M98</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_PwrPMon</v>
       </c>
       <c r="T98" s="16"/>
@@ -33549,7 +33563,7 @@
         <v>N/A</v>
       </c>
       <c r="M99" s="16" t="str">
-        <f>IF(G99="-",C99&amp;"_"&amp;D99&amp;"_"&amp;E99&amp;"_"&amp;F99&amp;"_"&amp;H99&amp;""&amp;I99,C99&amp;"_"&amp;D99&amp;"_"&amp;E99&amp;"_"&amp;F99&amp;"_"&amp;G99&amp;"_"&amp;H99&amp;""&amp;I99)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_PwrQMon</v>
       </c>
       <c r="N99" s="16"/>
@@ -33558,7 +33572,7 @@
       <c r="Q99" s="16"/>
       <c r="R99" s="16"/>
       <c r="S99" s="16" t="str">
-        <f>M99</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_PwrQMon</v>
       </c>
       <c r="T99" s="16"/>
@@ -33605,7 +33619,7 @@
         <v>N/A</v>
       </c>
       <c r="M100" s="16" t="str">
-        <f>IF(G100="-",C100&amp;"_"&amp;D100&amp;"_"&amp;E100&amp;"_"&amp;F100&amp;"_"&amp;H100&amp;""&amp;I100,C100&amp;"_"&amp;D100&amp;"_"&amp;E100&amp;"_"&amp;F100&amp;"_"&amp;G100&amp;"_"&amp;H100&amp;""&amp;I100)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_PwrFactorMon</v>
       </c>
       <c r="N100" s="16"/>
@@ -33614,7 +33628,7 @@
       <c r="Q100" s="16"/>
       <c r="R100" s="16"/>
       <c r="S100" s="16" t="str">
-        <f>M100</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_PwrFactorMon</v>
       </c>
       <c r="T100" s="16"/>
@@ -33661,7 +33675,7 @@
         <v>N/A</v>
       </c>
       <c r="M101" s="16" t="str">
-        <f>IF(G101="-",C101&amp;"_"&amp;D101&amp;"_"&amp;E101&amp;"_"&amp;F101&amp;"_"&amp;H101&amp;""&amp;I101,C101&amp;"_"&amp;D101&amp;"_"&amp;E101&amp;"_"&amp;F101&amp;"_"&amp;G101&amp;"_"&amp;H101&amp;""&amp;I101)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_THD1Mon</v>
       </c>
       <c r="N101" s="16"/>
@@ -33670,7 +33684,7 @@
       <c r="Q101" s="16"/>
       <c r="R101" s="16"/>
       <c r="S101" s="16" t="str">
-        <f>M101</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_THD1Mon</v>
       </c>
       <c r="T101" s="16"/>
@@ -33717,7 +33731,7 @@
         <v>N/A</v>
       </c>
       <c r="M102" s="16" t="str">
-        <f>IF(G102="-",C102&amp;"_"&amp;D102&amp;"_"&amp;E102&amp;"_"&amp;F102&amp;"_"&amp;H102&amp;""&amp;I102,C102&amp;"_"&amp;D102&amp;"_"&amp;E102&amp;"_"&amp;F102&amp;"_"&amp;G102&amp;"_"&amp;H102&amp;""&amp;I102)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_THD2Mon</v>
       </c>
       <c r="N102" s="16"/>
@@ -33726,7 +33740,7 @@
       <c r="Q102" s="16"/>
       <c r="R102" s="16"/>
       <c r="S102" s="16" t="str">
-        <f>M102</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_THD2Mon</v>
       </c>
       <c r="T102" s="16"/>
@@ -33773,7 +33787,7 @@
         <v>N/A</v>
       </c>
       <c r="M103" s="16" t="str">
-        <f>IF(G103="-",C103&amp;"_"&amp;D103&amp;"_"&amp;E103&amp;"_"&amp;F103&amp;"_"&amp;H103&amp;""&amp;I103,C103&amp;"_"&amp;D103&amp;"_"&amp;E103&amp;"_"&amp;F103&amp;"_"&amp;G103&amp;"_"&amp;H103&amp;""&amp;I103)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_THD3Mon</v>
       </c>
       <c r="N103" s="16"/>
@@ -33782,7 +33796,7 @@
       <c r="Q103" s="16"/>
       <c r="R103" s="16"/>
       <c r="S103" s="16" t="str">
-        <f>M103</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_THD3Mon</v>
       </c>
       <c r="T103" s="16"/>
@@ -33829,7 +33843,7 @@
         <v>N/A</v>
       </c>
       <c r="M104" s="16" t="str">
-        <f>IF(G104="-",C104&amp;"_"&amp;D104&amp;"_"&amp;E104&amp;"_"&amp;F104&amp;"_"&amp;H104&amp;""&amp;I104,C104&amp;"_"&amp;D104&amp;"_"&amp;E104&amp;"_"&amp;F104&amp;"_"&amp;G104&amp;"_"&amp;H104&amp;""&amp;I104)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_CurrentNMon</v>
       </c>
       <c r="N104" s="16"/>
@@ -33838,7 +33852,7 @@
       <c r="Q104" s="16"/>
       <c r="R104" s="16"/>
       <c r="S104" s="16" t="str">
-        <f>M104</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_CurrentNMon</v>
       </c>
       <c r="T104" s="16"/>
@@ -33885,7 +33899,7 @@
         <v>N/A</v>
       </c>
       <c r="M105" s="23" t="str">
-        <f>IF(G105="-",C105&amp;"_"&amp;D105&amp;"_"&amp;E105&amp;"_"&amp;F105&amp;"_"&amp;H105&amp;""&amp;I105,C105&amp;"_"&amp;D105&amp;"_"&amp;E105&amp;"_"&amp;F105&amp;"_"&amp;G105&amp;"_"&amp;H105&amp;""&amp;I105)</f>
+        <f t="shared" si="15"/>
         <v>RA_ToSIA01_RF_ACPanel_FreqMon</v>
       </c>
       <c r="N105" s="23"/>
@@ -33894,7 +33908,7 @@
       <c r="Q105" s="23"/>
       <c r="R105" s="23"/>
       <c r="S105" s="23" t="str">
-        <f>M105</f>
+        <f t="shared" si="16"/>
         <v>RA_ToSIA01_RF_ACPanel_FreqMon</v>
       </c>
       <c r="T105" s="23"/>
@@ -33912,8 +33926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D9DEC3-FCCA-4464-9BBF-01B2481D03F0}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="H11" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView topLeftCell="J11" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34967,7 +34981,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G19" s="62" t="s">
         <v>26</v>
@@ -34980,30 +34994,18 @@
       </c>
       <c r="J19" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>RA-TLSIA:RF-Load:Pwr-Mon</v>
+        <v>RA-TLSIA:RF-Circulator:PwrRevIndBm-Mon</v>
       </c>
       <c r="K19" s="63"/>
       <c r="L19" s="63"/>
-      <c r="M19" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>RA_TLSIA_RF_Load_Pwr_Mon</v>
-      </c>
-      <c r="N19" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="64" t="s">
-        <v>30</v>
-      </c>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
       <c r="P19" s="64"/>
       <c r="Q19" s="64"/>
       <c r="R19" s="64"/>
-      <c r="S19" s="64" t="str">
-        <f>M19</f>
-        <v>RA_TLSIA_RF_Load_Pwr_Mon</v>
-      </c>
-      <c r="T19" s="64" t="s">
-        <v>52</v>
-      </c>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
       <c r="U19" s="65"/>
     </row>
     <row r="20" spans="1:21" s="5" customFormat="1">
@@ -35185,10 +35187,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188945DB-2545-476B-BE7E-6067BB31C627}">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="L25" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35304,7 +35306,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="30" t="str">
-        <f>IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"-"&amp;I2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"-"&amp;I2)</f>
+        <f t="shared" ref="J2:J47" si="0">IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"-"&amp;I2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"-"&amp;I2)</f>
         <v>SI-02SB:RF-P7Cav:Pressure-Mon</v>
       </c>
       <c r="K2" s="30" t="str">
@@ -35316,7 +35318,7 @@
         <v>N/A</v>
       </c>
       <c r="M2" s="31" t="str">
-        <f>IF(G2="-",C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;H2&amp;""&amp;I2,C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;G2&amp;"_"&amp;H2&amp;""&amp;I2)</f>
+        <f t="shared" ref="M2:M47" si="1">IF(G2="-",C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;H2&amp;""&amp;I2,C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;G2&amp;"_"&amp;H2&amp;""&amp;I2)</f>
         <v>SI_02SB_RF_P7Cav_PressureMon</v>
       </c>
       <c r="N2" s="71" t="s">
@@ -35370,19 +35372,19 @@
         <v>28</v>
       </c>
       <c r="J3" s="70" t="str">
-        <f>IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3&amp;"-"&amp;I3,C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3&amp;"-"&amp;I3)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:HDFlwRt1-Mon</v>
       </c>
       <c r="K3" s="70" t="str">
-        <f t="shared" ref="K3:K47" si="0">IF(OR(P3="",P3="N/A"),"N/A",IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3&amp;"UpperLimit-Cte",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" ref="K3:K47" si="2">IF(OR(P3="",P3="N/A"),"N/A",IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3&amp;"UpperLimit-Cte",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3&amp;"UpperLimit-Cte"))</f>
         <v>N/A</v>
       </c>
       <c r="L3" s="70" t="str">
-        <f t="shared" ref="L3:L47" si="1">IF(OR(Q3="",Q3="N/A"),"N/A",IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3&amp;"LowerLimit-Cte",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" ref="L3:L47" si="3">IF(OR(Q3="",Q3="N/A"),"N/A",IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3&amp;"LowerLimit-Cte",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3&amp;"LowerLimit-Cte"))</f>
         <v>N/A</v>
       </c>
       <c r="M3" s="71" t="str">
-        <f>IF(G3="-",C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;"_"&amp;H3&amp;""&amp;I3,C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;"_"&amp;G3&amp;"_"&amp;H3&amp;""&amp;I3)</f>
+        <f t="shared" si="1"/>
         <v>SI_02SB_RF_P7Cav_HDFlwRt1Mon</v>
       </c>
       <c r="N3" s="71" t="s">
@@ -35399,7 +35401,7 @@
       </c>
       <c r="R3" s="71"/>
       <c r="S3" s="71" t="str">
-        <f t="shared" ref="S3:S47" si="2">M3</f>
+        <f t="shared" ref="S3:S47" si="4">M3</f>
         <v>SI_02SB_RF_P7Cav_HDFlwRt1Mon</v>
       </c>
       <c r="T3" s="71" t="s">
@@ -35436,19 +35438,19 @@
         <v>28</v>
       </c>
       <c r="J4" s="30" t="str">
-        <f>IF(G4="-",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;":"&amp;H4&amp;"-"&amp;I4,C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;G4&amp;":"&amp;H4&amp;"-"&amp;I4)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:HDFlwRt2-Mon</v>
       </c>
       <c r="K4" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L4" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M4" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M4" s="31" t="str">
-        <f>IF(G4="-",C4&amp;"_"&amp;D4&amp;"_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;H4&amp;""&amp;I4,C4&amp;"_"&amp;D4&amp;"_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;G4&amp;"_"&amp;H4&amp;""&amp;I4)</f>
         <v>SI_02SB_RF_P7Cav_HDFlwRt2Mon</v>
       </c>
       <c r="N4" s="31" t="s">
@@ -35465,7 +35467,7 @@
       </c>
       <c r="R4" s="31"/>
       <c r="S4" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_HDFlwRt2Mon</v>
       </c>
       <c r="T4" s="31" t="s">
@@ -35502,19 +35504,19 @@
         <v>28</v>
       </c>
       <c r="J5" s="30" t="str">
-        <f>IF(G5="-",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;":"&amp;H5&amp;"-"&amp;I5,C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;"-"&amp;G5&amp;":"&amp;H5&amp;"-"&amp;I5)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:HDFlwRt3-Mon</v>
       </c>
       <c r="K5" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L5" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M5" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M5" s="31" t="str">
-        <f>IF(G5="-",C5&amp;"_"&amp;D5&amp;"_"&amp;E5&amp;"_"&amp;F5&amp;"_"&amp;H5&amp;""&amp;I5,C5&amp;"_"&amp;D5&amp;"_"&amp;E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;""&amp;I5)</f>
         <v>SI_02SB_RF_P7Cav_HDFlwRt3Mon</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -35531,7 +35533,7 @@
       </c>
       <c r="R5" s="31"/>
       <c r="S5" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_HDFlwRt3Mon</v>
       </c>
       <c r="T5" s="31" t="s">
@@ -35568,19 +35570,19 @@
         <v>28</v>
       </c>
       <c r="J6" s="30" t="str">
-        <f>IF(G6="-",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;":"&amp;H6&amp;"-"&amp;I6,C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;"-"&amp;G6&amp;":"&amp;H6&amp;"-"&amp;I6)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:CoupPressure-Mon</v>
       </c>
       <c r="K6" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L6" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M6" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M6" s="31" t="str">
-        <f>IF(G6="-",C6&amp;"_"&amp;D6&amp;"_"&amp;E6&amp;"_"&amp;F6&amp;"_"&amp;H6&amp;""&amp;I6,C6&amp;"_"&amp;D6&amp;"_"&amp;E6&amp;"_"&amp;F6&amp;"_"&amp;G6&amp;"_"&amp;H6&amp;""&amp;I6)</f>
         <v>SI_02SB_RF_P7Cav_CoupPressureMon</v>
       </c>
       <c r="N6" s="31" t="s">
@@ -35597,7 +35599,7 @@
       </c>
       <c r="R6" s="31"/>
       <c r="S6" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_CoupPressureMon</v>
       </c>
       <c r="T6" s="31" t="s">
@@ -35634,19 +35636,19 @@
         <v>28</v>
       </c>
       <c r="J7" s="30" t="str">
-        <f>IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7&amp;"-"&amp;I7,C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7&amp;"-"&amp;I7)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin1T-Mon</v>
       </c>
       <c r="K7" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:Cylin1TUpperLimit-Cte</v>
       </c>
       <c r="L7" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>SI-02SB:RF-P7Cav:Cylin1TLowerLimit-Cte</v>
+      </c>
+      <c r="M7" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>SI-02SB:RF-P7Cav:Cylin1TLowerLimit-Cte</v>
-      </c>
-      <c r="M7" s="31" t="str">
-        <f>IF(G7="-",C7&amp;"_"&amp;D7&amp;"_"&amp;E7&amp;"_"&amp;F7&amp;"_"&amp;H7&amp;""&amp;I7,C7&amp;"_"&amp;D7&amp;"_"&amp;E7&amp;"_"&amp;F7&amp;"_"&amp;G7&amp;"_"&amp;H7&amp;""&amp;I7)</f>
         <v>SI_02SB_RF_P7Cav_Cylin1TMon</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -35665,7 +35667,7 @@
         <v>51</v>
       </c>
       <c r="S7" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin1TMon</v>
       </c>
       <c r="T7" s="31" t="s">
@@ -35704,19 +35706,19 @@
         <v>28</v>
       </c>
       <c r="J8" s="30" t="str">
-        <f>IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8&amp;"-"&amp;I8,C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8&amp;"-"&amp;I8)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin2T-Mon</v>
       </c>
       <c r="K8" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:Cylin2TUpperLimit-Cte</v>
       </c>
       <c r="L8" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>SI-02SB:RF-P7Cav:Cylin2TLowerLimit-Cte</v>
+      </c>
+      <c r="M8" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>SI-02SB:RF-P7Cav:Cylin2TLowerLimit-Cte</v>
-      </c>
-      <c r="M8" s="31" t="str">
-        <f>IF(G8="-",C8&amp;"_"&amp;D8&amp;"_"&amp;E8&amp;"_"&amp;F8&amp;"_"&amp;H8&amp;""&amp;I8,C8&amp;"_"&amp;D8&amp;"_"&amp;E8&amp;"_"&amp;F8&amp;"_"&amp;G8&amp;"_"&amp;H8&amp;""&amp;I8)</f>
         <v>SI_02SB_RF_P7Cav_Cylin2TMon</v>
       </c>
       <c r="N8" s="31" t="s">
@@ -35735,7 +35737,7 @@
         <v>51</v>
       </c>
       <c r="S8" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin2TMon</v>
       </c>
       <c r="T8" s="31" t="s">
@@ -35774,19 +35776,19 @@
         <v>28</v>
       </c>
       <c r="J9" s="30" t="str">
-        <f>IF(G9="-",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;":"&amp;H9&amp;"-"&amp;I9,C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;G9&amp;":"&amp;H9&amp;"-"&amp;I9)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin3T-Mon</v>
       </c>
       <c r="K9" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:Cylin3TUpperLimit-Cte</v>
       </c>
       <c r="L9" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>SI-02SB:RF-P7Cav:Cylin3TLowerLimit-Cte</v>
+      </c>
+      <c r="M9" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>SI-02SB:RF-P7Cav:Cylin3TLowerLimit-Cte</v>
-      </c>
-      <c r="M9" s="31" t="str">
-        <f>IF(G9="-",C9&amp;"_"&amp;D9&amp;"_"&amp;E9&amp;"_"&amp;F9&amp;"_"&amp;H9&amp;""&amp;I9,C9&amp;"_"&amp;D9&amp;"_"&amp;E9&amp;"_"&amp;F9&amp;"_"&amp;G9&amp;"_"&amp;H9&amp;""&amp;I9)</f>
         <v>SI_02SB_RF_P7Cav_Cylin3TMon</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -35805,7 +35807,7 @@
         <v>51</v>
       </c>
       <c r="S9" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin3TMon</v>
       </c>
       <c r="T9" s="31" t="s">
@@ -35844,19 +35846,19 @@
         <v>28</v>
       </c>
       <c r="J10" s="30" t="str">
-        <f>IF(G10="-",C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;":"&amp;H10&amp;"-"&amp;I10,C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;"-"&amp;G10&amp;":"&amp;H10&amp;"-"&amp;I10)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin4T-Mon</v>
       </c>
       <c r="K10" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:Cylin4TUpperLimit-Cte</v>
       </c>
       <c r="L10" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>SI-02SB:RF-P7Cav:Cylin4TLowerLimit-Cte</v>
+      </c>
+      <c r="M10" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>SI-02SB:RF-P7Cav:Cylin4TLowerLimit-Cte</v>
-      </c>
-      <c r="M10" s="31" t="str">
-        <f>IF(G10="-",C10&amp;"_"&amp;D10&amp;"_"&amp;E10&amp;"_"&amp;F10&amp;"_"&amp;H10&amp;""&amp;I10,C10&amp;"_"&amp;D10&amp;"_"&amp;E10&amp;"_"&amp;F10&amp;"_"&amp;G10&amp;"_"&amp;H10&amp;""&amp;I10)</f>
         <v>SI_02SB_RF_P7Cav_Cylin4TMon</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -35875,7 +35877,7 @@
         <v>51</v>
       </c>
       <c r="S10" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin4TMon</v>
       </c>
       <c r="T10" s="31" t="s">
@@ -35914,19 +35916,19 @@
         <v>28</v>
       </c>
       <c r="J11" s="30" t="str">
-        <f>IF(G11="-",C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;":"&amp;H11&amp;"-"&amp;I11,C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;"-"&amp;G11&amp;":"&amp;H11&amp;"-"&amp;I11)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin5T-Mon</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:Cylin5TUpperLimit-Cte</v>
       </c>
       <c r="L11" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>SI-02SB:RF-P7Cav:Cylin5TLowerLimit-Cte</v>
+      </c>
+      <c r="M11" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>SI-02SB:RF-P7Cav:Cylin5TLowerLimit-Cte</v>
-      </c>
-      <c r="M11" s="31" t="str">
-        <f>IF(G11="-",C11&amp;"_"&amp;D11&amp;"_"&amp;E11&amp;"_"&amp;F11&amp;"_"&amp;H11&amp;""&amp;I11,C11&amp;"_"&amp;D11&amp;"_"&amp;E11&amp;"_"&amp;F11&amp;"_"&amp;G11&amp;"_"&amp;H11&amp;""&amp;I11)</f>
         <v>SI_02SB_RF_P7Cav_Cylin5TMon</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -35945,7 +35947,7 @@
         <v>51</v>
       </c>
       <c r="S11" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin5TMon</v>
       </c>
       <c r="T11" s="31" t="s">
@@ -35984,19 +35986,19 @@
         <v>28</v>
       </c>
       <c r="J12" s="30" t="str">
-        <f>IF(G12="-",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;":"&amp;H12&amp;"-"&amp;I12,C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;G12&amp;":"&amp;H12&amp;"-"&amp;I12)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin6T-Mon</v>
       </c>
       <c r="K12" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:Cylin6TUpperLimit-Cte</v>
       </c>
       <c r="L12" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>SI-02SB:RF-P7Cav:Cylin6TLowerLimit-Cte</v>
+      </c>
+      <c r="M12" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>SI-02SB:RF-P7Cav:Cylin6TLowerLimit-Cte</v>
-      </c>
-      <c r="M12" s="31" t="str">
-        <f>IF(G12="-",C12&amp;"_"&amp;D12&amp;"_"&amp;E12&amp;"_"&amp;F12&amp;"_"&amp;H12&amp;""&amp;I12,C12&amp;"_"&amp;D12&amp;"_"&amp;E12&amp;"_"&amp;F12&amp;"_"&amp;G12&amp;"_"&amp;H12&amp;""&amp;I12)</f>
         <v>SI_02SB_RF_P7Cav_Cylin6TMon</v>
       </c>
       <c r="N12" s="31" t="s">
@@ -36015,7 +36017,7 @@
         <v>51</v>
       </c>
       <c r="S12" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin6TMon</v>
       </c>
       <c r="T12" s="31" t="s">
@@ -36054,19 +36056,19 @@
         <v>28</v>
       </c>
       <c r="J13" s="30" t="str">
-        <f>IF(G13="-",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;":"&amp;H13&amp;"-"&amp;I13,C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;"-"&amp;G13&amp;":"&amp;H13&amp;"-"&amp;I13)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin7T-Mon</v>
       </c>
       <c r="K13" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:Cylin7TUpperLimit-Cte</v>
       </c>
       <c r="L13" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>SI-02SB:RF-P7Cav:Cylin7TLowerLimit-Cte</v>
+      </c>
+      <c r="M13" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>SI-02SB:RF-P7Cav:Cylin7TLowerLimit-Cte</v>
-      </c>
-      <c r="M13" s="31" t="str">
-        <f>IF(G13="-",C13&amp;"_"&amp;D13&amp;"_"&amp;E13&amp;"_"&amp;F13&amp;"_"&amp;H13&amp;""&amp;I13,C13&amp;"_"&amp;D13&amp;"_"&amp;E13&amp;"_"&amp;F13&amp;"_"&amp;G13&amp;"_"&amp;H13&amp;""&amp;I13)</f>
         <v>SI_02SB_RF_P7Cav_Cylin7TMon</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -36085,7 +36087,7 @@
         <v>51</v>
       </c>
       <c r="S13" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin7TMon</v>
       </c>
       <c r="T13" s="31" t="s">
@@ -36124,19 +36126,19 @@
         <v>28</v>
       </c>
       <c r="J14" s="30" t="str">
-        <f>IF(G14="-",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;":"&amp;H14&amp;"-"&amp;I14,C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;"-"&amp;G14&amp;":"&amp;H14&amp;"-"&amp;I14)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:CoupT-Mon</v>
       </c>
       <c r="K14" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:CoupTUpperLimit-Cte</v>
       </c>
       <c r="L14" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>SI-02SB:RF-P7Cav:CoupTLowerLimit-Cte</v>
+      </c>
+      <c r="M14" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>SI-02SB:RF-P7Cav:CoupTLowerLimit-Cte</v>
-      </c>
-      <c r="M14" s="31" t="str">
-        <f>IF(G14="-",C14&amp;"_"&amp;D14&amp;"_"&amp;E14&amp;"_"&amp;F14&amp;"_"&amp;H14&amp;""&amp;I14,C14&amp;"_"&amp;D14&amp;"_"&amp;E14&amp;"_"&amp;F14&amp;"_"&amp;G14&amp;"_"&amp;H14&amp;""&amp;I14)</f>
         <v>SI_02SB_RF_P7Cav_CoupTMon</v>
       </c>
       <c r="N14" s="31" t="s">
@@ -36155,7 +36157,7 @@
         <v>51</v>
       </c>
       <c r="S14" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_CoupTMon</v>
       </c>
       <c r="T14" s="31" t="s">
@@ -36194,19 +36196,19 @@
         <v>28</v>
       </c>
       <c r="J15" s="30" t="str">
-        <f>IF(G15="-",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;":"&amp;H15&amp;"-"&amp;I15,C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;"-"&amp;G15&amp;":"&amp;H15&amp;"-"&amp;I15)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Sts-Mon</v>
       </c>
       <c r="K15" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L15" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M15" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M15" s="31" t="str">
-        <f>IF(G15="-",C15&amp;"_"&amp;D15&amp;"_"&amp;E15&amp;"_"&amp;F15&amp;"_"&amp;H15&amp;""&amp;I15,C15&amp;"_"&amp;D15&amp;"_"&amp;E15&amp;"_"&amp;F15&amp;"_"&amp;G15&amp;"_"&amp;H15&amp;""&amp;I15)</f>
         <v>SI_02SB_RF_P7Cav_StsMon</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -36223,7 +36225,7 @@
       </c>
       <c r="R15" s="31"/>
       <c r="S15" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_StsMon</v>
       </c>
       <c r="T15" s="31" t="s">
@@ -36260,19 +36262,19 @@
         <v>28</v>
       </c>
       <c r="J16" s="30" t="str">
-        <f>IF(G16="-",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;":"&amp;H16&amp;"-"&amp;I16,C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;"-"&amp;G16&amp;":"&amp;H16&amp;"-"&amp;I16)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:CoupTDown-Mon</v>
       </c>
       <c r="K16" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L16" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M16" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M16" s="31" t="str">
-        <f>IF(G16="-",C16&amp;"_"&amp;D16&amp;"_"&amp;E16&amp;"_"&amp;F16&amp;"_"&amp;H16&amp;""&amp;I16,C16&amp;"_"&amp;D16&amp;"_"&amp;E16&amp;"_"&amp;F16&amp;"_"&amp;G16&amp;"_"&amp;H16&amp;""&amp;I16)</f>
         <v>SI_02SB_RF_P7Cav_CoupTDownMon</v>
       </c>
       <c r="N16" s="31" t="s">
@@ -36289,7 +36291,7 @@
       </c>
       <c r="R16" s="31"/>
       <c r="S16" s="31" t="str">
-        <f t="shared" ref="S16" si="3">M16</f>
+        <f t="shared" ref="S16" si="5">M16</f>
         <v>SI_02SB_RF_P7Cav_CoupTDownMon</v>
       </c>
       <c r="T16" s="31" t="s">
@@ -36326,19 +36328,19 @@
         <v>28</v>
       </c>
       <c r="J17" s="30" t="str">
-        <f>IF(G17="-",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;":"&amp;H17&amp;"-"&amp;I17,C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;"-"&amp;G17&amp;":"&amp;H17&amp;"-"&amp;I17)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:CoupTUp-Mon</v>
       </c>
       <c r="K17" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L17" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M17" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M17" s="31" t="str">
-        <f>IF(G17="-",C17&amp;"_"&amp;D17&amp;"_"&amp;E17&amp;"_"&amp;F17&amp;"_"&amp;H17&amp;""&amp;I17,C17&amp;"_"&amp;D17&amp;"_"&amp;E17&amp;"_"&amp;F17&amp;"_"&amp;G17&amp;"_"&amp;H17&amp;""&amp;I17)</f>
         <v>SI_02SB_RF_P7Cav_CoupTUpMon</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -36355,7 +36357,7 @@
       </c>
       <c r="R17" s="31"/>
       <c r="S17" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_CoupTUpMon</v>
       </c>
       <c r="T17" s="31" t="s">
@@ -36392,19 +36394,19 @@
         <v>28</v>
       </c>
       <c r="J18" s="30" t="str">
-        <f>IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18&amp;"-"&amp;I18,C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18&amp;"-"&amp;I18)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin1TDown-Mon</v>
       </c>
       <c r="K18" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L18" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M18" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M18" s="31" t="str">
-        <f>IF(G18="-",C18&amp;"_"&amp;D18&amp;"_"&amp;E18&amp;"_"&amp;F18&amp;"_"&amp;H18&amp;""&amp;I18,C18&amp;"_"&amp;D18&amp;"_"&amp;E18&amp;"_"&amp;F18&amp;"_"&amp;G18&amp;"_"&amp;H18&amp;""&amp;I18)</f>
         <v>SI_02SB_RF_P7Cav_Cylin1TDownMon</v>
       </c>
       <c r="N18" s="31" t="s">
@@ -36421,7 +36423,7 @@
       </c>
       <c r="R18" s="31"/>
       <c r="S18" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin1TDownMon</v>
       </c>
       <c r="T18" s="31" t="s">
@@ -36458,19 +36460,19 @@
         <v>28</v>
       </c>
       <c r="J19" s="30" t="str">
-        <f>IF(G19="-",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;":"&amp;H19&amp;"-"&amp;I19,C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;"-"&amp;G19&amp;":"&amp;H19&amp;"-"&amp;I19)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin2TDown-Mon</v>
       </c>
       <c r="K19" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L19" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M19" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M19" s="31" t="str">
-        <f>IF(G19="-",C19&amp;"_"&amp;D19&amp;"_"&amp;E19&amp;"_"&amp;F19&amp;"_"&amp;H19&amp;""&amp;I19,C19&amp;"_"&amp;D19&amp;"_"&amp;E19&amp;"_"&amp;F19&amp;"_"&amp;G19&amp;"_"&amp;H19&amp;""&amp;I19)</f>
         <v>SI_02SB_RF_P7Cav_Cylin2TDownMon</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -36487,7 +36489,7 @@
       </c>
       <c r="R19" s="31"/>
       <c r="S19" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin2TDownMon</v>
       </c>
       <c r="T19" s="31" t="s">
@@ -36524,19 +36526,19 @@
         <v>28</v>
       </c>
       <c r="J20" s="30" t="str">
-        <f>IF(G20="-",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;":"&amp;H20&amp;"-"&amp;I20,C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;"-"&amp;G20&amp;":"&amp;H20&amp;"-"&amp;I20)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin3TDown-Mon</v>
       </c>
       <c r="K20" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L20" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M20" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M20" s="31" t="str">
-        <f>IF(G20="-",C20&amp;"_"&amp;D20&amp;"_"&amp;E20&amp;"_"&amp;F20&amp;"_"&amp;H20&amp;""&amp;I20,C20&amp;"_"&amp;D20&amp;"_"&amp;E20&amp;"_"&amp;F20&amp;"_"&amp;G20&amp;"_"&amp;H20&amp;""&amp;I20)</f>
         <v>SI_02SB_RF_P7Cav_Cylin3TDownMon</v>
       </c>
       <c r="N20" s="31" t="s">
@@ -36553,7 +36555,7 @@
       </c>
       <c r="R20" s="31"/>
       <c r="S20" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin3TDownMon</v>
       </c>
       <c r="T20" s="31" t="s">
@@ -36590,19 +36592,19 @@
         <v>28</v>
       </c>
       <c r="J21" s="30" t="str">
-        <f>IF(G21="-",C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;":"&amp;H21&amp;"-"&amp;I21,C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;"-"&amp;G21&amp;":"&amp;H21&amp;"-"&amp;I21)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin4TDown-Mon</v>
       </c>
       <c r="K21" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L21" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M21" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M21" s="31" t="str">
-        <f>IF(G21="-",C21&amp;"_"&amp;D21&amp;"_"&amp;E21&amp;"_"&amp;F21&amp;"_"&amp;H21&amp;""&amp;I21,C21&amp;"_"&amp;D21&amp;"_"&amp;E21&amp;"_"&amp;F21&amp;"_"&amp;G21&amp;"_"&amp;H21&amp;""&amp;I21)</f>
         <v>SI_02SB_RF_P7Cav_Cylin4TDownMon</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -36619,7 +36621,7 @@
       </c>
       <c r="R21" s="31"/>
       <c r="S21" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin4TDownMon</v>
       </c>
       <c r="T21" s="31" t="s">
@@ -36656,19 +36658,19 @@
         <v>28</v>
       </c>
       <c r="J22" s="30" t="str">
-        <f>IF(G22="-",C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;":"&amp;H22&amp;"-"&amp;I22,C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;"-"&amp;G22&amp;":"&amp;H22&amp;"-"&amp;I22)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin5TDown-Mon</v>
       </c>
       <c r="K22" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L22" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M22" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M22" s="31" t="str">
-        <f>IF(G22="-",C22&amp;"_"&amp;D22&amp;"_"&amp;E22&amp;"_"&amp;F22&amp;"_"&amp;H22&amp;""&amp;I22,C22&amp;"_"&amp;D22&amp;"_"&amp;E22&amp;"_"&amp;F22&amp;"_"&amp;G22&amp;"_"&amp;H22&amp;""&amp;I22)</f>
         <v>SI_02SB_RF_P7Cav_Cylin5TDownMon</v>
       </c>
       <c r="N22" s="31" t="s">
@@ -36685,7 +36687,7 @@
       </c>
       <c r="R22" s="31"/>
       <c r="S22" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin5TDownMon</v>
       </c>
       <c r="T22" s="31" t="s">
@@ -36722,19 +36724,19 @@
         <v>28</v>
       </c>
       <c r="J23" s="30" t="str">
-        <f>IF(G23="-",C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;":"&amp;H23&amp;"-"&amp;I23,C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;"-"&amp;G23&amp;":"&amp;H23&amp;"-"&amp;I23)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin6TDown-Mon</v>
       </c>
       <c r="K23" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L23" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M23" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M23" s="31" t="str">
-        <f>IF(G23="-",C23&amp;"_"&amp;D23&amp;"_"&amp;E23&amp;"_"&amp;F23&amp;"_"&amp;H23&amp;""&amp;I23,C23&amp;"_"&amp;D23&amp;"_"&amp;E23&amp;"_"&amp;F23&amp;"_"&amp;G23&amp;"_"&amp;H23&amp;""&amp;I23)</f>
         <v>SI_02SB_RF_P7Cav_Cylin6TDownMon</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -36751,7 +36753,7 @@
       </c>
       <c r="R23" s="31"/>
       <c r="S23" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin6TDownMon</v>
       </c>
       <c r="T23" s="31" t="s">
@@ -36788,19 +36790,19 @@
         <v>28</v>
       </c>
       <c r="J24" s="30" t="str">
-        <f>IF(G24="-",C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;":"&amp;H24&amp;"-"&amp;I24,C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;"-"&amp;G24&amp;":"&amp;H24&amp;"-"&amp;I24)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin7TDown-Mon</v>
       </c>
       <c r="K24" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L24" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M24" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M24" s="31" t="str">
-        <f>IF(G24="-",C24&amp;"_"&amp;D24&amp;"_"&amp;E24&amp;"_"&amp;F24&amp;"_"&amp;H24&amp;""&amp;I24,C24&amp;"_"&amp;D24&amp;"_"&amp;E24&amp;"_"&amp;F24&amp;"_"&amp;G24&amp;"_"&amp;H24&amp;""&amp;I24)</f>
         <v>SI_02SB_RF_P7Cav_Cylin7TDownMon</v>
       </c>
       <c r="N24" s="31" t="s">
@@ -36817,7 +36819,7 @@
       </c>
       <c r="R24" s="31"/>
       <c r="S24" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin7TDownMon</v>
       </c>
       <c r="T24" s="31" t="s">
@@ -36854,19 +36856,19 @@
         <v>28</v>
       </c>
       <c r="J25" s="30" t="str">
-        <f>IF(G25="-",C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;":"&amp;H25&amp;"-"&amp;I25,C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;"-"&amp;G25&amp;":"&amp;H25&amp;"-"&amp;I25)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin1TUp-Mon</v>
       </c>
       <c r="K25" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L25" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M25" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M25" s="31" t="str">
-        <f>IF(G25="-",C25&amp;"_"&amp;D25&amp;"_"&amp;E25&amp;"_"&amp;F25&amp;"_"&amp;H25&amp;""&amp;I25,C25&amp;"_"&amp;D25&amp;"_"&amp;E25&amp;"_"&amp;F25&amp;"_"&amp;G25&amp;"_"&amp;H25&amp;""&amp;I25)</f>
         <v>SI_02SB_RF_P7Cav_Cylin1TUpMon</v>
       </c>
       <c r="N25" s="31" t="s">
@@ -36883,7 +36885,7 @@
       </c>
       <c r="R25" s="31"/>
       <c r="S25" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin1TUpMon</v>
       </c>
       <c r="T25" s="31" t="s">
@@ -36920,19 +36922,19 @@
         <v>28</v>
       </c>
       <c r="J26" s="30" t="str">
-        <f>IF(G26="-",C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;":"&amp;H26&amp;"-"&amp;I26,C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;"-"&amp;G26&amp;":"&amp;H26&amp;"-"&amp;I26)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin2TUp-Mon</v>
       </c>
       <c r="K26" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L26" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M26" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M26" s="31" t="str">
-        <f>IF(G26="-",C26&amp;"_"&amp;D26&amp;"_"&amp;E26&amp;"_"&amp;F26&amp;"_"&amp;H26&amp;""&amp;I26,C26&amp;"_"&amp;D26&amp;"_"&amp;E26&amp;"_"&amp;F26&amp;"_"&amp;G26&amp;"_"&amp;H26&amp;""&amp;I26)</f>
         <v>SI_02SB_RF_P7Cav_Cylin2TUpMon</v>
       </c>
       <c r="N26" s="31" t="s">
@@ -36949,7 +36951,7 @@
       </c>
       <c r="R26" s="31"/>
       <c r="S26" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin2TUpMon</v>
       </c>
       <c r="T26" s="31" t="s">
@@ -36986,19 +36988,19 @@
         <v>28</v>
       </c>
       <c r="J27" s="30" t="str">
-        <f>IF(G27="-",C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;":"&amp;H27&amp;"-"&amp;I27,C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;"-"&amp;G27&amp;":"&amp;H27&amp;"-"&amp;I27)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin3TUp-Mon</v>
       </c>
       <c r="K27" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L27" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M27" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M27" s="31" t="str">
-        <f>IF(G27="-",C27&amp;"_"&amp;D27&amp;"_"&amp;E27&amp;"_"&amp;F27&amp;"_"&amp;H27&amp;""&amp;I27,C27&amp;"_"&amp;D27&amp;"_"&amp;E27&amp;"_"&amp;F27&amp;"_"&amp;G27&amp;"_"&amp;H27&amp;""&amp;I27)</f>
         <v>SI_02SB_RF_P7Cav_Cylin3TUpMon</v>
       </c>
       <c r="N27" s="31" t="s">
@@ -37015,7 +37017,7 @@
       </c>
       <c r="R27" s="31"/>
       <c r="S27" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin3TUpMon</v>
       </c>
       <c r="T27" s="31" t="s">
@@ -37052,19 +37054,19 @@
         <v>28</v>
       </c>
       <c r="J28" s="30" t="str">
-        <f>IF(G28="-",C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;":"&amp;H28&amp;"-"&amp;I28,C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;"-"&amp;G28&amp;":"&amp;H28&amp;"-"&amp;I28)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin4TUp-Mon</v>
       </c>
       <c r="K28" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L28" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M28" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M28" s="31" t="str">
-        <f>IF(G28="-",C28&amp;"_"&amp;D28&amp;"_"&amp;E28&amp;"_"&amp;F28&amp;"_"&amp;H28&amp;""&amp;I28,C28&amp;"_"&amp;D28&amp;"_"&amp;E28&amp;"_"&amp;F28&amp;"_"&amp;G28&amp;"_"&amp;H28&amp;""&amp;I28)</f>
         <v>SI_02SB_RF_P7Cav_Cylin4TUpMon</v>
       </c>
       <c r="N28" s="31" t="s">
@@ -37081,7 +37083,7 @@
       </c>
       <c r="R28" s="31"/>
       <c r="S28" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin4TUpMon</v>
       </c>
       <c r="T28" s="31" t="s">
@@ -37118,19 +37120,19 @@
         <v>28</v>
       </c>
       <c r="J29" s="30" t="str">
-        <f>IF(G29="-",C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;":"&amp;H29&amp;"-"&amp;I29,C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;"-"&amp;G29&amp;":"&amp;H29&amp;"-"&amp;I29)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin5TUp-Mon</v>
       </c>
       <c r="K29" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L29" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M29" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M29" s="31" t="str">
-        <f>IF(G29="-",C29&amp;"_"&amp;D29&amp;"_"&amp;E29&amp;"_"&amp;F29&amp;"_"&amp;H29&amp;""&amp;I29,C29&amp;"_"&amp;D29&amp;"_"&amp;E29&amp;"_"&amp;F29&amp;"_"&amp;G29&amp;"_"&amp;H29&amp;""&amp;I29)</f>
         <v>SI_02SB_RF_P7Cav_Cylin5TUpMon</v>
       </c>
       <c r="N29" s="31" t="s">
@@ -37147,7 +37149,7 @@
       </c>
       <c r="R29" s="31"/>
       <c r="S29" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin5TUpMon</v>
       </c>
       <c r="T29" s="31" t="s">
@@ -37184,19 +37186,19 @@
         <v>28</v>
       </c>
       <c r="J30" s="30" t="str">
-        <f>IF(G30="-",C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;":"&amp;H30&amp;"-"&amp;I30,C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;"-"&amp;G30&amp;":"&amp;H30&amp;"-"&amp;I30)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin6TUp-Mon</v>
       </c>
       <c r="K30" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M30" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M30" s="31" t="str">
-        <f>IF(G30="-",C30&amp;"_"&amp;D30&amp;"_"&amp;E30&amp;"_"&amp;F30&amp;"_"&amp;H30&amp;""&amp;I30,C30&amp;"_"&amp;D30&amp;"_"&amp;E30&amp;"_"&amp;F30&amp;"_"&amp;G30&amp;"_"&amp;H30&amp;""&amp;I30)</f>
         <v>SI_02SB_RF_P7Cav_Cylin6TUpMon</v>
       </c>
       <c r="N30" s="31" t="s">
@@ -37213,7 +37215,7 @@
       </c>
       <c r="R30" s="31"/>
       <c r="S30" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin6TUpMon</v>
       </c>
       <c r="T30" s="31" t="s">
@@ -37250,19 +37252,19 @@
         <v>28</v>
       </c>
       <c r="J31" s="30" t="str">
-        <f>IF(G31="-",C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;":"&amp;H31&amp;"-"&amp;I31,C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;"-"&amp;G31&amp;":"&amp;H31&amp;"-"&amp;I31)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin7TUp-Mon</v>
       </c>
       <c r="K31" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L31" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M31" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M31" s="31" t="str">
-        <f>IF(G31="-",C31&amp;"_"&amp;D31&amp;"_"&amp;E31&amp;"_"&amp;F31&amp;"_"&amp;H31&amp;""&amp;I31,C31&amp;"_"&amp;D31&amp;"_"&amp;E31&amp;"_"&amp;F31&amp;"_"&amp;G31&amp;"_"&amp;H31&amp;""&amp;I31)</f>
         <v>SI_02SB_RF_P7Cav_Cylin7TUpMon</v>
       </c>
       <c r="N31" s="31" t="s">
@@ -37279,7 +37281,7 @@
       </c>
       <c r="R31" s="31"/>
       <c r="S31" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin7TUpMon</v>
       </c>
       <c r="T31" s="31" t="s">
@@ -37316,19 +37318,19 @@
         <v>28</v>
       </c>
       <c r="J32" s="30" t="str">
-        <f>IF(G32="-",C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;":"&amp;H32&amp;"-"&amp;I32,C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;"-"&amp;G32&amp;":"&amp;H32&amp;"-"&amp;I32)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc1Tms-Mon</v>
       </c>
       <c r="K32" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L32" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M32" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M32" s="31" t="str">
-        <f>IF(G32="-",C32&amp;"_"&amp;D32&amp;"_"&amp;E32&amp;"_"&amp;F32&amp;"_"&amp;H32&amp;""&amp;I32,C32&amp;"_"&amp;D32&amp;"_"&amp;E32&amp;"_"&amp;F32&amp;"_"&amp;G32&amp;"_"&amp;H32&amp;""&amp;I32)</f>
         <v>SI_02SB_RF_P7Cav_Disc1TmsMon</v>
       </c>
       <c r="N32" s="31" t="s">
@@ -37345,7 +37347,7 @@
       </c>
       <c r="R32" s="31"/>
       <c r="S32" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Disc1TmsMon</v>
       </c>
       <c r="T32" s="31" t="s">
@@ -37382,19 +37384,19 @@
         <v>28</v>
       </c>
       <c r="J33" s="30" t="str">
-        <f>IF(G33="-",C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;":"&amp;H33&amp;"-"&amp;I33,C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;"-"&amp;G33&amp;":"&amp;H33&amp;"-"&amp;I33)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc2Tms-Mon</v>
       </c>
       <c r="K33" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L33" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M33" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M33" s="31" t="str">
-        <f>IF(G33="-",C33&amp;"_"&amp;D33&amp;"_"&amp;E33&amp;"_"&amp;F33&amp;"_"&amp;H33&amp;""&amp;I33,C33&amp;"_"&amp;D33&amp;"_"&amp;E33&amp;"_"&amp;F33&amp;"_"&amp;G33&amp;"_"&amp;H33&amp;""&amp;I33)</f>
         <v>SI_02SB_RF_P7Cav_Disc2TmsMon</v>
       </c>
       <c r="N33" s="31" t="s">
@@ -37411,7 +37413,7 @@
       </c>
       <c r="R33" s="31"/>
       <c r="S33" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Disc2TmsMon</v>
       </c>
       <c r="T33" s="31" t="s">
@@ -37448,19 +37450,19 @@
         <v>28</v>
       </c>
       <c r="J34" s="30" t="str">
-        <f>IF(G34="-",C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;":"&amp;H34&amp;"-"&amp;I34,C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;"-"&amp;G34&amp;":"&amp;H34&amp;"-"&amp;I34)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc3Tms-Mon</v>
       </c>
       <c r="K34" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L34" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M34" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M34" s="31" t="str">
-        <f>IF(G34="-",C34&amp;"_"&amp;D34&amp;"_"&amp;E34&amp;"_"&amp;F34&amp;"_"&amp;H34&amp;""&amp;I34,C34&amp;"_"&amp;D34&amp;"_"&amp;E34&amp;"_"&amp;F34&amp;"_"&amp;G34&amp;"_"&amp;H34&amp;""&amp;I34)</f>
         <v>SI_02SB_RF_P7Cav_Disc3TmsMon</v>
       </c>
       <c r="N34" s="31" t="s">
@@ -37477,7 +37479,7 @@
       </c>
       <c r="R34" s="31"/>
       <c r="S34" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Disc3TmsMon</v>
       </c>
       <c r="T34" s="31" t="s">
@@ -37514,19 +37516,19 @@
         <v>28</v>
       </c>
       <c r="J35" s="30" t="str">
-        <f>IF(G35="-",C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;":"&amp;H35&amp;"-"&amp;I35,C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;"-"&amp;G35&amp;":"&amp;H35&amp;"-"&amp;I35)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc4Tms-Mon</v>
       </c>
       <c r="K35" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L35" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M35" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M35" s="31" t="str">
-        <f>IF(G35="-",C35&amp;"_"&amp;D35&amp;"_"&amp;E35&amp;"_"&amp;F35&amp;"_"&amp;H35&amp;""&amp;I35,C35&amp;"_"&amp;D35&amp;"_"&amp;E35&amp;"_"&amp;F35&amp;"_"&amp;G35&amp;"_"&amp;H35&amp;""&amp;I35)</f>
         <v>SI_02SB_RF_P7Cav_Disc4TmsMon</v>
       </c>
       <c r="N35" s="31" t="s">
@@ -37543,7 +37545,7 @@
       </c>
       <c r="R35" s="31"/>
       <c r="S35" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Disc4TmsMon</v>
       </c>
       <c r="T35" s="31" t="s">
@@ -37580,19 +37582,19 @@
         <v>28</v>
       </c>
       <c r="J36" s="30" t="str">
-        <f>IF(G36="-",C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;":"&amp;H36&amp;"-"&amp;I36,C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;"-"&amp;G36&amp;":"&amp;H36&amp;"-"&amp;I36)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc5Tms-Mon</v>
       </c>
       <c r="K36" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L36" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M36" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M36" s="31" t="str">
-        <f>IF(G36="-",C36&amp;"_"&amp;D36&amp;"_"&amp;E36&amp;"_"&amp;F36&amp;"_"&amp;H36&amp;""&amp;I36,C36&amp;"_"&amp;D36&amp;"_"&amp;E36&amp;"_"&amp;F36&amp;"_"&amp;G36&amp;"_"&amp;H36&amp;""&amp;I36)</f>
         <v>SI_02SB_RF_P7Cav_Disc5TmsMon</v>
       </c>
       <c r="N36" s="31" t="s">
@@ -37609,7 +37611,7 @@
       </c>
       <c r="R36" s="31"/>
       <c r="S36" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Disc5TmsMon</v>
       </c>
       <c r="T36" s="31" t="s">
@@ -37646,19 +37648,19 @@
         <v>28</v>
       </c>
       <c r="J37" s="30" t="str">
-        <f>IF(G37="-",C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;":"&amp;H37&amp;"-"&amp;I37,C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;"-"&amp;G37&amp;":"&amp;H37&amp;"-"&amp;I37)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc6Tms-Mon</v>
       </c>
       <c r="K37" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L37" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M37" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M37" s="31" t="str">
-        <f>IF(G37="-",C37&amp;"_"&amp;D37&amp;"_"&amp;E37&amp;"_"&amp;F37&amp;"_"&amp;H37&amp;""&amp;I37,C37&amp;"_"&amp;D37&amp;"_"&amp;E37&amp;"_"&amp;F37&amp;"_"&amp;G37&amp;"_"&amp;H37&amp;""&amp;I37)</f>
         <v>SI_02SB_RF_P7Cav_Disc6TmsMon</v>
       </c>
       <c r="N37" s="31" t="s">
@@ -37675,7 +37677,7 @@
       </c>
       <c r="R37" s="31"/>
       <c r="S37" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Disc6TmsMon</v>
       </c>
       <c r="T37" s="31" t="s">
@@ -37712,19 +37714,19 @@
         <v>28</v>
       </c>
       <c r="J38" s="30" t="str">
-        <f>IF(G38="-",C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;":"&amp;H38&amp;"-"&amp;I38,C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;"-"&amp;G38&amp;":"&amp;H38&amp;"-"&amp;I38)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc7Tms-Mon</v>
       </c>
       <c r="K38" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L38" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M38" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M38" s="31" t="str">
-        <f>IF(G38="-",C38&amp;"_"&amp;D38&amp;"_"&amp;E38&amp;"_"&amp;F38&amp;"_"&amp;H38&amp;""&amp;I38,C38&amp;"_"&amp;D38&amp;"_"&amp;E38&amp;"_"&amp;F38&amp;"_"&amp;G38&amp;"_"&amp;H38&amp;""&amp;I38)</f>
         <v>SI_02SB_RF_P7Cav_Disc7TmsMon</v>
       </c>
       <c r="N38" s="31" t="s">
@@ -37741,7 +37743,7 @@
       </c>
       <c r="R38" s="31"/>
       <c r="S38" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Disc7TmsMon</v>
       </c>
       <c r="T38" s="31" t="s">
@@ -37778,19 +37780,19 @@
         <v>28</v>
       </c>
       <c r="J39" s="30" t="str">
-        <f>IF(G39="-",C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;":"&amp;H39&amp;"-"&amp;I39,C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;"-"&amp;G39&amp;":"&amp;H39&amp;"-"&amp;I39)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc8Tms-Mon</v>
       </c>
       <c r="K39" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L39" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M39" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M39" s="31" t="str">
-        <f>IF(G39="-",C39&amp;"_"&amp;D39&amp;"_"&amp;E39&amp;"_"&amp;F39&amp;"_"&amp;H39&amp;""&amp;I39,C39&amp;"_"&amp;D39&amp;"_"&amp;E39&amp;"_"&amp;F39&amp;"_"&amp;G39&amp;"_"&amp;H39&amp;""&amp;I39)</f>
         <v>SI_02SB_RF_P7Cav_Disc8TmsMon</v>
       </c>
       <c r="N39" s="31" t="s">
@@ -37807,7 +37809,7 @@
       </c>
       <c r="R39" s="31"/>
       <c r="S39" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Disc8TmsMon</v>
       </c>
       <c r="T39" s="31" t="s">
@@ -37844,19 +37846,19 @@
         <v>28</v>
       </c>
       <c r="J40" s="30" t="str">
-        <f>IF(G40="-",C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;":"&amp;H40&amp;"-"&amp;I40,C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;"-"&amp;G40&amp;":"&amp;H40&amp;"-"&amp;I40)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin1Tms-Mon</v>
       </c>
       <c r="K40" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L40" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M40" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M40" s="31" t="str">
-        <f>IF(G40="-",C40&amp;"_"&amp;D40&amp;"_"&amp;E40&amp;"_"&amp;F40&amp;"_"&amp;H40&amp;""&amp;I40,C40&amp;"_"&amp;D40&amp;"_"&amp;E40&amp;"_"&amp;F40&amp;"_"&amp;G40&amp;"_"&amp;H40&amp;""&amp;I40)</f>
         <v>SI_02SB_RF_P7Cav_Cylin1TmsMon</v>
       </c>
       <c r="N40" s="31" t="s">
@@ -37873,7 +37875,7 @@
       </c>
       <c r="R40" s="31"/>
       <c r="S40" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin1TmsMon</v>
       </c>
       <c r="T40" s="31" t="s">
@@ -37910,19 +37912,19 @@
         <v>28</v>
       </c>
       <c r="J41" s="30" t="str">
-        <f>IF(G41="-",C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;":"&amp;H41&amp;"-"&amp;I41,C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;"-"&amp;G41&amp;":"&amp;H41&amp;"-"&amp;I41)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin2Tms-Mon</v>
       </c>
       <c r="K41" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L41" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M41" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M41" s="31" t="str">
-        <f>IF(G41="-",C41&amp;"_"&amp;D41&amp;"_"&amp;E41&amp;"_"&amp;F41&amp;"_"&amp;H41&amp;""&amp;I41,C41&amp;"_"&amp;D41&amp;"_"&amp;E41&amp;"_"&amp;F41&amp;"_"&amp;G41&amp;"_"&amp;H41&amp;""&amp;I41)</f>
         <v>SI_02SB_RF_P7Cav_Cylin2TmsMon</v>
       </c>
       <c r="N41" s="31" t="s">
@@ -37939,7 +37941,7 @@
       </c>
       <c r="R41" s="31"/>
       <c r="S41" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin2TmsMon</v>
       </c>
       <c r="T41" s="31" t="s">
@@ -37976,19 +37978,19 @@
         <v>28</v>
       </c>
       <c r="J42" s="30" t="str">
-        <f>IF(G42="-",C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;":"&amp;H42&amp;"-"&amp;I42,C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;"-"&amp;G42&amp;":"&amp;H42&amp;"-"&amp;I42)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin3Tms-Mon</v>
       </c>
       <c r="K42" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L42" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M42" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M42" s="31" t="str">
-        <f>IF(G42="-",C42&amp;"_"&amp;D42&amp;"_"&amp;E42&amp;"_"&amp;F42&amp;"_"&amp;H42&amp;""&amp;I42,C42&amp;"_"&amp;D42&amp;"_"&amp;E42&amp;"_"&amp;F42&amp;"_"&amp;G42&amp;"_"&amp;H42&amp;""&amp;I42)</f>
         <v>SI_02SB_RF_P7Cav_Cylin3TmsMon</v>
       </c>
       <c r="N42" s="31" t="s">
@@ -38005,7 +38007,7 @@
       </c>
       <c r="R42" s="31"/>
       <c r="S42" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin3TmsMon</v>
       </c>
       <c r="T42" s="31" t="s">
@@ -38042,19 +38044,19 @@
         <v>28</v>
       </c>
       <c r="J43" s="30" t="str">
-        <f>IF(G43="-",C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;":"&amp;H43&amp;"-"&amp;I43,C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;"-"&amp;G43&amp;":"&amp;H43&amp;"-"&amp;I43)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin4Tms-Mon</v>
       </c>
       <c r="K43" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L43" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M43" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M43" s="31" t="str">
-        <f>IF(G43="-",C43&amp;"_"&amp;D43&amp;"_"&amp;E43&amp;"_"&amp;F43&amp;"_"&amp;H43&amp;""&amp;I43,C43&amp;"_"&amp;D43&amp;"_"&amp;E43&amp;"_"&amp;F43&amp;"_"&amp;G43&amp;"_"&amp;H43&amp;""&amp;I43)</f>
         <v>SI_02SB_RF_P7Cav_Cylin4TmsMon</v>
       </c>
       <c r="N43" s="31" t="s">
@@ -38071,7 +38073,7 @@
       </c>
       <c r="R43" s="31"/>
       <c r="S43" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin4TmsMon</v>
       </c>
       <c r="T43" s="31" t="s">
@@ -38108,19 +38110,19 @@
         <v>28</v>
       </c>
       <c r="J44" s="30" t="str">
-        <f>IF(G44="-",C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;":"&amp;H44&amp;"-"&amp;I44,C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;"-"&amp;G44&amp;":"&amp;H44&amp;"-"&amp;I44)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin5Tms-Mon</v>
       </c>
       <c r="K44" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L44" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M44" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M44" s="31" t="str">
-        <f>IF(G44="-",C44&amp;"_"&amp;D44&amp;"_"&amp;E44&amp;"_"&amp;F44&amp;"_"&amp;H44&amp;""&amp;I44,C44&amp;"_"&amp;D44&amp;"_"&amp;E44&amp;"_"&amp;F44&amp;"_"&amp;G44&amp;"_"&amp;H44&amp;""&amp;I44)</f>
         <v>SI_02SB_RF_P7Cav_Cylin5TmsMon</v>
       </c>
       <c r="N44" s="31" t="s">
@@ -38137,7 +38139,7 @@
       </c>
       <c r="R44" s="31"/>
       <c r="S44" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin5TmsMon</v>
       </c>
       <c r="T44" s="31" t="s">
@@ -38174,19 +38176,19 @@
         <v>28</v>
       </c>
       <c r="J45" s="30" t="str">
-        <f>IF(G45="-",C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;":"&amp;H45&amp;"-"&amp;I45,C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;"-"&amp;G45&amp;":"&amp;H45&amp;"-"&amp;I45)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin6Tms-Mon</v>
       </c>
       <c r="K45" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L45" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M45" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M45" s="31" t="str">
-        <f>IF(G45="-",C45&amp;"_"&amp;D45&amp;"_"&amp;E45&amp;"_"&amp;F45&amp;"_"&amp;H45&amp;""&amp;I45,C45&amp;"_"&amp;D45&amp;"_"&amp;E45&amp;"_"&amp;F45&amp;"_"&amp;G45&amp;"_"&amp;H45&amp;""&amp;I45)</f>
         <v>SI_02SB_RF_P7Cav_Cylin6TmsMon</v>
       </c>
       <c r="N45" s="31" t="s">
@@ -38203,7 +38205,7 @@
       </c>
       <c r="R45" s="31"/>
       <c r="S45" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin6TmsMon</v>
       </c>
       <c r="T45" s="31" t="s">
@@ -38240,19 +38242,19 @@
         <v>28</v>
       </c>
       <c r="J46" s="30" t="str">
-        <f>IF(G46="-",C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;":"&amp;H46&amp;"-"&amp;I46,C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;"-"&amp;G46&amp;":"&amp;H46&amp;"-"&amp;I46)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin7Tms-Mon</v>
       </c>
       <c r="K46" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L46" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M46" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M46" s="31" t="str">
-        <f>IF(G46="-",C46&amp;"_"&amp;D46&amp;"_"&amp;E46&amp;"_"&amp;F46&amp;"_"&amp;H46&amp;""&amp;I46,C46&amp;"_"&amp;D46&amp;"_"&amp;E46&amp;"_"&amp;F46&amp;"_"&amp;G46&amp;"_"&amp;H46&amp;""&amp;I46)</f>
         <v>SI_02SB_RF_P7Cav_Cylin7TmsMon</v>
       </c>
       <c r="N46" s="31" t="s">
@@ -38269,7 +38271,7 @@
       </c>
       <c r="R46" s="31"/>
       <c r="S46" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_Cylin7TmsMon</v>
       </c>
       <c r="T46" s="31" t="s">
@@ -38306,19 +38308,19 @@
         <v>28</v>
       </c>
       <c r="J47" s="70" t="str">
-        <f>IF(G47="-",C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;":"&amp;H47&amp;"-"&amp;I47,C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;"-"&amp;G47&amp;":"&amp;H47&amp;"-"&amp;I47)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:PwrRFIntlk-Mon</v>
       </c>
       <c r="K47" s="70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="L47" s="70" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="M47" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>N/A</v>
-      </c>
-      <c r="M47" s="71" t="str">
-        <f>IF(G47="-",C47&amp;"_"&amp;D47&amp;"_"&amp;E47&amp;"_"&amp;F47&amp;"_"&amp;H47&amp;""&amp;I47,C47&amp;"_"&amp;D47&amp;"_"&amp;E47&amp;"_"&amp;F47&amp;"_"&amp;G47&amp;"_"&amp;H47&amp;""&amp;I47)</f>
         <v>SI_02SB_RF_P7Cav_PwrRFIntlkMon</v>
       </c>
       <c r="N47" s="71" t="s">
@@ -38337,7 +38339,7 @@
         <v>438</v>
       </c>
       <c r="S47" s="71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SI_02SB_RF_P7Cav_PwrRFIntlkMon</v>
       </c>
       <c r="T47" s="71" t="s">
@@ -38345,6 +38347,76 @@
       </c>
       <c r="U47" s="72">
         <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="39">
+        <v>45</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="42" t="str">
+        <f>IF(G48="-",C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;":"&amp;H48&amp;"-"&amp;I48,C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;"-"&amp;G48&amp;":"&amp;H48&amp;"-"&amp;I48)</f>
+        <v>SI-02SB:RF-P7Cav:GlassWinT-Mon</v>
+      </c>
+      <c r="K48" s="42" t="str">
+        <f>IF(OR(P48="",P48="N/A"),"N/A",IF(G48="-",C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;":"&amp;H48&amp;"UpperLimit-Cte",C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;"-"&amp;G48&amp;":"&amp;H48&amp;"UpperLimit-Cte"))</f>
+        <v>SI-02SB:RF-P7Cav:GlassWinTUpperLimit-Cte</v>
+      </c>
+      <c r="L48" s="42" t="str">
+        <f>IF(OR(Q48="",Q48="N/A"),"N/A",IF(G48="-",C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;":"&amp;H48&amp;"LowerLimit-Cte",C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;"-"&amp;G48&amp;":"&amp;H48&amp;"LowerLimit-Cte"))</f>
+        <v>SI-02SB:RF-P7Cav:GlassWinTLowerLimit-Cte</v>
+      </c>
+      <c r="M48" s="43" t="str">
+        <f>IF(G48="-",C48&amp;"_"&amp;D48&amp;"_"&amp;E48&amp;"_"&amp;F48&amp;"_"&amp;H48&amp;""&amp;I48,C48&amp;"_"&amp;D48&amp;"_"&amp;E48&amp;"_"&amp;F48&amp;"_"&amp;G48&amp;"_"&amp;H48&amp;""&amp;I48)</f>
+        <v>SI_02SB_RF_P7Cav_GlassWinTMon</v>
+      </c>
+      <c r="N48" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="O48" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q48" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="R48" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="S48" s="43" t="str">
+        <f>M48</f>
+        <v>SI_02SB_RF_P7Cav_GlassWinTMon</v>
+      </c>
+      <c r="T48" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="U48" s="44">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -38450,7 +38522,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>242</v>
@@ -38468,13 +38540,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="15" t="str">
-        <f>IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"-"&amp;I2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"-"&amp;I2)</f>
+        <f t="shared" ref="J2:J33" si="0">IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"-"&amp;I2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"-"&amp;I2)</f>
         <v>SI-02SB:RF-P7Cav:Disc1WT-Mon</v>
       </c>
       <c r="K2" s="15"/>
@@ -38487,7 +38559,7 @@
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
       <c r="T2" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U2" s="18"/>
     </row>
@@ -38496,7 +38568,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>242</v>
@@ -38514,13 +38586,13 @@
         <v>26</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="22" t="str">
-        <f>IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3&amp;"-"&amp;I3,C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3&amp;"-"&amp;I3)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc2WT-Mon</v>
       </c>
       <c r="K3" s="22"/>
@@ -38533,7 +38605,7 @@
       <c r="R3" s="23"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U3" s="24"/>
     </row>
@@ -38542,7 +38614,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>242</v>
@@ -38560,13 +38632,13 @@
         <v>26</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="15" t="str">
-        <f>IF(G4="-",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;":"&amp;H4&amp;"-"&amp;I4,C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;G4&amp;":"&amp;H4&amp;"-"&amp;I4)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin1WT-Mon</v>
       </c>
       <c r="K4" s="15"/>
@@ -38579,7 +38651,7 @@
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U4" s="18"/>
     </row>
@@ -38588,7 +38660,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>242</v>
@@ -38606,13 +38678,13 @@
         <v>26</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="15" t="str">
-        <f>IF(G5="-",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;":"&amp;H5&amp;"-"&amp;I5,C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;"-"&amp;G5&amp;":"&amp;H5&amp;"-"&amp;I5)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Pl2WT-Mon</v>
       </c>
       <c r="K5" s="15"/>
@@ -38625,7 +38697,7 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U5" s="18"/>
     </row>
@@ -38634,7 +38706,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>242</v>
@@ -38652,13 +38724,13 @@
         <v>26</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="15" t="str">
-        <f>IF(G6="-",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;":"&amp;H6&amp;"-"&amp;I6,C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;"-"&amp;G6&amp;":"&amp;H6&amp;"-"&amp;I6)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc3WT-Mon</v>
       </c>
       <c r="K6" s="15"/>
@@ -38671,7 +38743,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U6" s="18"/>
     </row>
@@ -38680,7 +38752,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>242</v>
@@ -38698,13 +38770,13 @@
         <v>26</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="15" t="str">
-        <f>IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7&amp;"-"&amp;I7,C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7&amp;"-"&amp;I7)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin2WT-Mon</v>
       </c>
       <c r="K7" s="15"/>
@@ -38717,7 +38789,7 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U7" s="18"/>
     </row>
@@ -38726,7 +38798,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>242</v>
@@ -38744,13 +38816,13 @@
         <v>26</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="15" t="str">
-        <f>IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8&amp;"-"&amp;I8,C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8&amp;"-"&amp;I8)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin3WT-Mon</v>
       </c>
       <c r="K8" s="15"/>
@@ -38763,7 +38835,7 @@
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U8" s="18"/>
     </row>
@@ -38772,7 +38844,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>242</v>
@@ -38790,13 +38862,13 @@
         <v>26</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="15" t="str">
-        <f>IF(G9="-",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;":"&amp;H9&amp;"-"&amp;I9,C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;G9&amp;":"&amp;H9&amp;"-"&amp;I9)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc4WT-Mon</v>
       </c>
       <c r="K9" s="15"/>
@@ -38809,7 +38881,7 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U9" s="18"/>
     </row>
@@ -38818,7 +38890,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>242</v>
@@ -38836,13 +38908,13 @@
         <v>26</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="15" t="str">
-        <f>IF(G10="-",C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;":"&amp;H10&amp;"-"&amp;I10,C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;"-"&amp;G10&amp;":"&amp;H10&amp;"-"&amp;I10)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin4WT-Mon</v>
       </c>
       <c r="K10" s="15"/>
@@ -38855,7 +38927,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U10" s="18"/>
     </row>
@@ -38864,7 +38936,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>242</v>
@@ -38882,13 +38954,13 @@
         <v>26</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="15" t="str">
-        <f>IF(G11="-",C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;":"&amp;H11&amp;"-"&amp;I11,C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;"-"&amp;G11&amp;":"&amp;H11&amp;"-"&amp;I11)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:CoupWT-Mon</v>
       </c>
       <c r="K11" s="15"/>
@@ -38901,7 +38973,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U11" s="18"/>
     </row>
@@ -38910,7 +38982,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>242</v>
@@ -38928,13 +39000,13 @@
         <v>26</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="15" t="str">
-        <f>IF(G12="-",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;":"&amp;H12&amp;"-"&amp;I12,C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;G12&amp;":"&amp;H12&amp;"-"&amp;I12)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc5WT-Mon</v>
       </c>
       <c r="K12" s="15"/>
@@ -38947,7 +39019,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U12" s="18"/>
     </row>
@@ -38956,7 +39028,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>242</v>
@@ -38974,13 +39046,13 @@
         <v>26</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="15" t="str">
-        <f>IF(G13="-",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;":"&amp;H13&amp;"-"&amp;I13,C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;"-"&amp;G13&amp;":"&amp;H13&amp;"-"&amp;I13)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin5WT-Mon</v>
       </c>
       <c r="K13" s="15"/>
@@ -38993,7 +39065,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U13" s="18"/>
     </row>
@@ -39002,7 +39074,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>242</v>
@@ -39020,13 +39092,13 @@
         <v>26</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J14" s="15" t="str">
-        <f>IF(G14="-",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;":"&amp;H14&amp;"-"&amp;I14,C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;"-"&amp;G14&amp;":"&amp;H14&amp;"-"&amp;I14)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc6WT-Mon</v>
       </c>
       <c r="K14" s="15"/>
@@ -39039,7 +39111,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U14" s="18"/>
     </row>
@@ -39048,7 +39120,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>242</v>
@@ -39066,13 +39138,13 @@
         <v>26</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="15" t="str">
-        <f>IF(G15="-",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;":"&amp;H15&amp;"-"&amp;I15,C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;"-"&amp;G15&amp;":"&amp;H15&amp;"-"&amp;I15)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin6WT-Mon</v>
       </c>
       <c r="K15" s="15"/>
@@ -39085,7 +39157,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U15" s="18"/>
     </row>
@@ -39094,7 +39166,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>242</v>
@@ -39112,13 +39184,13 @@
         <v>26</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="15" t="str">
-        <f>IF(G16="-",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;":"&amp;H16&amp;"-"&amp;I16,C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;"-"&amp;G16&amp;":"&amp;H16&amp;"-"&amp;I16)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Pl1WT-Mon</v>
       </c>
       <c r="K16" s="15"/>
@@ -39131,7 +39203,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U16" s="18"/>
     </row>
@@ -39140,7 +39212,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>242</v>
@@ -39158,13 +39230,13 @@
         <v>26</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J17" s="15" t="str">
-        <f>IF(G17="-",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;":"&amp;H17&amp;"-"&amp;I17,C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;"-"&amp;G17&amp;":"&amp;H17&amp;"-"&amp;I17)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc7WT-Mon</v>
       </c>
       <c r="K17" s="15"/>
@@ -39177,7 +39249,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
       <c r="T17" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U17" s="18"/>
     </row>
@@ -39186,7 +39258,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>242</v>
@@ -39204,13 +39276,13 @@
         <v>26</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J18" s="15" t="str">
-        <f>IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18&amp;"-"&amp;I18,C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18&amp;"-"&amp;I18)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cylin7WT-Mon</v>
       </c>
       <c r="K18" s="15"/>
@@ -39223,7 +39295,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
       <c r="T18" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U18" s="18"/>
     </row>
@@ -39232,7 +39304,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>242</v>
@@ -39250,13 +39322,13 @@
         <v>26</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="15" t="str">
-        <f>IF(G19="-",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;":"&amp;H19&amp;"-"&amp;I19,C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;"-"&amp;G19&amp;":"&amp;H19&amp;"-"&amp;I19)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc8WT-Mon</v>
       </c>
       <c r="K19" s="15"/>
@@ -39269,7 +39341,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
       <c r="T19" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U19" s="18"/>
     </row>
@@ -39278,7 +39350,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>242</v>
@@ -39296,13 +39368,13 @@
         <v>26</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="15" t="str">
-        <f>IF(G20="-",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;":"&amp;H20&amp;"-"&amp;I20,C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;"-"&amp;G20&amp;":"&amp;H20&amp;"-"&amp;I20)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:WInT-Mon</v>
       </c>
       <c r="K20" s="15"/>
@@ -39315,7 +39387,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U20" s="18"/>
     </row>
@@ -39324,7 +39396,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>242</v>
@@ -39342,13 +39414,13 @@
         <v>26</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J21" s="15" t="str">
-        <f>IF(G21="-",C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;":"&amp;H21&amp;"-"&amp;I21,C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;"-"&amp;G21&amp;":"&amp;H21&amp;"-"&amp;I21)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc1WdT-Mon</v>
       </c>
       <c r="K21" s="15"/>
@@ -39361,7 +39433,7 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
       <c r="T21" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U21" s="18"/>
     </row>
@@ -39370,7 +39442,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>242</v>
@@ -39388,13 +39460,13 @@
         <v>26</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="15" t="str">
-        <f>IF(G22="-",C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;":"&amp;H22&amp;"-"&amp;I22,C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;"-"&amp;G22&amp;":"&amp;H22&amp;"-"&amp;I22)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc2WdT-Mon</v>
       </c>
       <c r="K22" s="15"/>
@@ -39407,7 +39479,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U22" s="18"/>
     </row>
@@ -39416,7 +39488,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>242</v>
@@ -39434,13 +39506,13 @@
         <v>26</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="15" t="str">
-        <f>IF(G23="-",C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;":"&amp;H23&amp;"-"&amp;I23,C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;"-"&amp;G23&amp;":"&amp;H23&amp;"-"&amp;I23)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc3WdT-Mon</v>
       </c>
       <c r="K23" s="15"/>
@@ -39453,7 +39525,7 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U23" s="18"/>
     </row>
@@ -39462,7 +39534,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>242</v>
@@ -39480,13 +39552,13 @@
         <v>26</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="15" t="str">
-        <f>IF(G24="-",C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;":"&amp;H24&amp;"-"&amp;I24,C24&amp;"-"&amp;D24&amp;":"&amp;E24&amp;"-"&amp;F24&amp;"-"&amp;G24&amp;":"&amp;H24&amp;"-"&amp;I24)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc4WdT-Mon</v>
       </c>
       <c r="K24" s="15"/>
@@ -39499,7 +39571,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U24" s="18"/>
     </row>
@@ -39508,7 +39580,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>242</v>
@@ -39526,13 +39598,13 @@
         <v>26</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J25" s="15" t="str">
-        <f>IF(G25="-",C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;":"&amp;H25&amp;"-"&amp;I25,C25&amp;"-"&amp;D25&amp;":"&amp;E25&amp;"-"&amp;F25&amp;"-"&amp;G25&amp;":"&amp;H25&amp;"-"&amp;I25)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc5WdT-Mon</v>
       </c>
       <c r="K25" s="15"/>
@@ -39545,7 +39617,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
       <c r="T25" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U25" s="18"/>
     </row>
@@ -39554,7 +39626,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>242</v>
@@ -39572,13 +39644,13 @@
         <v>26</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="15" t="str">
-        <f>IF(G26="-",C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;":"&amp;H26&amp;"-"&amp;I26,C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;"-"&amp;G26&amp;":"&amp;H26&amp;"-"&amp;I26)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:DIsc6WdT-Mon</v>
       </c>
       <c r="K26" s="15"/>
@@ -39591,7 +39663,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U26" s="18"/>
     </row>
@@ -39600,7 +39672,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>242</v>
@@ -39618,13 +39690,13 @@
         <v>26</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J27" s="15" t="str">
-        <f>IF(G27="-",C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;":"&amp;H27&amp;"-"&amp;I27,C27&amp;"-"&amp;D27&amp;":"&amp;E27&amp;"-"&amp;F27&amp;"-"&amp;G27&amp;":"&amp;H27&amp;"-"&amp;I27)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:DIsc7WdT-Mon</v>
       </c>
       <c r="K27" s="15"/>
@@ -39637,7 +39709,7 @@
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
       <c r="T27" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U27" s="18"/>
     </row>
@@ -39646,7 +39718,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>242</v>
@@ -39664,13 +39736,13 @@
         <v>26</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="15" t="str">
-        <f>IF(G28="-",C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;":"&amp;H28&amp;"-"&amp;I28,C28&amp;"-"&amp;D28&amp;":"&amp;E28&amp;"-"&amp;F28&amp;"-"&amp;G28&amp;":"&amp;H28&amp;"-"&amp;I28)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Disc8WdT-Mon</v>
       </c>
       <c r="K28" s="15"/>
@@ -39683,7 +39755,7 @@
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
       <c r="T28" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U28" s="18"/>
     </row>
@@ -39692,7 +39764,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>242</v>
@@ -39710,13 +39782,13 @@
         <v>26</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="15" t="str">
-        <f>IF(G29="-",C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;":"&amp;H29&amp;"-"&amp;I29,C29&amp;"-"&amp;D29&amp;":"&amp;E29&amp;"-"&amp;F29&amp;"-"&amp;G29&amp;":"&amp;H29&amp;"-"&amp;I29)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cell1WdT-Mon</v>
       </c>
       <c r="K29" s="15"/>
@@ -39729,7 +39801,7 @@
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
       <c r="T29" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U29" s="18"/>
     </row>
@@ -39738,7 +39810,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>242</v>
@@ -39756,13 +39828,13 @@
         <v>26</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="15" t="str">
-        <f>IF(G30="-",C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;":"&amp;H30&amp;"-"&amp;I30,C30&amp;"-"&amp;D30&amp;":"&amp;E30&amp;"-"&amp;F30&amp;"-"&amp;G30&amp;":"&amp;H30&amp;"-"&amp;I30)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cell2WdT-Mon</v>
       </c>
       <c r="K30" s="15"/>
@@ -39775,7 +39847,7 @@
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
       <c r="T30" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U30" s="18"/>
     </row>
@@ -39784,7 +39856,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>242</v>
@@ -39802,13 +39874,13 @@
         <v>26</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="15" t="str">
-        <f>IF(G31="-",C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;":"&amp;H31&amp;"-"&amp;I31,C31&amp;"-"&amp;D31&amp;":"&amp;E31&amp;"-"&amp;F31&amp;"-"&amp;G31&amp;":"&amp;H31&amp;"-"&amp;I31)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cell3WdT-Mon</v>
       </c>
       <c r="K31" s="15"/>
@@ -39821,7 +39893,7 @@
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U31" s="18"/>
     </row>
@@ -39830,7 +39902,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>242</v>
@@ -39848,13 +39920,13 @@
         <v>26</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="15" t="str">
-        <f>IF(G32="-",C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;":"&amp;H32&amp;"-"&amp;I32,C32&amp;"-"&amp;D32&amp;":"&amp;E32&amp;"-"&amp;F32&amp;"-"&amp;G32&amp;":"&amp;H32&amp;"-"&amp;I32)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cell4WdT-Mon</v>
       </c>
       <c r="K32" s="15"/>
@@ -39867,7 +39939,7 @@
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U32" s="18"/>
     </row>
@@ -39876,7 +39948,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>242</v>
@@ -39894,13 +39966,13 @@
         <v>26</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="15" t="str">
-        <f>IF(G33="-",C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;":"&amp;H33&amp;"-"&amp;I33,C33&amp;"-"&amp;D33&amp;":"&amp;E33&amp;"-"&amp;F33&amp;"-"&amp;G33&amp;":"&amp;H33&amp;"-"&amp;I33)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-P7Cav:Cell5WdT-Mon</v>
       </c>
       <c r="K33" s="15"/>
@@ -39913,7 +39985,7 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U33" s="18"/>
     </row>
@@ -39922,7 +39994,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>242</v>
@@ -39940,13 +40012,13 @@
         <v>26</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="15" t="str">
-        <f>IF(G34="-",C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;":"&amp;H34&amp;"-"&amp;I34,C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;"-"&amp;G34&amp;":"&amp;H34&amp;"-"&amp;I34)</f>
+        <f t="shared" ref="J34:J65" si="1">IF(G34="-",C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;":"&amp;H34&amp;"-"&amp;I34,C34&amp;"-"&amp;D34&amp;":"&amp;E34&amp;"-"&amp;F34&amp;"-"&amp;G34&amp;":"&amp;H34&amp;"-"&amp;I34)</f>
         <v>SI-02SB:RF-P7Cav:Cell6WdT-Mon</v>
       </c>
       <c r="K34" s="15"/>
@@ -39959,7 +40031,7 @@
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U34" s="18"/>
     </row>
@@ -39968,7 +40040,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>242</v>
@@ -39986,13 +40058,13 @@
         <v>26</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="15" t="str">
-        <f>IF(G35="-",C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;":"&amp;H35&amp;"-"&amp;I35,C35&amp;"-"&amp;D35&amp;":"&amp;E35&amp;"-"&amp;F35&amp;"-"&amp;G35&amp;":"&amp;H35&amp;"-"&amp;I35)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Cell7WdT-Mon</v>
       </c>
       <c r="K35" s="15"/>
@@ -40005,7 +40077,7 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
       <c r="T35" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U35" s="18"/>
     </row>
@@ -40014,7 +40086,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>242</v>
@@ -40032,13 +40104,13 @@
         <v>26</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="15" t="str">
-        <f>IF(G36="-",C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;":"&amp;H36&amp;"-"&amp;I36,C36&amp;"-"&amp;D36&amp;":"&amp;E36&amp;"-"&amp;F36&amp;"-"&amp;G36&amp;":"&amp;H36&amp;"-"&amp;I36)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Disc1FlwRt-Mon</v>
       </c>
       <c r="K36" s="15"/>
@@ -40051,7 +40123,7 @@
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U36" s="18"/>
     </row>
@@ -40060,7 +40132,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>242</v>
@@ -40078,13 +40150,13 @@
         <v>26</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="15" t="str">
-        <f>IF(G37="-",C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;":"&amp;H37&amp;"-"&amp;I37,C37&amp;"-"&amp;D37&amp;":"&amp;E37&amp;"-"&amp;F37&amp;"-"&amp;G37&amp;":"&amp;H37&amp;"-"&amp;I37)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Disc2FlwRt-Mon</v>
       </c>
       <c r="K37" s="15"/>
@@ -40097,7 +40169,7 @@
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
       <c r="T37" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U37" s="18"/>
     </row>
@@ -40106,7 +40178,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>242</v>
@@ -40124,13 +40196,13 @@
         <v>26</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J38" s="15" t="str">
-        <f>IF(G38="-",C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;":"&amp;H38&amp;"-"&amp;I38,C38&amp;"-"&amp;D38&amp;":"&amp;E38&amp;"-"&amp;F38&amp;"-"&amp;G38&amp;":"&amp;H38&amp;"-"&amp;I38)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Disc3FlwRt-Mon</v>
       </c>
       <c r="K38" s="15"/>
@@ -40143,7 +40215,7 @@
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U38" s="18"/>
     </row>
@@ -40152,7 +40224,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>242</v>
@@ -40170,13 +40242,13 @@
         <v>26</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>28</v>
       </c>
       <c r="J39" s="22" t="str">
-        <f>IF(G39="-",C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;":"&amp;H39&amp;"-"&amp;I39,C39&amp;"-"&amp;D39&amp;":"&amp;E39&amp;"-"&amp;F39&amp;"-"&amp;G39&amp;":"&amp;H39&amp;"-"&amp;I39)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Disc4FlwRt-Mon</v>
       </c>
       <c r="K39" s="22"/>
@@ -40189,7 +40261,7 @@
       <c r="R39" s="23"/>
       <c r="S39" s="23"/>
       <c r="T39" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U39" s="24"/>
     </row>
@@ -40198,7 +40270,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>242</v>
@@ -40216,13 +40288,13 @@
         <v>26</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J40" s="15" t="str">
-        <f>IF(G40="-",C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;":"&amp;H40&amp;"-"&amp;I40,C40&amp;"-"&amp;D40&amp;":"&amp;E40&amp;"-"&amp;F40&amp;"-"&amp;G40&amp;":"&amp;H40&amp;"-"&amp;I40)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Disc5FlwRt-Mon</v>
       </c>
       <c r="K40" s="15"/>
@@ -40235,7 +40307,7 @@
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U40" s="18"/>
     </row>
@@ -40244,7 +40316,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>242</v>
@@ -40262,13 +40334,13 @@
         <v>26</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J41" s="15" t="str">
-        <f>IF(G41="-",C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;":"&amp;H41&amp;"-"&amp;I41,C41&amp;"-"&amp;D41&amp;":"&amp;E41&amp;"-"&amp;F41&amp;"-"&amp;G41&amp;":"&amp;H41&amp;"-"&amp;I41)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:DIsc6FlwRt-Mon</v>
       </c>
       <c r="K41" s="15"/>
@@ -40281,7 +40353,7 @@
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
       <c r="T41" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U41" s="18"/>
     </row>
@@ -40290,7 +40362,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>242</v>
@@ -40308,13 +40380,13 @@
         <v>26</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J42" s="15" t="str">
-        <f>IF(G42="-",C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;":"&amp;H42&amp;"-"&amp;I42,C42&amp;"-"&amp;D42&amp;":"&amp;E42&amp;"-"&amp;F42&amp;"-"&amp;G42&amp;":"&amp;H42&amp;"-"&amp;I42)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:DIsc7FlwRt-Mon</v>
       </c>
       <c r="K42" s="15"/>
@@ -40327,7 +40399,7 @@
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
       <c r="T42" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U42" s="18"/>
     </row>
@@ -40336,7 +40408,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>242</v>
@@ -40354,13 +40426,13 @@
         <v>26</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J43" s="15" t="str">
-        <f>IF(G43="-",C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;":"&amp;H43&amp;"-"&amp;I43,C43&amp;"-"&amp;D43&amp;":"&amp;E43&amp;"-"&amp;F43&amp;"-"&amp;G43&amp;":"&amp;H43&amp;"-"&amp;I43)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Disc8FlwRt-Mon</v>
       </c>
       <c r="K43" s="15"/>
@@ -40373,7 +40445,7 @@
       <c r="R43" s="16"/>
       <c r="S43" s="16"/>
       <c r="T43" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U43" s="18"/>
     </row>
@@ -40382,7 +40454,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>242</v>
@@ -40400,13 +40472,13 @@
         <v>26</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J44" s="15" t="str">
-        <f>IF(G44="-",C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;":"&amp;H44&amp;"-"&amp;I44,C44&amp;"-"&amp;D44&amp;":"&amp;E44&amp;"-"&amp;F44&amp;"-"&amp;G44&amp;":"&amp;H44&amp;"-"&amp;I44)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Cell1FlwRt-Mon</v>
       </c>
       <c r="K44" s="15"/>
@@ -40419,7 +40491,7 @@
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
       <c r="T44" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U44" s="18"/>
     </row>
@@ -40428,7 +40500,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>242</v>
@@ -40446,13 +40518,13 @@
         <v>26</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J45" s="15" t="str">
-        <f>IF(G45="-",C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;":"&amp;H45&amp;"-"&amp;I45,C45&amp;"-"&amp;D45&amp;":"&amp;E45&amp;"-"&amp;F45&amp;"-"&amp;G45&amp;":"&amp;H45&amp;"-"&amp;I45)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Cell2FlwRt-Mon</v>
       </c>
       <c r="K45" s="15"/>
@@ -40465,7 +40537,7 @@
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
       <c r="T45" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U45" s="18"/>
     </row>
@@ -40474,7 +40546,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>242</v>
@@ -40492,13 +40564,13 @@
         <v>26</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J46" s="15" t="str">
-        <f>IF(G46="-",C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;":"&amp;H46&amp;"-"&amp;I46,C46&amp;"-"&amp;D46&amp;":"&amp;E46&amp;"-"&amp;F46&amp;"-"&amp;G46&amp;":"&amp;H46&amp;"-"&amp;I46)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Cell3FlwRt-Mon</v>
       </c>
       <c r="K46" s="15"/>
@@ -40511,7 +40583,7 @@
       <c r="R46" s="16"/>
       <c r="S46" s="16"/>
       <c r="T46" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U46" s="18"/>
     </row>
@@ -40520,7 +40592,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>242</v>
@@ -40538,13 +40610,13 @@
         <v>26</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J47" s="15" t="str">
-        <f>IF(G47="-",C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;":"&amp;H47&amp;"-"&amp;I47,C47&amp;"-"&amp;D47&amp;":"&amp;E47&amp;"-"&amp;F47&amp;"-"&amp;G47&amp;":"&amp;H47&amp;"-"&amp;I47)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Cell4FlwRt-Mon</v>
       </c>
       <c r="K47" s="15"/>
@@ -40557,7 +40629,7 @@
       <c r="R47" s="16"/>
       <c r="S47" s="16"/>
       <c r="T47" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U47" s="18"/>
     </row>
@@ -40566,7 +40638,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>242</v>
@@ -40584,13 +40656,13 @@
         <v>26</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="I48" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J48" s="15" t="str">
-        <f>IF(G48="-",C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;":"&amp;H48&amp;"-"&amp;I48,C48&amp;"-"&amp;D48&amp;":"&amp;E48&amp;"-"&amp;F48&amp;"-"&amp;G48&amp;":"&amp;H48&amp;"-"&amp;I48)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Cell5FlwRt-Mon</v>
       </c>
       <c r="K48" s="15"/>
@@ -40603,7 +40675,7 @@
       <c r="R48" s="16"/>
       <c r="S48" s="16"/>
       <c r="T48" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U48" s="18"/>
     </row>
@@ -40612,7 +40684,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>242</v>
@@ -40630,13 +40702,13 @@
         <v>26</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J49" s="15" t="str">
-        <f>IF(G49="-",C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;":"&amp;H49&amp;"-"&amp;I49,C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;"-"&amp;G49&amp;":"&amp;H49&amp;"-"&amp;I49)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Cell6FlwRt-Mon</v>
       </c>
       <c r="K49" s="15"/>
@@ -40649,7 +40721,7 @@
       <c r="R49" s="16"/>
       <c r="S49" s="16"/>
       <c r="T49" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U49" s="18"/>
     </row>
@@ -40658,7 +40730,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>242</v>
@@ -40676,13 +40748,13 @@
         <v>26</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J50" s="15" t="str">
-        <f>IF(G50="-",C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;":"&amp;H50&amp;"-"&amp;I50,C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;"-"&amp;G50&amp;":"&amp;H50&amp;"-"&amp;I50)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:Cell7FlwRt-Mon</v>
       </c>
       <c r="K50" s="15"/>
@@ -40695,7 +40767,7 @@
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
       <c r="T50" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U50" s="18"/>
     </row>
@@ -40704,7 +40776,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>242</v>
@@ -40722,13 +40794,13 @@
         <v>26</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J51" s="15" t="str">
-        <f>IF(G51="-",C51&amp;"-"&amp;D51&amp;":"&amp;E51&amp;"-"&amp;F51&amp;":"&amp;H51&amp;"-"&amp;I51,C51&amp;"-"&amp;D51&amp;":"&amp;E51&amp;"-"&amp;F51&amp;"-"&amp;G51&amp;":"&amp;H51&amp;"-"&amp;I51)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissDisc1-Mon</v>
       </c>
       <c r="K51" s="15"/>
@@ -40741,7 +40813,7 @@
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
       <c r="T51" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U51" s="18"/>
     </row>
@@ -40750,7 +40822,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>242</v>
@@ -40768,13 +40840,13 @@
         <v>26</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J52" s="15" t="str">
-        <f>IF(G52="-",C52&amp;"-"&amp;D52&amp;":"&amp;E52&amp;"-"&amp;F52&amp;":"&amp;H52&amp;"-"&amp;I52,C52&amp;"-"&amp;D52&amp;":"&amp;E52&amp;"-"&amp;F52&amp;"-"&amp;G52&amp;":"&amp;H52&amp;"-"&amp;I52)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissDisc2-Mon</v>
       </c>
       <c r="K52" s="15"/>
@@ -40787,7 +40859,7 @@
       <c r="R52" s="16"/>
       <c r="S52" s="16"/>
       <c r="T52" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U52" s="18"/>
     </row>
@@ -40796,7 +40868,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>242</v>
@@ -40814,13 +40886,13 @@
         <v>26</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J53" s="15" t="str">
-        <f>IF(G53="-",C53&amp;"-"&amp;D53&amp;":"&amp;E53&amp;"-"&amp;F53&amp;":"&amp;H53&amp;"-"&amp;I53,C53&amp;"-"&amp;D53&amp;":"&amp;E53&amp;"-"&amp;F53&amp;"-"&amp;G53&amp;":"&amp;H53&amp;"-"&amp;I53)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissDisc3-Mon</v>
       </c>
       <c r="K53" s="15"/>
@@ -40833,7 +40905,7 @@
       <c r="R53" s="16"/>
       <c r="S53" s="16"/>
       <c r="T53" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U53" s="18"/>
     </row>
@@ -40842,7 +40914,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>242</v>
@@ -40860,13 +40932,13 @@
         <v>26</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I54" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J54" s="15" t="str">
-        <f>IF(G54="-",C54&amp;"-"&amp;D54&amp;":"&amp;E54&amp;"-"&amp;F54&amp;":"&amp;H54&amp;"-"&amp;I54,C54&amp;"-"&amp;D54&amp;":"&amp;E54&amp;"-"&amp;F54&amp;"-"&amp;G54&amp;":"&amp;H54&amp;"-"&amp;I54)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissDisc4-Mon</v>
       </c>
       <c r="K54" s="15"/>
@@ -40879,7 +40951,7 @@
       <c r="R54" s="16"/>
       <c r="S54" s="16"/>
       <c r="T54" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U54" s="18"/>
     </row>
@@ -40888,7 +40960,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>242</v>
@@ -40906,13 +40978,13 @@
         <v>26</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J55" s="15" t="str">
-        <f>IF(G55="-",C55&amp;"-"&amp;D55&amp;":"&amp;E55&amp;"-"&amp;F55&amp;":"&amp;H55&amp;"-"&amp;I55,C55&amp;"-"&amp;D55&amp;":"&amp;E55&amp;"-"&amp;F55&amp;"-"&amp;G55&amp;":"&amp;H55&amp;"-"&amp;I55)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissDisc5-Mon</v>
       </c>
       <c r="K55" s="15"/>
@@ -40925,7 +40997,7 @@
       <c r="R55" s="16"/>
       <c r="S55" s="16"/>
       <c r="T55" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U55" s="18"/>
     </row>
@@ -40934,7 +41006,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>242</v>
@@ -40952,13 +41024,13 @@
         <v>26</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J56" s="15" t="str">
-        <f>IF(G56="-",C56&amp;"-"&amp;D56&amp;":"&amp;E56&amp;"-"&amp;F56&amp;":"&amp;H56&amp;"-"&amp;I56,C56&amp;"-"&amp;D56&amp;":"&amp;E56&amp;"-"&amp;F56&amp;"-"&amp;G56&amp;":"&amp;H56&amp;"-"&amp;I56)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissDIsc6-Mon</v>
       </c>
       <c r="K56" s="15"/>
@@ -40971,7 +41043,7 @@
       <c r="R56" s="16"/>
       <c r="S56" s="16"/>
       <c r="T56" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U56" s="18"/>
     </row>
@@ -40980,7 +41052,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>242</v>
@@ -40998,13 +41070,13 @@
         <v>26</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="I57" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J57" s="15" t="str">
-        <f>IF(G57="-",C57&amp;"-"&amp;D57&amp;":"&amp;E57&amp;"-"&amp;F57&amp;":"&amp;H57&amp;"-"&amp;I57,C57&amp;"-"&amp;D57&amp;":"&amp;E57&amp;"-"&amp;F57&amp;"-"&amp;G57&amp;":"&amp;H57&amp;"-"&amp;I57)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissDIsc7-Mon</v>
       </c>
       <c r="K57" s="15"/>
@@ -41017,7 +41089,7 @@
       <c r="R57" s="16"/>
       <c r="S57" s="16"/>
       <c r="T57" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U57" s="18"/>
     </row>
@@ -41026,7 +41098,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>242</v>
@@ -41044,13 +41116,13 @@
         <v>26</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J58" s="15" t="str">
-        <f>IF(G58="-",C58&amp;"-"&amp;D58&amp;":"&amp;E58&amp;"-"&amp;F58&amp;":"&amp;H58&amp;"-"&amp;I58,C58&amp;"-"&amp;D58&amp;":"&amp;E58&amp;"-"&amp;F58&amp;"-"&amp;G58&amp;":"&amp;H58&amp;"-"&amp;I58)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissDisc8-Mon</v>
       </c>
       <c r="K58" s="15"/>
@@ -41063,7 +41135,7 @@
       <c r="R58" s="16"/>
       <c r="S58" s="16"/>
       <c r="T58" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U58" s="18"/>
     </row>
@@ -41072,7 +41144,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>242</v>
@@ -41090,13 +41162,13 @@
         <v>26</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J59" s="15" t="str">
-        <f>IF(G59="-",C59&amp;"-"&amp;D59&amp;":"&amp;E59&amp;"-"&amp;F59&amp;":"&amp;H59&amp;"-"&amp;I59,C59&amp;"-"&amp;D59&amp;":"&amp;E59&amp;"-"&amp;F59&amp;"-"&amp;G59&amp;":"&amp;H59&amp;"-"&amp;I59)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissCell1-Mon</v>
       </c>
       <c r="K59" s="15"/>
@@ -41109,7 +41181,7 @@
       <c r="R59" s="16"/>
       <c r="S59" s="16"/>
       <c r="T59" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U59" s="18"/>
     </row>
@@ -41118,7 +41190,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>242</v>
@@ -41136,13 +41208,13 @@
         <v>26</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="I60" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J60" s="15" t="str">
-        <f>IF(G60="-",C60&amp;"-"&amp;D60&amp;":"&amp;E60&amp;"-"&amp;F60&amp;":"&amp;H60&amp;"-"&amp;I60,C60&amp;"-"&amp;D60&amp;":"&amp;E60&amp;"-"&amp;F60&amp;"-"&amp;G60&amp;":"&amp;H60&amp;"-"&amp;I60)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissCell2-Mon</v>
       </c>
       <c r="K60" s="15"/>
@@ -41155,7 +41227,7 @@
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
       <c r="T60" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U60" s="18"/>
     </row>
@@ -41164,7 +41236,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>242</v>
@@ -41182,13 +41254,13 @@
         <v>26</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J61" s="15" t="str">
-        <f>IF(G61="-",C61&amp;"-"&amp;D61&amp;":"&amp;E61&amp;"-"&amp;F61&amp;":"&amp;H61&amp;"-"&amp;I61,C61&amp;"-"&amp;D61&amp;":"&amp;E61&amp;"-"&amp;F61&amp;"-"&amp;G61&amp;":"&amp;H61&amp;"-"&amp;I61)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissCell3-Mon</v>
       </c>
       <c r="K61" s="15"/>
@@ -41201,7 +41273,7 @@
       <c r="R61" s="16"/>
       <c r="S61" s="16"/>
       <c r="T61" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U61" s="18"/>
     </row>
@@ -41210,7 +41282,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>242</v>
@@ -41228,13 +41300,13 @@
         <v>26</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I62" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J62" s="15" t="str">
-        <f>IF(G62="-",C62&amp;"-"&amp;D62&amp;":"&amp;E62&amp;"-"&amp;F62&amp;":"&amp;H62&amp;"-"&amp;I62,C62&amp;"-"&amp;D62&amp;":"&amp;E62&amp;"-"&amp;F62&amp;"-"&amp;G62&amp;":"&amp;H62&amp;"-"&amp;I62)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissCell4-Mon</v>
       </c>
       <c r="K62" s="15"/>
@@ -41247,7 +41319,7 @@
       <c r="R62" s="16"/>
       <c r="S62" s="16"/>
       <c r="T62" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U62" s="18"/>
     </row>
@@ -41256,7 +41328,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>242</v>
@@ -41274,13 +41346,13 @@
         <v>26</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="I63" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J63" s="15" t="str">
-        <f>IF(G63="-",C63&amp;"-"&amp;D63&amp;":"&amp;E63&amp;"-"&amp;F63&amp;":"&amp;H63&amp;"-"&amp;I63,C63&amp;"-"&amp;D63&amp;":"&amp;E63&amp;"-"&amp;F63&amp;"-"&amp;G63&amp;":"&amp;H63&amp;"-"&amp;I63)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissCell5-Mon</v>
       </c>
       <c r="K63" s="15"/>
@@ -41293,7 +41365,7 @@
       <c r="R63" s="16"/>
       <c r="S63" s="16"/>
       <c r="T63" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U63" s="18"/>
     </row>
@@ -41302,7 +41374,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>242</v>
@@ -41320,13 +41392,13 @@
         <v>26</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="I64" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J64" s="15" t="str">
-        <f>IF(G64="-",C64&amp;"-"&amp;D64&amp;":"&amp;E64&amp;"-"&amp;F64&amp;":"&amp;H64&amp;"-"&amp;I64,C64&amp;"-"&amp;D64&amp;":"&amp;E64&amp;"-"&amp;F64&amp;"-"&amp;G64&amp;":"&amp;H64&amp;"-"&amp;I64)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissCell6-Mon</v>
       </c>
       <c r="K64" s="15"/>
@@ -41339,7 +41411,7 @@
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
       <c r="T64" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U64" s="18"/>
     </row>
@@ -41348,7 +41420,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>242</v>
@@ -41366,13 +41438,13 @@
         <v>26</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="I65" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J65" s="15" t="str">
-        <f>IF(G65="-",C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;":"&amp;H65&amp;"-"&amp;I65,C65&amp;"-"&amp;D65&amp;":"&amp;E65&amp;"-"&amp;F65&amp;"-"&amp;G65&amp;":"&amp;H65&amp;"-"&amp;I65)</f>
+        <f t="shared" si="1"/>
         <v>SI-02SB:RF-P7Cav:PwrDissCell7-Mon</v>
       </c>
       <c r="K65" s="15"/>
@@ -41385,7 +41457,7 @@
       <c r="R65" s="16"/>
       <c r="S65" s="16"/>
       <c r="T65" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U65" s="18"/>
     </row>
@@ -41394,7 +41466,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>242</v>
@@ -41412,13 +41484,13 @@
         <v>26</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I66" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J66" s="15" t="str">
-        <f>IF(G66="-",C66&amp;"-"&amp;D66&amp;":"&amp;E66&amp;"-"&amp;F66&amp;":"&amp;H66&amp;"-"&amp;I66,C66&amp;"-"&amp;D66&amp;":"&amp;E66&amp;"-"&amp;F66&amp;"-"&amp;G66&amp;":"&amp;H66&amp;"-"&amp;I66)</f>
+        <f t="shared" ref="J66:J81" si="2">IF(G66="-",C66&amp;"-"&amp;D66&amp;":"&amp;E66&amp;"-"&amp;F66&amp;":"&amp;H66&amp;"-"&amp;I66,C66&amp;"-"&amp;D66&amp;":"&amp;E66&amp;"-"&amp;F66&amp;"-"&amp;G66&amp;":"&amp;H66&amp;"-"&amp;I66)</f>
         <v>SI-02SB:RF-P7Cav:PwrWtCell1-Mon</v>
       </c>
       <c r="K66" s="15"/>
@@ -41431,7 +41503,7 @@
       <c r="R66" s="16"/>
       <c r="S66" s="16"/>
       <c r="T66" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U66" s="18"/>
     </row>
@@ -41440,7 +41512,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>242</v>
@@ -41458,13 +41530,13 @@
         <v>26</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="I67" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J67" s="15" t="str">
-        <f>IF(G67="-",C67&amp;"-"&amp;D67&amp;":"&amp;E67&amp;"-"&amp;F67&amp;":"&amp;H67&amp;"-"&amp;I67,C67&amp;"-"&amp;D67&amp;":"&amp;E67&amp;"-"&amp;F67&amp;"-"&amp;G67&amp;":"&amp;H67&amp;"-"&amp;I67)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:PwrWtCell2-Mon</v>
       </c>
       <c r="K67" s="15"/>
@@ -41477,7 +41549,7 @@
       <c r="R67" s="16"/>
       <c r="S67" s="16"/>
       <c r="T67" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U67" s="18"/>
     </row>
@@ -41486,7 +41558,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>242</v>
@@ -41504,13 +41576,13 @@
         <v>26</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="I68" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J68" s="15" t="str">
-        <f>IF(G68="-",C68&amp;"-"&amp;D68&amp;":"&amp;E68&amp;"-"&amp;F68&amp;":"&amp;H68&amp;"-"&amp;I68,C68&amp;"-"&amp;D68&amp;":"&amp;E68&amp;"-"&amp;F68&amp;"-"&amp;G68&amp;":"&amp;H68&amp;"-"&amp;I68)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:PwrWtCell3-Mon</v>
       </c>
       <c r="K68" s="15"/>
@@ -41523,7 +41595,7 @@
       <c r="R68" s="16"/>
       <c r="S68" s="16"/>
       <c r="T68" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U68" s="18"/>
     </row>
@@ -41532,7 +41604,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>242</v>
@@ -41550,13 +41622,13 @@
         <v>26</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="I69" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J69" s="15" t="str">
-        <f>IF(G69="-",C69&amp;"-"&amp;D69&amp;":"&amp;E69&amp;"-"&amp;F69&amp;":"&amp;H69&amp;"-"&amp;I69,C69&amp;"-"&amp;D69&amp;":"&amp;E69&amp;"-"&amp;F69&amp;"-"&amp;G69&amp;":"&amp;H69&amp;"-"&amp;I69)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:PwrWtCell4-Mon</v>
       </c>
       <c r="K69" s="15"/>
@@ -41569,7 +41641,7 @@
       <c r="R69" s="16"/>
       <c r="S69" s="16"/>
       <c r="T69" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U69" s="18"/>
     </row>
@@ -41578,7 +41650,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>242</v>
@@ -41596,13 +41668,13 @@
         <v>26</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="I70" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J70" s="15" t="str">
-        <f>IF(G70="-",C70&amp;"-"&amp;D70&amp;":"&amp;E70&amp;"-"&amp;F70&amp;":"&amp;H70&amp;"-"&amp;I70,C70&amp;"-"&amp;D70&amp;":"&amp;E70&amp;"-"&amp;F70&amp;"-"&amp;G70&amp;":"&amp;H70&amp;"-"&amp;I70)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:PwrWtCell5-Mon</v>
       </c>
       <c r="K70" s="15"/>
@@ -41615,7 +41687,7 @@
       <c r="R70" s="16"/>
       <c r="S70" s="16"/>
       <c r="T70" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U70" s="18"/>
     </row>
@@ -41624,7 +41696,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>242</v>
@@ -41642,13 +41714,13 @@
         <v>26</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="I71" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J71" s="15" t="str">
-        <f>IF(G71="-",C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;":"&amp;H71&amp;"-"&amp;I71,C71&amp;"-"&amp;D71&amp;":"&amp;E71&amp;"-"&amp;F71&amp;"-"&amp;G71&amp;":"&amp;H71&amp;"-"&amp;I71)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:PwrWtCell6-Mon</v>
       </c>
       <c r="K71" s="15"/>
@@ -41661,7 +41733,7 @@
       <c r="R71" s="16"/>
       <c r="S71" s="16"/>
       <c r="T71" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U71" s="18"/>
     </row>
@@ -41670,7 +41742,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>242</v>
@@ -41688,13 +41760,13 @@
         <v>26</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="I72" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J72" s="15" t="str">
-        <f>IF(G72="-",C72&amp;"-"&amp;D72&amp;":"&amp;E72&amp;"-"&amp;F72&amp;":"&amp;H72&amp;"-"&amp;I72,C72&amp;"-"&amp;D72&amp;":"&amp;E72&amp;"-"&amp;F72&amp;"-"&amp;G72&amp;":"&amp;H72&amp;"-"&amp;I72)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:PwrWtCell7-Mon</v>
       </c>
       <c r="K72" s="15"/>
@@ -41707,7 +41779,7 @@
       <c r="R72" s="16"/>
       <c r="S72" s="16"/>
       <c r="T72" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U72" s="18"/>
     </row>
@@ -41716,7 +41788,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>242</v>
@@ -41734,13 +41806,13 @@
         <v>26</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="I73" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J73" s="15" t="str">
-        <f>IF(G73="-",C73&amp;"-"&amp;D73&amp;":"&amp;E73&amp;"-"&amp;F73&amp;":"&amp;H73&amp;"-"&amp;I73,C73&amp;"-"&amp;D73&amp;":"&amp;E73&amp;"-"&amp;F73&amp;"-"&amp;G73&amp;":"&amp;H73&amp;"-"&amp;I73)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:PwrWtTotal-Mon</v>
       </c>
       <c r="K73" s="15"/>
@@ -41753,7 +41825,7 @@
       <c r="R73" s="16"/>
       <c r="S73" s="16"/>
       <c r="T73" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U73" s="18"/>
     </row>
@@ -41762,7 +41834,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>242</v>
@@ -41780,13 +41852,13 @@
         <v>26</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="I74" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J74" s="15" t="str">
-        <f>IF(G74="-",C74&amp;"-"&amp;D74&amp;":"&amp;E74&amp;"-"&amp;F74&amp;":"&amp;H74&amp;"-"&amp;I74,C74&amp;"-"&amp;D74&amp;":"&amp;E74&amp;"-"&amp;F74&amp;"-"&amp;G74&amp;":"&amp;H74&amp;"-"&amp;I74)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:PwrWtTotaldBm-Mon</v>
       </c>
       <c r="K74" s="15"/>
@@ -41799,7 +41871,7 @@
       <c r="R74" s="16"/>
       <c r="S74" s="16"/>
       <c r="T74" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U74" s="18"/>
     </row>
@@ -41808,7 +41880,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>242</v>
@@ -41826,13 +41898,13 @@
         <v>26</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="I75" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J75" s="15" t="str">
-        <f>IF(G75="-",C75&amp;"-"&amp;D75&amp;":"&amp;E75&amp;"-"&amp;F75&amp;":"&amp;H75&amp;"-"&amp;I75,C75&amp;"-"&amp;D75&amp;":"&amp;E75&amp;"-"&amp;F75&amp;"-"&amp;G75&amp;":"&amp;H75&amp;"-"&amp;I75)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:VrCell1-Mon</v>
       </c>
       <c r="K75" s="15"/>
@@ -41845,7 +41917,7 @@
       <c r="R75" s="16"/>
       <c r="S75" s="16"/>
       <c r="T75" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U75" s="18"/>
     </row>
@@ -41854,7 +41926,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>242</v>
@@ -41872,13 +41944,13 @@
         <v>26</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="I76" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J76" s="15" t="str">
-        <f>IF(G76="-",C76&amp;"-"&amp;D76&amp;":"&amp;E76&amp;"-"&amp;F76&amp;":"&amp;H76&amp;"-"&amp;I76,C76&amp;"-"&amp;D76&amp;":"&amp;E76&amp;"-"&amp;F76&amp;"-"&amp;G76&amp;":"&amp;H76&amp;"-"&amp;I76)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:VrCell2-Mon</v>
       </c>
       <c r="K76" s="15"/>
@@ -41891,7 +41963,7 @@
       <c r="R76" s="16"/>
       <c r="S76" s="16"/>
       <c r="T76" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U76" s="18"/>
     </row>
@@ -41900,7 +41972,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>242</v>
@@ -41918,13 +41990,13 @@
         <v>26</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="I77" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J77" s="15" t="str">
-        <f>IF(G77="-",C77&amp;"-"&amp;D77&amp;":"&amp;E77&amp;"-"&amp;F77&amp;":"&amp;H77&amp;"-"&amp;I77,C77&amp;"-"&amp;D77&amp;":"&amp;E77&amp;"-"&amp;F77&amp;"-"&amp;G77&amp;":"&amp;H77&amp;"-"&amp;I77)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:VrCell3-Mon</v>
       </c>
       <c r="K77" s="15"/>
@@ -41937,7 +42009,7 @@
       <c r="R77" s="16"/>
       <c r="S77" s="16"/>
       <c r="T77" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U77" s="18"/>
     </row>
@@ -41946,7 +42018,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>242</v>
@@ -41964,13 +42036,13 @@
         <v>26</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="I78" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J78" s="15" t="str">
-        <f>IF(G78="-",C78&amp;"-"&amp;D78&amp;":"&amp;E78&amp;"-"&amp;F78&amp;":"&amp;H78&amp;"-"&amp;I78,C78&amp;"-"&amp;D78&amp;":"&amp;E78&amp;"-"&amp;F78&amp;"-"&amp;G78&amp;":"&amp;H78&amp;"-"&amp;I78)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:VrCell4-Mon</v>
       </c>
       <c r="K78" s="15"/>
@@ -41983,7 +42055,7 @@
       <c r="R78" s="16"/>
       <c r="S78" s="16"/>
       <c r="T78" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U78" s="18"/>
     </row>
@@ -41992,7 +42064,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>242</v>
@@ -42010,13 +42082,13 @@
         <v>26</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="I79" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J79" s="15" t="str">
-        <f>IF(G79="-",C79&amp;"-"&amp;D79&amp;":"&amp;E79&amp;"-"&amp;F79&amp;":"&amp;H79&amp;"-"&amp;I79,C79&amp;"-"&amp;D79&amp;":"&amp;E79&amp;"-"&amp;F79&amp;"-"&amp;G79&amp;":"&amp;H79&amp;"-"&amp;I79)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:VrCell5-Mon</v>
       </c>
       <c r="K79" s="15"/>
@@ -42029,7 +42101,7 @@
       <c r="R79" s="16"/>
       <c r="S79" s="16"/>
       <c r="T79" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U79" s="18"/>
     </row>
@@ -42038,7 +42110,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>242</v>
@@ -42056,13 +42128,13 @@
         <v>26</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="I80" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J80" s="15" t="str">
-        <f>IF(G80="-",C80&amp;"-"&amp;D80&amp;":"&amp;E80&amp;"-"&amp;F80&amp;":"&amp;H80&amp;"-"&amp;I80,C80&amp;"-"&amp;D80&amp;":"&amp;E80&amp;"-"&amp;F80&amp;"-"&amp;G80&amp;":"&amp;H80&amp;"-"&amp;I80)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:VrCell6-Mon</v>
       </c>
       <c r="K80" s="15"/>
@@ -42075,7 +42147,7 @@
       <c r="R80" s="16"/>
       <c r="S80" s="16"/>
       <c r="T80" s="16" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U80" s="18"/>
     </row>
@@ -42084,7 +42156,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>242</v>
@@ -42102,13 +42174,13 @@
         <v>26</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="I81" s="21" t="s">
         <v>28</v>
       </c>
       <c r="J81" s="22" t="str">
-        <f>IF(G81="-",C81&amp;"-"&amp;D81&amp;":"&amp;E81&amp;"-"&amp;F81&amp;":"&amp;H81&amp;"-"&amp;I81,C81&amp;"-"&amp;D81&amp;":"&amp;E81&amp;"-"&amp;F81&amp;"-"&amp;G81&amp;":"&amp;H81&amp;"-"&amp;I81)</f>
+        <f t="shared" si="2"/>
         <v>SI-02SB:RF-P7Cav:VrCell7-Mon</v>
       </c>
       <c r="K81" s="22"/>
@@ -42121,7 +42193,7 @@
       <c r="R81" s="23"/>
       <c r="S81" s="23"/>
       <c r="T81" s="23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="U81" s="24"/>
     </row>
@@ -42137,8 +42209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC2DBB1-5D49-469C-81C7-E7BFC2EB4E9C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42229,7 +42301,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>22</v>
@@ -42241,25 +42313,25 @@
         <v>24</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="36" t="str">
-        <f>IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"-"&amp;I2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"-"&amp;I2)</f>
+        <f t="shared" ref="J2:J8" si="0">IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"-"&amp;I2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"-"&amp;I2)</f>
         <v>RA-RaSIA02:RF-IntlkCtrl:IntlkSirius-Mon</v>
       </c>
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
       <c r="M2" s="37" t="str">
-        <f>IF(G2="-",C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;H2&amp;""&amp;I2,C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;G2&amp;"_"&amp;H2&amp;""&amp;I2)</f>
+        <f t="shared" ref="M2:M8" si="1">IF(G2="-",C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;H2&amp;""&amp;I2,C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;G2&amp;"_"&amp;H2&amp;""&amp;I2)</f>
         <v>RA_RaSIA02_RF_IntlkCtrl_IntlkSiriusMon</v>
       </c>
       <c r="N2" s="37" t="s">
@@ -42285,7 +42357,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>22</v>
@@ -42297,25 +42369,25 @@
         <v>24</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="36" t="str">
-        <f>IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3&amp;"-"&amp;I3,C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3&amp;"-"&amp;I3)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA02:RF-IntlkCtrl:IntlkLLRF-Mon</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="37" t="str">
-        <f>IF(G3="-",C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;"_"&amp;H3&amp;""&amp;I3,C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;"_"&amp;G3&amp;"_"&amp;H3&amp;""&amp;I3)</f>
+        <f t="shared" si="1"/>
         <v>RA_RaSIA02_RF_IntlkCtrl_IntlkLLRFMon</v>
       </c>
       <c r="N3" s="37" t="s">
@@ -42341,7 +42413,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>22</v>
@@ -42353,25 +42425,25 @@
         <v>24</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="30" t="str">
-        <f>IF(G4="-",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;":"&amp;H4&amp;"-"&amp;I4,C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;G4&amp;":"&amp;H4&amp;"-"&amp;I4)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA02:RF-IntlkCtrl:EStop-Mon</v>
       </c>
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
       <c r="M4" s="31" t="str">
-        <f>IF(G4="-",C4&amp;"_"&amp;D4&amp;"_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;H4&amp;""&amp;I4,C4&amp;"_"&amp;D4&amp;"_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;G4&amp;"_"&amp;H4&amp;""&amp;I4)</f>
+        <f t="shared" si="1"/>
         <v>RA_RaSIA02_RF_IntlkCtrl_EStopMon</v>
       </c>
       <c r="N4" s="31" t="s">
@@ -42384,7 +42456,7 @@
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
       <c r="S4" s="31" t="str">
-        <f t="shared" ref="S4:S6" si="0">M4</f>
+        <f t="shared" ref="S4:S6" si="2">M4</f>
         <v>RA_RaSIA02_RF_IntlkCtrl_EStopMon</v>
       </c>
       <c r="T4" s="31" t="s">
@@ -42397,7 +42469,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>22</v>
@@ -42418,16 +42490,16 @@
         <v>334</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="J5" s="36" t="str">
-        <f>IF(G5="-",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;":"&amp;H5&amp;"-"&amp;I5,C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;"-"&amp;G5&amp;":"&amp;H5&amp;"-"&amp;I5)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA02:RF-Intlk:Reset-Cmd</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
       <c r="M5" s="37" t="str">
-        <f>IF(G5="-",C5&amp;"_"&amp;D5&amp;"_"&amp;E5&amp;"_"&amp;F5&amp;"_"&amp;H5&amp;""&amp;I5,C5&amp;"_"&amp;D5&amp;"_"&amp;E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;""&amp;I5)</f>
+        <f t="shared" si="1"/>
         <v>RA_RaSIA02_RF_Intlk_ResetCmd</v>
       </c>
       <c r="N5" s="37" t="s">
@@ -42440,7 +42512,7 @@
       <c r="Q5" s="37"/>
       <c r="R5" s="37"/>
       <c r="S5" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>RA_RaSIA02_RF_Intlk_ResetCmd</v>
       </c>
       <c r="T5" s="37" t="s">
@@ -42453,7 +42525,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>242</v>
@@ -42471,19 +42543,19 @@
         <v>26</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="36" t="str">
-        <f>IF(G6="-",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;":"&amp;H6&amp;"-"&amp;I6,C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;"-"&amp;G6&amp;":"&amp;H6&amp;"-"&amp;I6)</f>
+        <f t="shared" si="0"/>
         <v>SI-02SB:RF-Intlk:RFOn-Mon</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="37" t="str">
-        <f>IF(G6="-",C6&amp;"_"&amp;D6&amp;"_"&amp;E6&amp;"_"&amp;F6&amp;"_"&amp;H6&amp;""&amp;I6,C6&amp;"_"&amp;D6&amp;"_"&amp;E6&amp;"_"&amp;F6&amp;"_"&amp;G6&amp;"_"&amp;H6&amp;""&amp;I6)</f>
+        <f t="shared" si="1"/>
         <v>SI_02SB_RF_Intlk_RFOnMon</v>
       </c>
       <c r="N6" s="37" t="s">
@@ -42496,7 +42568,7 @@
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
       <c r="S6" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>SI_02SB_RF_Intlk_RFOnMon</v>
       </c>
       <c r="T6" s="37" t="s">
@@ -42509,37 +42581,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>34</v>
       </c>
       <c r="J7" s="30" t="str">
-        <f>IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7&amp;"-"&amp;I7,C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7&amp;"-"&amp;I7)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-CavPlDrivers:DrEnbl-Sel</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
       <c r="M7" s="31" t="str">
-        <f>IF(G7="-",C7&amp;"_"&amp;D7&amp;"_"&amp;E7&amp;"_"&amp;F7&amp;"_"&amp;H7&amp;""&amp;I7,C7&amp;"_"&amp;D7&amp;"_"&amp;E7&amp;"_"&amp;F7&amp;"_"&amp;G7&amp;"_"&amp;H7&amp;""&amp;I7)</f>
+        <f t="shared" si="1"/>
         <v>RA_RaSIA01_RF_CavPlDrivers_DrEnblSel</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -42565,37 +42637,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C8" s="69" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="I8" s="69" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="70" t="str">
-        <f>IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8&amp;"-"&amp;I8,C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8&amp;"-"&amp;I8)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-CavPlDrivers:DrEnbl-Sts</v>
       </c>
       <c r="K8" s="70"/>
       <c r="L8" s="70"/>
       <c r="M8" s="71" t="str">
-        <f>IF(G8="-",C8&amp;"_"&amp;D8&amp;"_"&amp;E8&amp;"_"&amp;F8&amp;"_"&amp;H8&amp;""&amp;I8,C8&amp;"_"&amp;D8&amp;"_"&amp;E8&amp;"_"&amp;F8&amp;"_"&amp;G8&amp;"_"&amp;H8&amp;""&amp;I8)</f>
+        <f t="shared" si="1"/>
         <v>RA_RaSIA01_RF_CavPlDrivers_DrEnblSts</v>
       </c>
       <c r="N8" s="71" t="s">
@@ -42628,8 +42700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A52F41C-E692-4BB3-8E5F-3C78FBFA71A0}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42716,108 +42788,110 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="66" customFormat="1">
-      <c r="A2" s="27">
+    <row r="2" spans="1:21" s="74" customFormat="1">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>616</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>612</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>617</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="E2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>621</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="30" t="str">
-        <f>IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"-"&amp;I2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"-"&amp;I2)</f>
+      <c r="I2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="36" t="str">
+        <f t="shared" ref="J2:J23" si="0">IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"-"&amp;I2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"-"&amp;I2)</f>
         <v>RA-RaSIA01:RF-LLRF:Intlk-Mon</v>
       </c>
-      <c r="K2" s="30" t="str">
-        <f>IF(OR(P2="",P2="N/A"),"N/A",IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"UpperLimit-Cte",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"UpperLimit-Cte"))</f>
-        <v>N/A</v>
-      </c>
-      <c r="L2" s="30" t="str">
-        <f>IF(OR(Q2="",Q2="N/A"),"N/A",IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"LowerLimit-Cte",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"LowerLimit-Cte"))</f>
-        <v>N/A</v>
-      </c>
-      <c r="M2" s="31" t="str">
-        <f>IF(G2="-",C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;H2&amp;""&amp;I2,C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;G2&amp;"_"&amp;H2&amp;""&amp;I2)</f>
+      <c r="K2" s="36" t="str">
+        <f t="shared" ref="K2:K23" si="1">IF(OR(P2="",P2="N/A"),"N/A",IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"UpperLimit-Cte",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"UpperLimit-Cte"))</f>
+        <v>N/A</v>
+      </c>
+      <c r="L2" s="36" t="str">
+        <f t="shared" ref="L2:L23" si="2">IF(OR(Q2="",Q2="N/A"),"N/A",IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"LowerLimit-Cte",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"LowerLimit-Cte"))</f>
+        <v>N/A</v>
+      </c>
+      <c r="M2" s="37" t="str">
+        <f t="shared" ref="M2:M23" si="3">IF(G2="-",C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;H2&amp;""&amp;I2,C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;G2&amp;"_"&amp;H2&amp;""&amp;I2)</f>
         <v>RA_RaSIA01_RF_LLRF_IntlkMon</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31" t="str">
-        <f>M2</f>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37" t="str">
+        <f t="shared" ref="S2:S23" si="4">M2</f>
         <v>RA_RaSIA01_RF_LLRF_IntlkMon</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32"/>
+      <c r="T2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="38"/>
     </row>
     <row r="3" spans="1:21" s="66" customFormat="1">
       <c r="A3" s="27">
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G3" s="29">
         <v>1</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="30" t="str">
-        <f>IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3&amp;"-"&amp;I3,C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3&amp;"-"&amp;I3)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:T1-Mon</v>
       </c>
       <c r="K3" s="30" t="str">
-        <f>IF(OR(P3="",P3="N/A"),"N/A",IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3&amp;"UpperLimit-Cte",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:T1UpperLimit-Cte</v>
       </c>
       <c r="L3" s="30" t="str">
-        <f>IF(OR(Q3="",Q3="N/A"),"N/A",IF(G3="-",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;":"&amp;H3&amp;"LowerLimit-Cte",C3&amp;"-"&amp;D3&amp;":"&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;G3&amp;":"&amp;H3&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M3" s="31" t="str">
-        <f>IF(G3="-",C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;"_"&amp;H3&amp;""&amp;I3,C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;"_"&amp;G3&amp;"_"&amp;H3&amp;""&amp;I3)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_T1Mon</v>
       </c>
       <c r="N3" s="71" t="s">
@@ -42827,7 +42901,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="Q3" s="31" t="s">
         <v>345</v>
@@ -42836,7 +42910,7 @@
         <v>51</v>
       </c>
       <c r="S3" s="31" t="str">
-        <f>M3</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_T1Mon</v>
       </c>
       <c r="T3" s="31" t="s">
@@ -42851,43 +42925,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G4" s="29">
         <v>1</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="30" t="str">
-        <f>IF(G4="-",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;":"&amp;H4&amp;"-"&amp;I4,C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;G4&amp;":"&amp;H4&amp;"-"&amp;I4)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:T2-Mon</v>
       </c>
       <c r="K4" s="30" t="str">
-        <f>IF(OR(P4="",P4="N/A"),"N/A",IF(G4="-",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;":"&amp;H4&amp;"UpperLimit-Cte",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;G4&amp;":"&amp;H4&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:T2UpperLimit-Cte</v>
       </c>
       <c r="L4" s="30" t="str">
-        <f>IF(OR(Q4="",Q4="N/A"),"N/A",IF(G4="-",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;":"&amp;H4&amp;"LowerLimit-Cte",C4&amp;"-"&amp;D4&amp;":"&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;G4&amp;":"&amp;H4&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M4" s="31" t="str">
-        <f>IF(G4="-",C4&amp;"_"&amp;D4&amp;"_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;H4&amp;""&amp;I4,C4&amp;"_"&amp;D4&amp;"_"&amp;E4&amp;"_"&amp;F4&amp;"_"&amp;G4&amp;"_"&amp;H4&amp;""&amp;I4)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_T2Mon</v>
       </c>
       <c r="N4" s="71" t="s">
@@ -42897,7 +42971,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="Q4" s="31" t="s">
         <v>345</v>
@@ -42906,7 +42980,7 @@
         <v>51</v>
       </c>
       <c r="S4" s="31" t="str">
-        <f>M4</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_T2Mon</v>
       </c>
       <c r="T4" s="31" t="s">
@@ -42921,43 +42995,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G5" s="29">
         <v>1</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="30" t="str">
-        <f>IF(G5="-",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;":"&amp;H5&amp;"-"&amp;I5,C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;"-"&amp;G5&amp;":"&amp;H5&amp;"-"&amp;I5)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:PINSw1-Mon</v>
       </c>
       <c r="K5" s="30" t="str">
-        <f>IF(OR(P5="",P5="N/A"),"N/A",IF(G5="-",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;":"&amp;H5&amp;"UpperLimit-Cte",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;"-"&amp;G5&amp;":"&amp;H5&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L5" s="30" t="str">
-        <f>IF(OR(Q5="",Q5="N/A"),"N/A",IF(G5="-",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;":"&amp;H5&amp;"LowerLimit-Cte",C5&amp;"-"&amp;D5&amp;":"&amp;E5&amp;"-"&amp;F5&amp;"-"&amp;G5&amp;":"&amp;H5&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M5" s="31" t="str">
-        <f>IF(G5="-",C5&amp;"_"&amp;D5&amp;"_"&amp;E5&amp;"_"&amp;F5&amp;"_"&amp;H5&amp;""&amp;I5,C5&amp;"_"&amp;D5&amp;"_"&amp;E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;""&amp;I5)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw1Mon</v>
       </c>
       <c r="N5" s="73" t="s">
@@ -42970,7 +43044,7 @@
       <c r="Q5" s="31"/>
       <c r="R5" s="31"/>
       <c r="S5" s="31" t="str">
-        <f>M5</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw1Mon</v>
       </c>
       <c r="T5" s="31" t="s">
@@ -42983,43 +43057,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G6" s="29">
         <v>1</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="30" t="str">
-        <f>IF(G6="-",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;":"&amp;H6&amp;"-"&amp;I6,C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;"-"&amp;G6&amp;":"&amp;H6&amp;"-"&amp;I6)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:PINSw2-Mon</v>
       </c>
       <c r="K6" s="30" t="str">
-        <f>IF(OR(P6="",P6="N/A"),"N/A",IF(G6="-",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;":"&amp;H6&amp;"UpperLimit-Cte",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;"-"&amp;G6&amp;":"&amp;H6&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L6" s="30" t="str">
-        <f>IF(OR(Q6="",Q6="N/A"),"N/A",IF(G6="-",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;":"&amp;H6&amp;"LowerLimit-Cte",C6&amp;"-"&amp;D6&amp;":"&amp;E6&amp;"-"&amp;F6&amp;"-"&amp;G6&amp;":"&amp;H6&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M6" s="31" t="str">
-        <f>IF(G6="-",C6&amp;"_"&amp;D6&amp;"_"&amp;E6&amp;"_"&amp;F6&amp;"_"&amp;H6&amp;""&amp;I6,C6&amp;"_"&amp;D6&amp;"_"&amp;E6&amp;"_"&amp;F6&amp;"_"&amp;G6&amp;"_"&amp;H6&amp;""&amp;I6)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw2Mon</v>
       </c>
       <c r="N6" s="73" t="s">
@@ -43032,7 +43106,7 @@
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
       <c r="S6" s="31" t="str">
-        <f>M6</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw2Mon</v>
       </c>
       <c r="T6" s="31" t="s">
@@ -43045,43 +43119,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G7" s="35">
         <v>1</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="J7" s="36" t="str">
-        <f>IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7&amp;"-"&amp;I7,C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7&amp;"-"&amp;I7)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:PINSw1Enbl-Cmd</v>
       </c>
       <c r="K7" s="36" t="str">
-        <f>IF(OR(P7="",P7="N/A"),"N/A",IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7&amp;"UpperLimit-Cte",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L7" s="36" t="str">
-        <f>IF(OR(Q7="",Q7="N/A"),"N/A",IF(G7="-",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;":"&amp;H7&amp;"LowerLimit-Cte",C7&amp;"-"&amp;D7&amp;":"&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;G7&amp;":"&amp;H7&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M7" s="37" t="str">
-        <f>IF(G7="-",C7&amp;"_"&amp;D7&amp;"_"&amp;E7&amp;"_"&amp;F7&amp;"_"&amp;H7&amp;""&amp;I7,C7&amp;"_"&amp;D7&amp;"_"&amp;E7&amp;"_"&amp;F7&amp;"_"&amp;G7&amp;"_"&amp;H7&amp;""&amp;I7)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw1EnblCmd</v>
       </c>
       <c r="N7" s="46" t="s">
@@ -43094,7 +43168,7 @@
       <c r="Q7" s="37"/>
       <c r="R7" s="37"/>
       <c r="S7" s="37" t="str">
-        <f>M7</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw1EnblCmd</v>
       </c>
       <c r="T7" s="37" t="s">
@@ -43107,43 +43181,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G8" s="35">
         <v>1</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="J8" s="36" t="str">
-        <f>IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8&amp;"-"&amp;I8,C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8&amp;"-"&amp;I8)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:PINSw2Enbl-Cmd</v>
       </c>
       <c r="K8" s="36" t="str">
-        <f>IF(OR(P8="",P8="N/A"),"N/A",IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8&amp;"UpperLimit-Cte",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L8" s="36" t="str">
-        <f>IF(OR(Q8="",Q8="N/A"),"N/A",IF(G8="-",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;":"&amp;H8&amp;"LowerLimit-Cte",C8&amp;"-"&amp;D8&amp;":"&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;G8&amp;":"&amp;H8&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M8" s="37" t="str">
-        <f>IF(G8="-",C8&amp;"_"&amp;D8&amp;"_"&amp;E8&amp;"_"&amp;F8&amp;"_"&amp;H8&amp;""&amp;I8,C8&amp;"_"&amp;D8&amp;"_"&amp;E8&amp;"_"&amp;F8&amp;"_"&amp;G8&amp;"_"&amp;H8&amp;""&amp;I8)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw2EnblCmd</v>
       </c>
       <c r="N8" s="46" t="s">
@@ -43156,7 +43230,7 @@
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
       <c r="S8" s="37" t="str">
-        <f>M8</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw2EnblCmd</v>
       </c>
       <c r="T8" s="37" t="s">
@@ -43169,43 +43243,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G9" s="35">
         <v>1</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="J9" s="36" t="str">
-        <f>IF(G9="-",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;":"&amp;H9&amp;"-"&amp;I9,C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;G9&amp;":"&amp;H9&amp;"-"&amp;I9)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:PINSw1Dsbl-Cmd</v>
       </c>
       <c r="K9" s="36" t="str">
-        <f>IF(OR(P9="",P9="N/A"),"N/A",IF(G9="-",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;":"&amp;H9&amp;"UpperLimit-Cte",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;G9&amp;":"&amp;H9&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L9" s="36" t="str">
-        <f>IF(OR(Q9="",Q9="N/A"),"N/A",IF(G9="-",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;":"&amp;H9&amp;"LowerLimit-Cte",C9&amp;"-"&amp;D9&amp;":"&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;G9&amp;":"&amp;H9&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M9" s="37" t="str">
-        <f>IF(G9="-",C9&amp;"_"&amp;D9&amp;"_"&amp;E9&amp;"_"&amp;F9&amp;"_"&amp;H9&amp;""&amp;I9,C9&amp;"_"&amp;D9&amp;"_"&amp;E9&amp;"_"&amp;F9&amp;"_"&amp;G9&amp;"_"&amp;H9&amp;""&amp;I9)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw1DsblCmd</v>
       </c>
       <c r="N9" s="46" t="s">
@@ -43218,7 +43292,7 @@
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37" t="str">
-        <f>M9</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw1DsblCmd</v>
       </c>
       <c r="T9" s="37" t="s">
@@ -43231,43 +43305,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G10" s="35">
         <v>1</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="J10" s="36" t="str">
-        <f>IF(G10="-",C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;":"&amp;H10&amp;"-"&amp;I10,C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;"-"&amp;G10&amp;":"&amp;H10&amp;"-"&amp;I10)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:PINSw2Dsbl-Cmd</v>
       </c>
       <c r="K10" s="36" t="str">
-        <f>IF(OR(P10="",P10="N/A"),"N/A",IF(G10="-",C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;":"&amp;H10&amp;"UpperLimit-Cte",C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;"-"&amp;G10&amp;":"&amp;H10&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L10" s="36" t="str">
-        <f>IF(OR(Q10="",Q10="N/A"),"N/A",IF(G10="-",C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;":"&amp;H10&amp;"LowerLimit-Cte",C10&amp;"-"&amp;D10&amp;":"&amp;E10&amp;"-"&amp;F10&amp;"-"&amp;G10&amp;":"&amp;H10&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M10" s="37" t="str">
-        <f>IF(G10="-",C10&amp;"_"&amp;D10&amp;"_"&amp;E10&amp;"_"&amp;F10&amp;"_"&amp;H10&amp;""&amp;I10,C10&amp;"_"&amp;D10&amp;"_"&amp;E10&amp;"_"&amp;F10&amp;"_"&amp;G10&amp;"_"&amp;H10&amp;""&amp;I10)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw2DsblCmd</v>
       </c>
       <c r="N10" s="46" t="s">
@@ -43280,7 +43354,7 @@
       <c r="Q10" s="37"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37" t="str">
-        <f>M10</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_PINSw2DsblCmd</v>
       </c>
       <c r="T10" s="37" t="s">
@@ -43293,43 +43367,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G11" s="29">
         <v>1</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="30" t="str">
-        <f>IF(G11="-",C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;":"&amp;H11&amp;"-"&amp;I11,C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;"-"&amp;G11&amp;":"&amp;H11&amp;"-"&amp;I11)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:T1Up-Mon</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f>IF(OR(P11="",P11="N/A"),"N/A",IF(G11="-",C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;":"&amp;H11&amp;"UpperLimit-Cte",C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;"-"&amp;G11&amp;":"&amp;H11&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L11" s="30" t="str">
-        <f>IF(OR(Q11="",Q11="N/A"),"N/A",IF(G11="-",C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;":"&amp;H11&amp;"LowerLimit-Cte",C11&amp;"-"&amp;D11&amp;":"&amp;E11&amp;"-"&amp;F11&amp;"-"&amp;G11&amp;":"&amp;H11&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M11" s="31" t="str">
-        <f>IF(G11="-",C11&amp;"_"&amp;D11&amp;"_"&amp;E11&amp;"_"&amp;F11&amp;"_"&amp;H11&amp;""&amp;I11,C11&amp;"_"&amp;D11&amp;"_"&amp;E11&amp;"_"&amp;F11&amp;"_"&amp;G11&amp;"_"&amp;H11&amp;""&amp;I11)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_T1UpMon</v>
       </c>
       <c r="N11" s="73" t="s">
@@ -43342,7 +43416,7 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
       <c r="S11" s="31" t="str">
-        <f>M11</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_T1UpMon</v>
       </c>
       <c r="T11" s="31" t="s">
@@ -43355,43 +43429,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G12" s="29">
         <v>1</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="30" t="str">
-        <f>IF(G12="-",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;":"&amp;H12&amp;"-"&amp;I12,C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;G12&amp;":"&amp;H12&amp;"-"&amp;I12)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-1:T2Up-Mon</v>
       </c>
       <c r="K12" s="30" t="str">
-        <f>IF(OR(P12="",P12="N/A"),"N/A",IF(G12="-",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;":"&amp;H12&amp;"UpperLimit-Cte",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;G12&amp;":"&amp;H12&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L12" s="30" t="str">
-        <f>IF(OR(Q12="",Q12="N/A"),"N/A",IF(G12="-",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;":"&amp;H12&amp;"LowerLimit-Cte",C12&amp;"-"&amp;D12&amp;":"&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;G12&amp;":"&amp;H12&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M12" s="31" t="str">
-        <f>IF(G12="-",C12&amp;"_"&amp;D12&amp;"_"&amp;E12&amp;"_"&amp;F12&amp;"_"&amp;H12&amp;""&amp;I12,C12&amp;"_"&amp;D12&amp;"_"&amp;E12&amp;"_"&amp;F12&amp;"_"&amp;G12&amp;"_"&amp;H12&amp;""&amp;I12)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_T2UpMon</v>
       </c>
       <c r="N12" s="73" t="s">
@@ -43404,7 +43478,7 @@
       <c r="Q12" s="31"/>
       <c r="R12" s="31"/>
       <c r="S12" s="31" t="str">
-        <f>M12</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_1_T2UpMon</v>
       </c>
       <c r="T12" s="31" t="s">
@@ -43417,13 +43491,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>24</v>
@@ -43435,25 +43509,25 @@
         <v>26</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I13" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="30" t="str">
-        <f>IF(G13="-",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;":"&amp;H13&amp;"-"&amp;I13,C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;"-"&amp;G13&amp;":"&amp;H13&amp;"-"&amp;I13)</f>
+        <f t="shared" si="0"/>
         <v>RA-ToSIA:RF-SSAmpTower:RFOn-Mon</v>
       </c>
       <c r="K13" s="30" t="str">
-        <f>IF(OR(P13="",P13="N/A"),"N/A",IF(G13="-",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;":"&amp;H13&amp;"UpperLimit-Cte",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;"-"&amp;G13&amp;":"&amp;H13&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L13" s="30" t="str">
-        <f>IF(OR(Q13="",Q13="N/A"),"N/A",IF(G13="-",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;":"&amp;H13&amp;"LowerLimit-Cte",C13&amp;"-"&amp;D13&amp;":"&amp;E13&amp;"-"&amp;F13&amp;"-"&amp;G13&amp;":"&amp;H13&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M13" s="31" t="str">
-        <f>IF(G13="-",C13&amp;"_"&amp;D13&amp;"_"&amp;E13&amp;"_"&amp;F13&amp;"_"&amp;H13&amp;""&amp;I13,C13&amp;"_"&amp;D13&amp;"_"&amp;E13&amp;"_"&amp;F13&amp;"_"&amp;G13&amp;"_"&amp;H13&amp;""&amp;I13)</f>
+        <f t="shared" si="3"/>
         <v>RA_ToSIA_RF_SSAmpTower_RFOnMon</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -43466,7 +43540,7 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
       <c r="S13" s="31" t="str">
-        <f>M13</f>
+        <f t="shared" si="4"/>
         <v>RA_ToSIA_RF_SSAmpTower_RFOnMon</v>
       </c>
       <c r="T13" s="31" t="s">
@@ -43479,43 +43553,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G14" s="35">
         <v>2</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="I14" s="35" t="s">
         <v>28</v>
       </c>
       <c r="J14" s="36" t="str">
-        <f>IF(G14="-",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;":"&amp;H14&amp;"-"&amp;I14,C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;"-"&amp;G14&amp;":"&amp;H14&amp;"-"&amp;I14)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-2:T1-Mon</v>
       </c>
       <c r="K14" s="36" t="str">
-        <f>IF(OR(P14="",P14="N/A"),"N/A",IF(G14="-",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;":"&amp;H14&amp;"UpperLimit-Cte",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;"-"&amp;G14&amp;":"&amp;H14&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L14" s="36" t="str">
-        <f>IF(OR(Q14="",Q14="N/A"),"N/A",IF(G14="-",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;":"&amp;H14&amp;"LowerLimit-Cte",C14&amp;"-"&amp;D14&amp;":"&amp;E14&amp;"-"&amp;F14&amp;"-"&amp;G14&amp;":"&amp;H14&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M14" s="37" t="str">
-        <f>IF(G14="-",C14&amp;"_"&amp;D14&amp;"_"&amp;E14&amp;"_"&amp;F14&amp;"_"&amp;H14&amp;""&amp;I14,C14&amp;"_"&amp;D14&amp;"_"&amp;E14&amp;"_"&amp;F14&amp;"_"&amp;G14&amp;"_"&amp;H14&amp;""&amp;I14)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_T1Mon</v>
       </c>
       <c r="N14" s="46"/>
@@ -43524,7 +43598,7 @@
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37" t="str">
-        <f>M14</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_T1Mon</v>
       </c>
       <c r="T14" s="37"/>
@@ -43535,43 +43609,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G15" s="35">
         <v>2</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="36" t="str">
-        <f>IF(G15="-",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;":"&amp;H15&amp;"-"&amp;I15,C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;"-"&amp;G15&amp;":"&amp;H15&amp;"-"&amp;I15)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-2:T2-Mon</v>
       </c>
       <c r="K15" s="36" t="str">
-        <f>IF(OR(P15="",P15="N/A"),"N/A",IF(G15="-",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;":"&amp;H15&amp;"UpperLimit-Cte",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;"-"&amp;G15&amp;":"&amp;H15&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L15" s="36" t="str">
-        <f>IF(OR(Q15="",Q15="N/A"),"N/A",IF(G15="-",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;":"&amp;H15&amp;"LowerLimit-Cte",C15&amp;"-"&amp;D15&amp;":"&amp;E15&amp;"-"&amp;F15&amp;"-"&amp;G15&amp;":"&amp;H15&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M15" s="37" t="str">
-        <f>IF(G15="-",C15&amp;"_"&amp;D15&amp;"_"&amp;E15&amp;"_"&amp;F15&amp;"_"&amp;H15&amp;""&amp;I15,C15&amp;"_"&amp;D15&amp;"_"&amp;E15&amp;"_"&amp;F15&amp;"_"&amp;G15&amp;"_"&amp;H15&amp;""&amp;I15)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_T2Mon</v>
       </c>
       <c r="N15" s="46"/>
@@ -43580,7 +43654,7 @@
       <c r="Q15" s="37"/>
       <c r="R15" s="37"/>
       <c r="S15" s="37" t="str">
-        <f>M15</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_T2Mon</v>
       </c>
       <c r="T15" s="37"/>
@@ -43591,43 +43665,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G16" s="35">
         <v>2</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="36" t="str">
-        <f>IF(G16="-",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;":"&amp;H16&amp;"-"&amp;I16,C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;"-"&amp;G16&amp;":"&amp;H16&amp;"-"&amp;I16)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-2:PINSw1-Mon</v>
       </c>
       <c r="K16" s="36" t="str">
-        <f>IF(OR(P16="",P16="N/A"),"N/A",IF(G16="-",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;":"&amp;H16&amp;"UpperLimit-Cte",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;"-"&amp;G16&amp;":"&amp;H16&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L16" s="36" t="str">
-        <f>IF(OR(Q16="",Q16="N/A"),"N/A",IF(G16="-",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;":"&amp;H16&amp;"LowerLimit-Cte",C16&amp;"-"&amp;D16&amp;":"&amp;E16&amp;"-"&amp;F16&amp;"-"&amp;G16&amp;":"&amp;H16&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M16" s="37" t="str">
-        <f>IF(G16="-",C16&amp;"_"&amp;D16&amp;"_"&amp;E16&amp;"_"&amp;F16&amp;"_"&amp;H16&amp;""&amp;I16,C16&amp;"_"&amp;D16&amp;"_"&amp;E16&amp;"_"&amp;F16&amp;"_"&amp;G16&amp;"_"&amp;H16&amp;""&amp;I16)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_PINSw1Mon</v>
       </c>
       <c r="N16" s="46"/>
@@ -43636,7 +43710,7 @@
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
       <c r="S16" s="37" t="str">
-        <f>M16</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_PINSw1Mon</v>
       </c>
       <c r="T16" s="37"/>
@@ -43647,43 +43721,43 @@
         <v>16</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G17" s="35">
         <v>2</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>28</v>
       </c>
       <c r="J17" s="36" t="str">
-        <f>IF(G17="-",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;":"&amp;H17&amp;"-"&amp;I17,C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;"-"&amp;G17&amp;":"&amp;H17&amp;"-"&amp;I17)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-2:PINSw2-Mon</v>
       </c>
       <c r="K17" s="36" t="str">
-        <f>IF(OR(P17="",P17="N/A"),"N/A",IF(G17="-",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;":"&amp;H17&amp;"UpperLimit-Cte",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;"-"&amp;G17&amp;":"&amp;H17&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L17" s="36" t="str">
-        <f>IF(OR(Q17="",Q17="N/A"),"N/A",IF(G17="-",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;":"&amp;H17&amp;"LowerLimit-Cte",C17&amp;"-"&amp;D17&amp;":"&amp;E17&amp;"-"&amp;F17&amp;"-"&amp;G17&amp;":"&amp;H17&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M17" s="37" t="str">
-        <f>IF(G17="-",C17&amp;"_"&amp;D17&amp;"_"&amp;E17&amp;"_"&amp;F17&amp;"_"&amp;H17&amp;""&amp;I17,C17&amp;"_"&amp;D17&amp;"_"&amp;E17&amp;"_"&amp;F17&amp;"_"&amp;G17&amp;"_"&amp;H17&amp;""&amp;I17)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_PINSw2Mon</v>
       </c>
       <c r="N17" s="46"/>
@@ -43692,7 +43766,7 @@
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
       <c r="S17" s="37" t="str">
-        <f>M17</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_PINSw2Mon</v>
       </c>
       <c r="T17" s="37"/>
@@ -43703,19 +43777,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G18" s="35">
         <v>2</v>
@@ -43723,19 +43797,19 @@
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
       <c r="J18" s="36" t="str">
-        <f>IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18&amp;"-"&amp;I18,C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18&amp;"-"&amp;I18)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-2:-</v>
       </c>
       <c r="K18" s="36" t="str">
-        <f>IF(OR(P18="",P18="N/A"),"N/A",IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18&amp;"UpperLimit-Cte",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L18" s="36" t="str">
-        <f>IF(OR(Q18="",Q18="N/A"),"N/A",IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18&amp;"LowerLimit-Cte",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M18" s="37" t="str">
-        <f>IF(G18="-",C18&amp;"_"&amp;D18&amp;"_"&amp;E18&amp;"_"&amp;F18&amp;"_"&amp;H18&amp;""&amp;I18,C18&amp;"_"&amp;D18&amp;"_"&amp;E18&amp;"_"&amp;F18&amp;"_"&amp;G18&amp;"_"&amp;H18&amp;""&amp;I18)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="N18" s="46"/>
@@ -43744,7 +43818,7 @@
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
       <c r="S18" s="37" t="str">
-        <f>M18</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="T18" s="37"/>
@@ -43755,19 +43829,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G19" s="35">
         <v>2</v>
@@ -43775,19 +43849,19 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
       <c r="J19" s="36" t="str">
-        <f>IF(G19="-",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;":"&amp;H19&amp;"-"&amp;I19,C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;"-"&amp;G19&amp;":"&amp;H19&amp;"-"&amp;I19)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-2:-</v>
       </c>
       <c r="K19" s="36" t="str">
-        <f>IF(OR(P19="",P19="N/A"),"N/A",IF(G19="-",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;":"&amp;H19&amp;"UpperLimit-Cte",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;"-"&amp;G19&amp;":"&amp;H19&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L19" s="36" t="str">
-        <f>IF(OR(Q19="",Q19="N/A"),"N/A",IF(G19="-",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;":"&amp;H19&amp;"LowerLimit-Cte",C19&amp;"-"&amp;D19&amp;":"&amp;E19&amp;"-"&amp;F19&amp;"-"&amp;G19&amp;":"&amp;H19&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M19" s="37" t="str">
-        <f>IF(G19="-",C19&amp;"_"&amp;D19&amp;"_"&amp;E19&amp;"_"&amp;F19&amp;"_"&amp;H19&amp;""&amp;I19,C19&amp;"_"&amp;D19&amp;"_"&amp;E19&amp;"_"&amp;F19&amp;"_"&amp;G19&amp;"_"&amp;H19&amp;""&amp;I19)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="N19" s="46"/>
@@ -43796,7 +43870,7 @@
       <c r="Q19" s="37"/>
       <c r="R19" s="37"/>
       <c r="S19" s="37" t="str">
-        <f>M19</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="T19" s="37"/>
@@ -43807,19 +43881,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G20" s="35">
         <v>2</v>
@@ -43827,19 +43901,19 @@
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
       <c r="J20" s="36" t="str">
-        <f>IF(G20="-",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;":"&amp;H20&amp;"-"&amp;I20,C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;"-"&amp;G20&amp;":"&amp;H20&amp;"-"&amp;I20)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-2:-</v>
       </c>
       <c r="K20" s="36" t="str">
-        <f>IF(OR(P20="",P20="N/A"),"N/A",IF(G20="-",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;":"&amp;H20&amp;"UpperLimit-Cte",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;"-"&amp;G20&amp;":"&amp;H20&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L20" s="36" t="str">
-        <f>IF(OR(Q20="",Q20="N/A"),"N/A",IF(G20="-",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;":"&amp;H20&amp;"LowerLimit-Cte",C20&amp;"-"&amp;D20&amp;":"&amp;E20&amp;"-"&amp;F20&amp;"-"&amp;G20&amp;":"&amp;H20&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M20" s="37" t="str">
-        <f>IF(G20="-",C20&amp;"_"&amp;D20&amp;"_"&amp;E20&amp;"_"&amp;F20&amp;"_"&amp;H20&amp;""&amp;I20,C20&amp;"_"&amp;D20&amp;"_"&amp;E20&amp;"_"&amp;F20&amp;"_"&amp;G20&amp;"_"&amp;H20&amp;""&amp;I20)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="N20" s="46"/>
@@ -43848,7 +43922,7 @@
       <c r="Q20" s="37"/>
       <c r="R20" s="37"/>
       <c r="S20" s="37" t="str">
-        <f>M20</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="T20" s="37"/>
@@ -43859,19 +43933,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G21" s="35">
         <v>2</v>
@@ -43879,19 +43953,19 @@
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
       <c r="J21" s="36" t="str">
-        <f>IF(G21="-",C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;":"&amp;H21&amp;"-"&amp;I21,C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;"-"&amp;G21&amp;":"&amp;H21&amp;"-"&amp;I21)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-2:-</v>
       </c>
       <c r="K21" s="36" t="str">
-        <f>IF(OR(P21="",P21="N/A"),"N/A",IF(G21="-",C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;":"&amp;H21&amp;"UpperLimit-Cte",C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;"-"&amp;G21&amp;":"&amp;H21&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L21" s="36" t="str">
-        <f>IF(OR(Q21="",Q21="N/A"),"N/A",IF(G21="-",C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;":"&amp;H21&amp;"LowerLimit-Cte",C21&amp;"-"&amp;D21&amp;":"&amp;E21&amp;"-"&amp;F21&amp;"-"&amp;G21&amp;":"&amp;H21&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M21" s="37" t="str">
-        <f>IF(G21="-",C21&amp;"_"&amp;D21&amp;"_"&amp;E21&amp;"_"&amp;F21&amp;"_"&amp;H21&amp;""&amp;I21,C21&amp;"_"&amp;D21&amp;"_"&amp;E21&amp;"_"&amp;F21&amp;"_"&amp;G21&amp;"_"&amp;H21&amp;""&amp;I21)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="N21" s="46"/>
@@ -43900,7 +43974,7 @@
       <c r="Q21" s="37"/>
       <c r="R21" s="37"/>
       <c r="S21" s="37" t="str">
-        <f>M21</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="T21" s="37"/>
@@ -43911,19 +43985,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G22" s="35">
         <v>2</v>
@@ -43931,19 +44005,19 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="36" t="str">
-        <f>IF(G22="-",C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;":"&amp;H22&amp;"-"&amp;I22,C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;"-"&amp;G22&amp;":"&amp;H22&amp;"-"&amp;I22)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-2:-</v>
       </c>
       <c r="K22" s="36" t="str">
-        <f>IF(OR(P22="",P22="N/A"),"N/A",IF(G22="-",C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;":"&amp;H22&amp;"UpperLimit-Cte",C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;"-"&amp;G22&amp;":"&amp;H22&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L22" s="36" t="str">
-        <f>IF(OR(Q22="",Q22="N/A"),"N/A",IF(G22="-",C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;":"&amp;H22&amp;"LowerLimit-Cte",C22&amp;"-"&amp;D22&amp;":"&amp;E22&amp;"-"&amp;F22&amp;"-"&amp;G22&amp;":"&amp;H22&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M22" s="37" t="str">
-        <f>IF(G22="-",C22&amp;"_"&amp;D22&amp;"_"&amp;E22&amp;"_"&amp;F22&amp;"_"&amp;H22&amp;""&amp;I22,C22&amp;"_"&amp;D22&amp;"_"&amp;E22&amp;"_"&amp;F22&amp;"_"&amp;G22&amp;"_"&amp;H22&amp;""&amp;I22)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="N22" s="46"/>
@@ -43952,7 +44026,7 @@
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
       <c r="S22" s="37" t="str">
-        <f>M22</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="T22" s="37"/>
@@ -43963,19 +44037,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E23" s="41" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G23" s="41">
         <v>2</v>
@@ -43983,19 +44057,19 @@
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="42" t="str">
-        <f>IF(G23="-",C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;":"&amp;H23&amp;"-"&amp;I23,C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;"-"&amp;G23&amp;":"&amp;H23&amp;"-"&amp;I23)</f>
+        <f t="shared" si="0"/>
         <v>RA-RaSIA01:RF-LLRFPreAmp-2:-</v>
       </c>
       <c r="K23" s="42" t="str">
-        <f>IF(OR(P23="",P23="N/A"),"N/A",IF(G23="-",C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;":"&amp;H23&amp;"UpperLimit-Cte",C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;"-"&amp;G23&amp;":"&amp;H23&amp;"UpperLimit-Cte"))</f>
+        <f t="shared" si="1"/>
         <v>N/A</v>
       </c>
       <c r="L23" s="42" t="str">
-        <f>IF(OR(Q23="",Q23="N/A"),"N/A",IF(G23="-",C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;":"&amp;H23&amp;"LowerLimit-Cte",C23&amp;"-"&amp;D23&amp;":"&amp;E23&amp;"-"&amp;F23&amp;"-"&amp;G23&amp;":"&amp;H23&amp;"LowerLimit-Cte"))</f>
+        <f t="shared" si="2"/>
         <v>N/A</v>
       </c>
       <c r="M23" s="43" t="str">
-        <f>IF(G23="-",C23&amp;"_"&amp;D23&amp;"_"&amp;E23&amp;"_"&amp;F23&amp;"_"&amp;H23&amp;""&amp;I23,C23&amp;"_"&amp;D23&amp;"_"&amp;E23&amp;"_"&amp;F23&amp;"_"&amp;G23&amp;"_"&amp;H23&amp;""&amp;I23)</f>
+        <f t="shared" si="3"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="N23" s="46"/>
@@ -44004,7 +44078,7 @@
       <c r="Q23" s="43"/>
       <c r="R23" s="43"/>
       <c r="S23" s="43" t="str">
-        <f>M23</f>
+        <f t="shared" si="4"/>
         <v>RA_RaSIA01_RF_LLRFPreAmp_2_</v>
       </c>
       <c r="T23" s="43"/>
@@ -44019,15 +44093,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="40443515-7982-453e-8cc3-61a478897d4d">
@@ -44051,9 +44116,18 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001FADEDC2238D1B459B3876E2C2E99497" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="013df61940af3924e726a3aaea789461">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40443515-7982-453e-8cc3-61a478897d4d" xmlns:ns3="32dc2326-b69f-4ff3-bc41-ce299fdac243" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3892681982c38a39a14241091d0c9fbe" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001FADEDC2238D1B459B3876E2C2E99497" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="185fbcca694157d48c5e2d9efddd7c80">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="40443515-7982-453e-8cc3-61a478897d4d" xmlns:ns3="32dc2326-b69f-4ff3-bc41-ce299fdac243" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de311a658b2d625d2db377de3cccb77f" ns2:_="" ns3:_="">
     <xsd:import namespace="40443515-7982-453e-8cc3-61a478897d4d"/>
     <xsd:import namespace="32dc2326-b69f-4ff3-bc41-ce299fdac243"/>
     <xsd:element name="properties">
@@ -44074,6 +44148,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -44084,7 +44159,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="40443515-7982-453e-8cc3-61a478897d4d" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartilhado com" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartilhado com" ma:description="" ma:hidden="true" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -44103,11 +44178,9 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:description="" ma:hidden="true" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -44129,19 +44202,17 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:hidden="true" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:hidden="true" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:hidden="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -44161,11 +44232,14 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:hidden="true" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -44178,8 +44252,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -44269,13 +44343,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{700583C3-FE3D-46DA-8F59-8A0B680E439B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3D63F1-BA7A-4803-8927-B1EE04354D12}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{700583C3-FE3D-46DA-8F59-8A0B680E439B}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48C54C3C-0BDF-44E0-81C4-6EBC069FEA88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04EFBADD-8FD1-4AF7-90B9-2B408460C6CA}"/>
 </file>
--- a/etc/Storage Ring A Interlock EPICS.xlsx
+++ b/etc/Storage Ring A Interlock EPICS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B75CD540-DBA6-4116-AFF1-F4AF81C32260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97578A0C-CB7E-4E7D-B27E-90179D98252F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="90" yWindow="1560" windowWidth="20400" windowHeight="9480" tabRatio="719" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6526" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6552" uniqueCount="665">
   <si>
     <t>Nº</t>
   </si>
@@ -1376,6 +1376,18 @@
   </si>
   <si>
     <t>Set_Temp[9]</t>
+  </si>
+  <si>
+    <t>PT - 100 Janela de Quartzo P7 Abaixo do Set</t>
+  </si>
+  <si>
+    <t>GlassWinTUp</t>
+  </si>
+  <si>
+    <t>PT - 100 Janela de Quartzo P7 Acima do Set</t>
+  </si>
+  <si>
+    <t>GlassWinTDown</t>
   </si>
   <si>
     <t>Disc 1 Water Temperature</t>
@@ -8518,8 +8530,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C14A82AC-8A8B-4AE6-8243-55496A5CEF7D}" name="Table9" displayName="Table9" ref="A1:U48" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" headerRowBorderDxfId="98" tableBorderDxfId="99" totalsRowBorderDxfId="97">
-  <autoFilter ref="A1:U48" xr:uid="{7CB02FD4-FF14-4496-98B3-4F8B1299769D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C14A82AC-8A8B-4AE6-8243-55496A5CEF7D}" name="Table9" displayName="Table9" ref="A1:U50" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" headerRowBorderDxfId="98" tableBorderDxfId="99" totalsRowBorderDxfId="97">
+  <autoFilter ref="A1:U50" xr:uid="{7CB02FD4-FF14-4496-98B3-4F8B1299769D}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{3D88C2FC-5174-41B4-A3FD-F1FA680784DE}" name="Nº" dataDxfId="96"/>
     <tableColumn id="2" xr3:uid="{05D8D350-F8D6-4479-AC39-69A78320DBEF}" name="Description" dataDxfId="95"/>
@@ -14837,27 +14849,27 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="4" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -35187,7 +35199,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188945DB-2545-476B-BE7E-6067BB31C627}">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L25" workbookViewId="0">
       <selection activeCell="Q49" sqref="Q49"/>
@@ -35195,7 +35207,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -38418,6 +38430,138 @@
       <c r="U48" s="44">
         <v>2</v>
       </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="39">
+        <v>46</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="I49" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="42" t="str">
+        <f>IF(G49="-",C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;":"&amp;H49&amp;"-"&amp;I49,C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;"-"&amp;G49&amp;":"&amp;H49&amp;"-"&amp;I49)</f>
+        <v>SI-02SB:RF-P7Cav:GlassWinTUp-Mon</v>
+      </c>
+      <c r="K49" s="42" t="str">
+        <f>IF(OR(P49="",P49="N/A"),"N/A",IF(G49="-",C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;":"&amp;H49&amp;"UpperLimit-Cte",C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;"-"&amp;G49&amp;":"&amp;H49&amp;"UpperLimit-Cte"))</f>
+        <v>N/A</v>
+      </c>
+      <c r="L49" s="42" t="str">
+        <f>IF(OR(Q49="",Q49="N/A"),"N/A",IF(G49="-",C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;":"&amp;H49&amp;"LowerLimit-Cte",C49&amp;"-"&amp;D49&amp;":"&amp;E49&amp;"-"&amp;F49&amp;"-"&amp;G49&amp;":"&amp;H49&amp;"LowerLimit-Cte"))</f>
+        <v>N/A</v>
+      </c>
+      <c r="M49" s="43" t="str">
+        <f>IF(G49="-",C49&amp;"_"&amp;D49&amp;"_"&amp;E49&amp;"_"&amp;F49&amp;"_"&amp;H49&amp;""&amp;I49,C49&amp;"_"&amp;D49&amp;"_"&amp;E49&amp;"_"&amp;F49&amp;"_"&amp;G49&amp;"_"&amp;H49&amp;""&amp;I49)</f>
+        <v>SI_02SB_RF_P7Cav_GlassWinTUpMon</v>
+      </c>
+      <c r="N49" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P49" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q49" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43" t="str">
+        <f>M49</f>
+        <v>SI_02SB_RF_P7Cav_GlassWinTUpMon</v>
+      </c>
+      <c r="T49" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="U49" s="44"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="39">
+        <v>47</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="42" t="str">
+        <f>IF(G50="-",C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;":"&amp;H50&amp;"-"&amp;I50,C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;"-"&amp;G50&amp;":"&amp;H50&amp;"-"&amp;I50)</f>
+        <v>SI-02SB:RF-P7Cav:GlassWinTDown-Mon</v>
+      </c>
+      <c r="K50" s="42" t="str">
+        <f>IF(OR(P50="",P50="N/A"),"N/A",IF(G50="-",C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;":"&amp;H50&amp;"UpperLimit-Cte",C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;"-"&amp;G50&amp;":"&amp;H50&amp;"UpperLimit-Cte"))</f>
+        <v>N/A</v>
+      </c>
+      <c r="L50" s="42" t="str">
+        <f>IF(OR(Q50="",Q50="N/A"),"N/A",IF(G50="-",C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;":"&amp;H50&amp;"LowerLimit-Cte",C50&amp;"-"&amp;D50&amp;":"&amp;E50&amp;"-"&amp;F50&amp;"-"&amp;G50&amp;":"&amp;H50&amp;"LowerLimit-Cte"))</f>
+        <v>N/A</v>
+      </c>
+      <c r="M50" s="43" t="str">
+        <f>IF(G50="-",C50&amp;"_"&amp;D50&amp;"_"&amp;E50&amp;"_"&amp;F50&amp;"_"&amp;H50&amp;""&amp;I50,C50&amp;"_"&amp;D50&amp;"_"&amp;E50&amp;"_"&amp;F50&amp;"_"&amp;G50&amp;"_"&amp;H50&amp;""&amp;I50)</f>
+        <v>SI_02SB_RF_P7Cav_GlassWinTDownMon</v>
+      </c>
+      <c r="N50" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" s="71" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q50" s="71" t="s">
+        <v>345</v>
+      </c>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43" t="str">
+        <f>M50</f>
+        <v>SI_02SB_RF_P7Cav_GlassWinTDownMon</v>
+      </c>
+      <c r="T50" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="U50" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38522,7 +38666,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>242</v>
@@ -38540,7 +38684,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>28</v>
@@ -38559,7 +38703,7 @@
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
       <c r="T2" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U2" s="18"/>
     </row>
@@ -38568,7 +38712,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>242</v>
@@ -38586,7 +38730,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>28</v>
@@ -38605,7 +38749,7 @@
       <c r="R3" s="23"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U3" s="24"/>
     </row>
@@ -38614,7 +38758,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>242</v>
@@ -38632,7 +38776,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>28</v>
@@ -38651,7 +38795,7 @@
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U4" s="18"/>
     </row>
@@ -38660,7 +38804,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>242</v>
@@ -38678,7 +38822,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>28</v>
@@ -38697,7 +38841,7 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U5" s="18"/>
     </row>
@@ -38706,7 +38850,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>242</v>
@@ -38724,7 +38868,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>28</v>
@@ -38743,7 +38887,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U6" s="18"/>
     </row>
@@ -38752,7 +38896,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>242</v>
@@ -38770,7 +38914,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>28</v>
@@ -38789,7 +38933,7 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U7" s="18"/>
     </row>
@@ -38798,7 +38942,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>242</v>
@@ -38816,7 +38960,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>28</v>
@@ -38835,7 +38979,7 @@
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U8" s="18"/>
     </row>
@@ -38844,7 +38988,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>242</v>
@@ -38862,7 +39006,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>28</v>
@@ -38881,7 +39025,7 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U9" s="18"/>
     </row>
@@ -38890,7 +39034,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>242</v>
@@ -38908,7 +39052,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>28</v>
@@ -38927,7 +39071,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U10" s="18"/>
     </row>
@@ -38936,7 +39080,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>242</v>
@@ -38954,7 +39098,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>28</v>
@@ -38973,7 +39117,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U11" s="18"/>
     </row>
@@ -38982,7 +39126,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>242</v>
@@ -39000,7 +39144,7 @@
         <v>26</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>28</v>
@@ -39019,7 +39163,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U12" s="18"/>
     </row>
@@ -39028,7 +39172,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>242</v>
@@ -39046,7 +39190,7 @@
         <v>26</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>28</v>
@@ -39065,7 +39209,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U13" s="18"/>
     </row>
@@ -39074,7 +39218,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>242</v>
@@ -39092,7 +39236,7 @@
         <v>26</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>28</v>
@@ -39111,7 +39255,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U14" s="18"/>
     </row>
@@ -39120,7 +39264,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>242</v>
@@ -39138,7 +39282,7 @@
         <v>26</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>28</v>
@@ -39157,7 +39301,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U15" s="18"/>
     </row>
@@ -39166,7 +39310,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>242</v>
@@ -39184,7 +39328,7 @@
         <v>26</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>28</v>
@@ -39203,7 +39347,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U16" s="18"/>
     </row>
@@ -39212,7 +39356,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>242</v>
@@ -39230,7 +39374,7 @@
         <v>26</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>28</v>
@@ -39249,7 +39393,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
       <c r="T17" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U17" s="18"/>
     </row>
@@ -39258,7 +39402,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>242</v>
@@ -39276,7 +39420,7 @@
         <v>26</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>28</v>
@@ -39295,7 +39439,7 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
       <c r="T18" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U18" s="18"/>
     </row>
@@ -39304,7 +39448,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>242</v>
@@ -39322,7 +39466,7 @@
         <v>26</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>28</v>
@@ -39341,7 +39485,7 @@
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
       <c r="T19" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U19" s="18"/>
     </row>
@@ -39350,7 +39494,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>242</v>
@@ -39368,7 +39512,7 @@
         <v>26</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>28</v>
@@ -39387,7 +39531,7 @@
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U20" s="18"/>
     </row>
@@ -39396,7 +39540,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>242</v>
@@ -39414,7 +39558,7 @@
         <v>26</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>28</v>
@@ -39433,7 +39577,7 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
       <c r="T21" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U21" s="18"/>
     </row>
@@ -39442,7 +39586,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>242</v>
@@ -39460,7 +39604,7 @@
         <v>26</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>28</v>
@@ -39479,7 +39623,7 @@
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U22" s="18"/>
     </row>
@@ -39488,7 +39632,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>242</v>
@@ -39506,7 +39650,7 @@
         <v>26</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>28</v>
@@ -39525,7 +39669,7 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U23" s="18"/>
     </row>
@@ -39534,7 +39678,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>242</v>
@@ -39552,7 +39696,7 @@
         <v>26</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>28</v>
@@ -39571,7 +39715,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U24" s="18"/>
     </row>
@@ -39580,7 +39724,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>242</v>
@@ -39598,7 +39742,7 @@
         <v>26</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>28</v>
@@ -39617,7 +39761,7 @@
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
       <c r="T25" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U25" s="18"/>
     </row>
@@ -39626,7 +39770,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>242</v>
@@ -39644,7 +39788,7 @@
         <v>26</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>28</v>
@@ -39663,7 +39807,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U26" s="18"/>
     </row>
@@ -39672,7 +39816,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>242</v>
@@ -39690,7 +39834,7 @@
         <v>26</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>28</v>
@@ -39709,7 +39853,7 @@
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
       <c r="T27" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U27" s="18"/>
     </row>
@@ -39718,7 +39862,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>242</v>
@@ -39736,7 +39880,7 @@
         <v>26</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>28</v>
@@ -39755,7 +39899,7 @@
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
       <c r="T28" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U28" s="18"/>
     </row>
@@ -39764,7 +39908,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>242</v>
@@ -39782,7 +39926,7 @@
         <v>26</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>28</v>
@@ -39801,7 +39945,7 @@
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
       <c r="T29" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U29" s="18"/>
     </row>
@@ -39810,7 +39954,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>242</v>
@@ -39828,7 +39972,7 @@
         <v>26</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>28</v>
@@ -39847,7 +39991,7 @@
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
       <c r="T30" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U30" s="18"/>
     </row>
@@ -39856,7 +40000,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>242</v>
@@ -39874,7 +40018,7 @@
         <v>26</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>28</v>
@@ -39893,7 +40037,7 @@
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U31" s="18"/>
     </row>
@@ -39902,7 +40046,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>242</v>
@@ -39920,7 +40064,7 @@
         <v>26</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>28</v>
@@ -39939,7 +40083,7 @@
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U32" s="18"/>
     </row>
@@ -39948,7 +40092,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>242</v>
@@ -39966,7 +40110,7 @@
         <v>26</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>28</v>
@@ -39985,7 +40129,7 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U33" s="18"/>
     </row>
@@ -39994,7 +40138,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>242</v>
@@ -40012,7 +40156,7 @@
         <v>26</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>28</v>
@@ -40031,7 +40175,7 @@
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U34" s="18"/>
     </row>
@@ -40040,7 +40184,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>242</v>
@@ -40058,7 +40202,7 @@
         <v>26</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>28</v>
@@ -40077,7 +40221,7 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
       <c r="T35" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U35" s="18"/>
     </row>
@@ -40086,7 +40230,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>242</v>
@@ -40104,7 +40248,7 @@
         <v>26</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>28</v>
@@ -40123,7 +40267,7 @@
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U36" s="18"/>
     </row>
@@ -40132,7 +40276,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>242</v>
@@ -40150,7 +40294,7 @@
         <v>26</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>28</v>
@@ -40169,7 +40313,7 @@
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
       <c r="T37" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U37" s="18"/>
     </row>
@@ -40178,7 +40322,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>242</v>
@@ -40196,7 +40340,7 @@
         <v>26</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>28</v>
@@ -40215,7 +40359,7 @@
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U38" s="18"/>
     </row>
@@ -40224,7 +40368,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>242</v>
@@ -40242,7 +40386,7 @@
         <v>26</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>28</v>
@@ -40261,7 +40405,7 @@
       <c r="R39" s="23"/>
       <c r="S39" s="23"/>
       <c r="T39" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U39" s="24"/>
     </row>
@@ -40270,7 +40414,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>242</v>
@@ -40288,7 +40432,7 @@
         <v>26</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>28</v>
@@ -40307,7 +40451,7 @@
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U40" s="18"/>
     </row>
@@ -40316,7 +40460,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>242</v>
@@ -40334,7 +40478,7 @@
         <v>26</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>28</v>
@@ -40353,7 +40497,7 @@
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
       <c r="T41" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U41" s="18"/>
     </row>
@@ -40362,7 +40506,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>242</v>
@@ -40380,7 +40524,7 @@
         <v>26</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>28</v>
@@ -40399,7 +40543,7 @@
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
       <c r="T42" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U42" s="18"/>
     </row>
@@ -40408,7 +40552,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>242</v>
@@ -40426,7 +40570,7 @@
         <v>26</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>28</v>
@@ -40445,7 +40589,7 @@
       <c r="R43" s="16"/>
       <c r="S43" s="16"/>
       <c r="T43" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U43" s="18"/>
     </row>
@@ -40454,7 +40598,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>242</v>
@@ -40472,7 +40616,7 @@
         <v>26</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>28</v>
@@ -40491,7 +40635,7 @@
       <c r="R44" s="16"/>
       <c r="S44" s="16"/>
       <c r="T44" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U44" s="18"/>
     </row>
@@ -40500,7 +40644,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>242</v>
@@ -40518,7 +40662,7 @@
         <v>26</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>28</v>
@@ -40537,7 +40681,7 @@
       <c r="R45" s="16"/>
       <c r="S45" s="16"/>
       <c r="T45" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U45" s="18"/>
     </row>
@@ -40546,7 +40690,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>242</v>
@@ -40564,7 +40708,7 @@
         <v>26</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>28</v>
@@ -40583,7 +40727,7 @@
       <c r="R46" s="16"/>
       <c r="S46" s="16"/>
       <c r="T46" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U46" s="18"/>
     </row>
@@ -40592,7 +40736,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>242</v>
@@ -40610,7 +40754,7 @@
         <v>26</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>28</v>
@@ -40629,7 +40773,7 @@
       <c r="R47" s="16"/>
       <c r="S47" s="16"/>
       <c r="T47" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U47" s="18"/>
     </row>
@@ -40638,7 +40782,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>242</v>
@@ -40656,7 +40800,7 @@
         <v>26</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="I48" s="14" t="s">
         <v>28</v>
@@ -40675,7 +40819,7 @@
       <c r="R48" s="16"/>
       <c r="S48" s="16"/>
       <c r="T48" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U48" s="18"/>
     </row>
@@ -40684,7 +40828,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>242</v>
@@ -40702,7 +40846,7 @@
         <v>26</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>28</v>
@@ -40721,7 +40865,7 @@
       <c r="R49" s="16"/>
       <c r="S49" s="16"/>
       <c r="T49" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U49" s="18"/>
     </row>
@@ -40730,7 +40874,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>242</v>
@@ -40748,7 +40892,7 @@
         <v>26</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>28</v>
@@ -40767,7 +40911,7 @@
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
       <c r="T50" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U50" s="18"/>
     </row>
@@ -40776,7 +40920,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>242</v>
@@ -40794,7 +40938,7 @@
         <v>26</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>28</v>
@@ -40813,7 +40957,7 @@
       <c r="R51" s="16"/>
       <c r="S51" s="16"/>
       <c r="T51" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U51" s="18"/>
     </row>
@@ -40822,7 +40966,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>242</v>
@@ -40840,7 +40984,7 @@
         <v>26</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>28</v>
@@ -40859,7 +41003,7 @@
       <c r="R52" s="16"/>
       <c r="S52" s="16"/>
       <c r="T52" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U52" s="18"/>
     </row>
@@ -40868,7 +41012,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>242</v>
@@ -40886,7 +41030,7 @@
         <v>26</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>28</v>
@@ -40905,7 +41049,7 @@
       <c r="R53" s="16"/>
       <c r="S53" s="16"/>
       <c r="T53" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U53" s="18"/>
     </row>
@@ -40914,7 +41058,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>242</v>
@@ -40932,7 +41076,7 @@
         <v>26</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="I54" s="14" t="s">
         <v>28</v>
@@ -40951,7 +41095,7 @@
       <c r="R54" s="16"/>
       <c r="S54" s="16"/>
       <c r="T54" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U54" s="18"/>
     </row>
@@ -40960,7 +41104,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>242</v>
@@ -40978,7 +41122,7 @@
         <v>26</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="I55" s="14" t="s">
         <v>28</v>
@@ -40997,7 +41141,7 @@
       <c r="R55" s="16"/>
       <c r="S55" s="16"/>
       <c r="T55" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U55" s="18"/>
     </row>
@@ -41006,7 +41150,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>242</v>
@@ -41024,7 +41168,7 @@
         <v>26</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>28</v>
@@ -41043,7 +41187,7 @@
       <c r="R56" s="16"/>
       <c r="S56" s="16"/>
       <c r="T56" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U56" s="18"/>
     </row>
@@ -41052,7 +41196,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>242</v>
@@ -41070,7 +41214,7 @@
         <v>26</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="I57" s="14" t="s">
         <v>28</v>
@@ -41089,7 +41233,7 @@
       <c r="R57" s="16"/>
       <c r="S57" s="16"/>
       <c r="T57" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U57" s="18"/>
     </row>
@@ -41098,7 +41242,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>242</v>
@@ -41116,7 +41260,7 @@
         <v>26</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="I58" s="14" t="s">
         <v>28</v>
@@ -41135,7 +41279,7 @@
       <c r="R58" s="16"/>
       <c r="S58" s="16"/>
       <c r="T58" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U58" s="18"/>
     </row>
@@ -41144,7 +41288,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>242</v>
@@ -41162,7 +41306,7 @@
         <v>26</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>28</v>
@@ -41181,7 +41325,7 @@
       <c r="R59" s="16"/>
       <c r="S59" s="16"/>
       <c r="T59" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U59" s="18"/>
     </row>
@@ -41190,7 +41334,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>242</v>
@@ -41208,7 +41352,7 @@
         <v>26</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I60" s="14" t="s">
         <v>28</v>
@@ -41227,7 +41371,7 @@
       <c r="R60" s="16"/>
       <c r="S60" s="16"/>
       <c r="T60" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U60" s="18"/>
     </row>
@@ -41236,7 +41380,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>242</v>
@@ -41254,7 +41398,7 @@
         <v>26</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>28</v>
@@ -41273,7 +41417,7 @@
       <c r="R61" s="16"/>
       <c r="S61" s="16"/>
       <c r="T61" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U61" s="18"/>
     </row>
@@ -41282,7 +41426,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>242</v>
@@ -41300,7 +41444,7 @@
         <v>26</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="I62" s="14" t="s">
         <v>28</v>
@@ -41319,7 +41463,7 @@
       <c r="R62" s="16"/>
       <c r="S62" s="16"/>
       <c r="T62" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U62" s="18"/>
     </row>
@@ -41328,7 +41472,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>242</v>
@@ -41346,7 +41490,7 @@
         <v>26</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="I63" s="14" t="s">
         <v>28</v>
@@ -41365,7 +41509,7 @@
       <c r="R63" s="16"/>
       <c r="S63" s="16"/>
       <c r="T63" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U63" s="18"/>
     </row>
@@ -41374,7 +41518,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>242</v>
@@ -41392,7 +41536,7 @@
         <v>26</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I64" s="14" t="s">
         <v>28</v>
@@ -41411,7 +41555,7 @@
       <c r="R64" s="16"/>
       <c r="S64" s="16"/>
       <c r="T64" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U64" s="18"/>
     </row>
@@ -41420,7 +41564,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>242</v>
@@ -41438,7 +41582,7 @@
         <v>26</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="I65" s="14" t="s">
         <v>28</v>
@@ -41457,7 +41601,7 @@
       <c r="R65" s="16"/>
       <c r="S65" s="16"/>
       <c r="T65" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U65" s="18"/>
     </row>
@@ -41466,7 +41610,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>242</v>
@@ -41484,7 +41628,7 @@
         <v>26</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="I66" s="14" t="s">
         <v>28</v>
@@ -41503,7 +41647,7 @@
       <c r="R66" s="16"/>
       <c r="S66" s="16"/>
       <c r="T66" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U66" s="18"/>
     </row>
@@ -41512,7 +41656,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>242</v>
@@ -41530,7 +41674,7 @@
         <v>26</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="I67" s="14" t="s">
         <v>28</v>
@@ -41549,7 +41693,7 @@
       <c r="R67" s="16"/>
       <c r="S67" s="16"/>
       <c r="T67" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U67" s="18"/>
     </row>
@@ -41558,7 +41702,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>242</v>
@@ -41576,7 +41720,7 @@
         <v>26</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="I68" s="14" t="s">
         <v>28</v>
@@ -41595,7 +41739,7 @@
       <c r="R68" s="16"/>
       <c r="S68" s="16"/>
       <c r="T68" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U68" s="18"/>
     </row>
@@ -41604,7 +41748,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>242</v>
@@ -41622,7 +41766,7 @@
         <v>26</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="I69" s="14" t="s">
         <v>28</v>
@@ -41641,7 +41785,7 @@
       <c r="R69" s="16"/>
       <c r="S69" s="16"/>
       <c r="T69" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U69" s="18"/>
     </row>
@@ -41650,7 +41794,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>242</v>
@@ -41668,7 +41812,7 @@
         <v>26</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="I70" s="14" t="s">
         <v>28</v>
@@ -41687,7 +41831,7 @@
       <c r="R70" s="16"/>
       <c r="S70" s="16"/>
       <c r="T70" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U70" s="18"/>
     </row>
@@ -41696,7 +41840,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>242</v>
@@ -41714,7 +41858,7 @@
         <v>26</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="I71" s="14" t="s">
         <v>28</v>
@@ -41733,7 +41877,7 @@
       <c r="R71" s="16"/>
       <c r="S71" s="16"/>
       <c r="T71" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U71" s="18"/>
     </row>
@@ -41742,7 +41886,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>242</v>
@@ -41760,7 +41904,7 @@
         <v>26</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="I72" s="14" t="s">
         <v>28</v>
@@ -41779,7 +41923,7 @@
       <c r="R72" s="16"/>
       <c r="S72" s="16"/>
       <c r="T72" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U72" s="18"/>
     </row>
@@ -41788,7 +41932,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>242</v>
@@ -41806,7 +41950,7 @@
         <v>26</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="I73" s="14" t="s">
         <v>28</v>
@@ -41825,7 +41969,7 @@
       <c r="R73" s="16"/>
       <c r="S73" s="16"/>
       <c r="T73" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U73" s="18"/>
     </row>
@@ -41834,7 +41978,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>242</v>
@@ -41852,7 +41996,7 @@
         <v>26</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="I74" s="14" t="s">
         <v>28</v>
@@ -41871,7 +42015,7 @@
       <c r="R74" s="16"/>
       <c r="S74" s="16"/>
       <c r="T74" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U74" s="18"/>
     </row>
@@ -41880,7 +42024,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>242</v>
@@ -41898,7 +42042,7 @@
         <v>26</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="I75" s="14" t="s">
         <v>28</v>
@@ -41917,7 +42061,7 @@
       <c r="R75" s="16"/>
       <c r="S75" s="16"/>
       <c r="T75" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U75" s="18"/>
     </row>
@@ -41926,7 +42070,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>242</v>
@@ -41944,7 +42088,7 @@
         <v>26</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="I76" s="14" t="s">
         <v>28</v>
@@ -41963,7 +42107,7 @@
       <c r="R76" s="16"/>
       <c r="S76" s="16"/>
       <c r="T76" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U76" s="18"/>
     </row>
@@ -41972,7 +42116,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>242</v>
@@ -41990,7 +42134,7 @@
         <v>26</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="I77" s="14" t="s">
         <v>28</v>
@@ -42009,7 +42153,7 @@
       <c r="R77" s="16"/>
       <c r="S77" s="16"/>
       <c r="T77" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U77" s="18"/>
     </row>
@@ -42018,7 +42162,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>242</v>
@@ -42036,7 +42180,7 @@
         <v>26</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="I78" s="14" t="s">
         <v>28</v>
@@ -42055,7 +42199,7 @@
       <c r="R78" s="16"/>
       <c r="S78" s="16"/>
       <c r="T78" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U78" s="18"/>
     </row>
@@ -42064,7 +42208,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>242</v>
@@ -42082,7 +42226,7 @@
         <v>26</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="I79" s="14" t="s">
         <v>28</v>
@@ -42101,7 +42245,7 @@
       <c r="R79" s="16"/>
       <c r="S79" s="16"/>
       <c r="T79" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U79" s="18"/>
     </row>
@@ -42110,7 +42254,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>242</v>
@@ -42128,7 +42272,7 @@
         <v>26</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="I80" s="14" t="s">
         <v>28</v>
@@ -42147,7 +42291,7 @@
       <c r="R80" s="16"/>
       <c r="S80" s="16"/>
       <c r="T80" s="16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U80" s="18"/>
     </row>
@@ -42156,7 +42300,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>242</v>
@@ -42174,7 +42318,7 @@
         <v>26</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="I81" s="21" t="s">
         <v>28</v>
@@ -42193,7 +42337,7 @@
       <c r="R81" s="23"/>
       <c r="S81" s="23"/>
       <c r="T81" s="23" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="U81" s="24"/>
     </row>
@@ -42301,7 +42445,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>22</v>
@@ -42313,13 +42457,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>28</v>
@@ -42357,7 +42501,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>22</v>
@@ -42369,13 +42513,13 @@
         <v>24</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>28</v>
@@ -42413,7 +42557,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>22</v>
@@ -42425,13 +42569,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>28</v>
@@ -42469,7 +42613,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>22</v>
@@ -42490,7 +42634,7 @@
         <v>334</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J5" s="36" t="str">
         <f t="shared" si="0"/>
@@ -42525,7 +42669,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>242</v>
@@ -42543,7 +42687,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>28</v>
@@ -42581,25 +42725,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>34</v>
@@ -42637,25 +42781,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C8" s="69" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="I8" s="69" t="s">
         <v>40</v>
@@ -42793,19 +42937,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>616</v>
-      </c>
       <c r="E2" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>26</v>
@@ -42855,25 +42999,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G3" s="29">
         <v>1</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>28</v>
@@ -42901,7 +43045,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="Q3" s="31" t="s">
         <v>345</v>
@@ -42925,25 +43069,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G4" s="29">
         <v>1</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>28</v>
@@ -42971,7 +43115,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="Q4" s="31" t="s">
         <v>345</v>
@@ -42995,25 +43139,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G5" s="29">
         <v>1</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>28</v>
@@ -43057,25 +43201,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G6" s="29">
         <v>1</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>28</v>
@@ -43119,28 +43263,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G7" s="35">
         <v>1</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J7" s="36" t="str">
         <f t="shared" si="0"/>
@@ -43181,28 +43325,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G8" s="35">
         <v>1</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J8" s="36" t="str">
         <f t="shared" si="0"/>
@@ -43243,28 +43387,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G9" s="35">
         <v>1</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J9" s="36" t="str">
         <f t="shared" si="0"/>
@@ -43305,28 +43449,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G10" s="35">
         <v>1</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J10" s="36" t="str">
         <f t="shared" si="0"/>
@@ -43367,25 +43511,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G11" s="29">
         <v>1</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>28</v>
@@ -43429,25 +43573,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G12" s="29">
         <v>1</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>28</v>
@@ -43491,13 +43635,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>24</v>
@@ -43509,7 +43653,7 @@
         <v>26</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="I13" s="29" t="s">
         <v>28</v>
@@ -43553,25 +43697,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G14" s="35">
         <v>2</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="I14" s="35" t="s">
         <v>28</v>
@@ -43609,25 +43753,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G15" s="35">
         <v>2</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>28</v>
@@ -43665,25 +43809,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G16" s="35">
         <v>2</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>28</v>
@@ -43721,25 +43865,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G17" s="35">
         <v>2</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>28</v>
@@ -43777,19 +43921,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G18" s="35">
         <v>2</v>
@@ -43829,19 +43973,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G19" s="35">
         <v>2</v>
@@ -43881,19 +44025,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G20" s="35">
         <v>2</v>
@@ -43933,19 +44077,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G21" s="35">
         <v>2</v>
@@ -43985,19 +44129,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G22" s="35">
         <v>2</v>
@@ -44037,19 +44181,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E23" s="41" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G23" s="41">
         <v>2</v>

--- a/etc/Storage Ring A Interlock EPICS.xlsx
+++ b/etc/Storage Ring A Interlock EPICS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD58B01-8D61-4BA9-A5C5-6CF8D4725EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB09735E-1252-416B-A5D1-B79C10169BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="90" yWindow="1560" windowWidth="20400" windowHeight="9480" tabRatio="719" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44870,8 +44870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC2DBB1-5D49-469C-81C7-E7BFC2EB4E9C}">
   <dimension ref="A1:U229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45408,7 +45408,7 @@
         <v>636</v>
       </c>
       <c r="T9" s="87" t="s">
-        <v>635</v>
+        <v>31</v>
       </c>
       <c r="U9" s="88" t="s">
         <v>635</v>

--- a/etc/Storage Ring A Interlock EPICS.xlsx
+++ b/etc/Storage Ring A Interlock EPICS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012AE88D-F43E-4949-915B-1F8C4040D289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EC8760-A027-45E3-B19F-722B5B0C61D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="719" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6996" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6971" uniqueCount="711">
   <si>
     <t>Nº</t>
   </si>
@@ -1973,9 +1973,6 @@
     <t> </t>
   </si>
   <si>
-    <t>Memorias_Extras[25].0</t>
-  </si>
-  <si>
     <t>Falha Remota 01</t>
   </si>
   <si>
@@ -1985,172 +1982,100 @@
     <t>Op</t>
   </si>
   <si>
-    <t>Falha_Hard_Comp_01</t>
-  </si>
-  <si>
     <t>Falha Remota 02</t>
   </si>
   <si>
-    <t>Falha_Hard_Comp_02</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 01 Controladora</t>
   </si>
   <si>
     <t>IB1601Fault</t>
   </si>
   <si>
-    <t>Int_Fault_Modules_Cntr.0</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 02 Controladora</t>
   </si>
   <si>
     <t>IB1602Fault</t>
   </si>
   <si>
-    <t>Int_Fault_Modules_Cntr.1</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 03 Controladora</t>
   </si>
   <si>
     <t>IY403Fault</t>
   </si>
   <si>
-    <t>Int_Fault_Modules_Cntr.2</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 04 Controladora</t>
   </si>
   <si>
     <t>IY404Fault</t>
   </si>
   <si>
-    <t>Int_Fault_Modules_Cntr.3</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 05 Controladora</t>
   </si>
   <si>
     <t>IY405Fault</t>
   </si>
   <si>
-    <t>Int_Fault_Modules_Cntr.4</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 06 Controladora</t>
   </si>
   <si>
     <t>OB1606Fault</t>
   </si>
   <si>
-    <t>Int_Fault_Modules_Cntr.5</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 01 Remota 01</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[0].0</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 02 Remota 01</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[0].1</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 03 Remota 01</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[0].2</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 04 Remota 01</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[0].3</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 05 Remota 01</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[0].4</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 06 Remota 01</t>
   </si>
   <si>
     <t>IY406Fault</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[0].5</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 07 Remota 01</t>
   </si>
   <si>
     <t>IY407Fault</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[0].6</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 08 Remota 01</t>
   </si>
   <si>
     <t>OB1608Fault</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[0].7</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 01 Remota 02</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[1].0</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 02 Remota 02</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[1].1</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 03 Remota 02</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[1].2</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 04 Remota 02</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[1].3</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 05 Remota 02</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[1].4</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 06 Remota 02</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[1].5</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 07 Remota 02</t>
   </si>
   <si>
-    <t>Int_Fault_Module_Comp[1].6</t>
-  </si>
-  <si>
     <t>Falha Hardware Cartão 08 Remota 02</t>
-  </si>
-  <si>
-    <t>Int_Fault_Module_Comp[1].7</t>
   </si>
   <si>
     <t>Interlock LLRF</t>
@@ -2935,6 +2860,34 @@
   <dxfs count="226">
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCE4D6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3871,34 +3824,6 @@
           <color rgb="FF000000"/>
         </left>
         <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFCE4D6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
@@ -9020,51 +8945,51 @@
     <tableColumn id="16" xr3:uid="{1F2F0491-AA27-49A1-86E8-2B75462B0D0F}" name="Upper Limit" dataDxfId="29"/>
     <tableColumn id="17" xr3:uid="{823A0F10-0008-4B70-BD1D-1ADB7FA522B1}" name="Lower Limit" dataDxfId="28"/>
     <tableColumn id="18" xr3:uid="{A2070CCA-C28F-45D2-BD25-B189A312BD3B}" name="EGU" dataDxfId="27"/>
-    <tableColumn id="19" xr3:uid="{11A24B9A-EC52-4C7C-9A16-77E00777ED23}" name="TAG" dataDxfId="26">
+    <tableColumn id="19" xr3:uid="{11A24B9A-EC52-4C7C-9A16-77E00777ED23}" name="TAG" dataDxfId="0">
       <calculatedColumnFormula>M2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{E02A11FB-D2F4-4C27-90DF-0F58AB6094EB}" name="Scan" dataDxfId="25"/>
-    <tableColumn id="21" xr3:uid="{6710E694-7F05-4679-9604-34A673D2C853}" name="Prec" dataDxfId="24"/>
+    <tableColumn id="20" xr3:uid="{E02A11FB-D2F4-4C27-90DF-0F58AB6094EB}" name="Scan" dataDxfId="26"/>
+    <tableColumn id="21" xr3:uid="{6710E694-7F05-4679-9604-34A673D2C853}" name="Prec" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{659F6D73-93D0-4ECA-982D-63AF4CDD8F97}" name="Table12" displayName="Table12" ref="A1:U23" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{659F6D73-93D0-4ECA-982D-63AF4CDD8F97}" name="Table12" displayName="Table12" ref="A1:U23" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23">
   <autoFilter ref="A1:U23" xr:uid="{17CFAC25-E867-45F2-BEF5-FF2DB85BEAEB}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{89649EDE-43D0-4C05-BC8B-8D3AD277945E}" name="Nº" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{198A37A8-0C1F-47BD-AD19-0F6A1124EAAD}" name="Description" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{0CFB3C2B-79A9-4F8B-A408-98C1D33207F4}" name="SEC" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{16DB0E05-C28D-4365-9E67-E705F90135C5}" name="SUB" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{5A425E7D-B419-4C9B-AEF0-63CF46924B23}" name="DIS" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{7D33FFBC-153B-43B6-B0BD-0FC06CFF6BBB}" name="DEV" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{87409D88-D20C-45CC-9568-37E7614B0215}" name="IDX" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{582D6251-5220-48D5-B83E-B640D39AECBE}" name="PROP" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{C811F142-BB11-41DE-B5D7-87638B6BE50E}" name="TYPE" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{F4025C6A-D86B-4451-A6DF-D2D1B913BFE4}" name="NAME" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{89649EDE-43D0-4C05-BC8B-8D3AD277945E}" name="Nº" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{198A37A8-0C1F-47BD-AD19-0F6A1124EAAD}" name="Description" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{0CFB3C2B-79A9-4F8B-A408-98C1D33207F4}" name="SEC" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{16DB0E05-C28D-4365-9E67-E705F90135C5}" name="SUB" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{5A425E7D-B419-4C9B-AEF0-63CF46924B23}" name="DIS" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{7D33FFBC-153B-43B6-B0BD-0FC06CFF6BBB}" name="DEV" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{87409D88-D20C-45CC-9568-37E7614B0215}" name="IDX" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{582D6251-5220-48D5-B83E-B640D39AECBE}" name="PROP" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{C811F142-BB11-41DE-B5D7-87638B6BE50E}" name="TYPE" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{F4025C6A-D86B-4451-A6DF-D2D1B913BFE4}" name="NAME" dataDxfId="12">
       <calculatedColumnFormula>IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"-"&amp;I2,C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"-"&amp;I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5EA8FC5B-D940-41D9-ABB8-20CD807B1109}" name="UPPER LIMIT PV NAME" dataDxfId="10">
+    <tableColumn id="11" xr3:uid="{5EA8FC5B-D940-41D9-ABB8-20CD807B1109}" name="UPPER LIMIT PV NAME" dataDxfId="11">
       <calculatedColumnFormula>IF(OR(P2="",P2="N/A"),"N/A",IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"UpperLimit-Cte",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"UpperLimit-Cte"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3C970578-72A1-4F8C-9F7F-BED3E0B33858}" name="LOWER LIMIT PV NAME" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{3C970578-72A1-4F8C-9F7F-BED3E0B33858}" name="LOWER LIMIT PV NAME" dataDxfId="10">
       <calculatedColumnFormula>IF(OR(Q2="",Q2="N/A"),"N/A",IF(G2="-",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;":"&amp;H2&amp;"LowerLimit-Cte",C2&amp;"-"&amp;D2&amp;":"&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;":"&amp;H2&amp;"LowerLimit-Cte"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{ECEE6883-6E1D-433B-A4C0-669FCA7B3BFB}" name="RS Logic" dataDxfId="8">
+    <tableColumn id="13" xr3:uid="{ECEE6883-6E1D-433B-A4C0-669FCA7B3BFB}" name="RS Logic" dataDxfId="9">
       <calculatedColumnFormula>IF(G2="-",C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;H2&amp;""&amp;I2,C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;"_"&amp;G2&amp;"_"&amp;H2&amp;""&amp;I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{EAC60D3B-11A6-4E62-8FE0-4DBF5F7A2A3F}" name="Data Type" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{1D01AF2F-056C-42D2-8DFC-4151E78F2A67}" name="In/Out" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{5AF2F118-7A1F-4D71-8E57-198FDB913810}" name="Upper Limit" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{6C4AFEAF-05F0-4E2D-8CAE-52DA1CFC0C10}" name="Lower Limit" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{FAF7B8D5-B2C6-4385-8EDC-62561B8E861F}" name="EGU" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{23A29369-F22B-48A6-AB95-B7F1C548D1E1}" name="TAG" dataDxfId="2">
+    <tableColumn id="14" xr3:uid="{EAC60D3B-11A6-4E62-8FE0-4DBF5F7A2A3F}" name="Data Type" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{1D01AF2F-056C-42D2-8DFC-4151E78F2A67}" name="In/Out" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{5AF2F118-7A1F-4D71-8E57-198FDB913810}" name="Upper Limit" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{6C4AFEAF-05F0-4E2D-8CAE-52DA1CFC0C10}" name="Lower Limit" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{FAF7B8D5-B2C6-4385-8EDC-62561B8E861F}" name="EGU" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{23A29369-F22B-48A6-AB95-B7F1C548D1E1}" name="TAG" dataDxfId="3">
       <calculatedColumnFormula>M2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{9EA9F074-552C-4B03-8775-385D9ADEB5BB}" name="Scan" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{8C54039D-CB77-41C3-9D12-781E3C8CFDE7}" name="Prec" dataDxfId="0"/>
+    <tableColumn id="20" xr3:uid="{9EA9F074-552C-4B03-8775-385D9ADEB5BB}" name="Scan" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{8C54039D-CB77-41C3-9D12-781E3C8CFDE7}" name="Prec" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15250,27 +15175,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -42815,8 +42740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC2DBB1-5D49-469C-81C7-E7BFC2EB4E9C}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42832,8 +42757,8 @@
     <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" customWidth="1"/>
+    <col min="19" max="19" width="140" customWidth="1"/>
     <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -43351,8 +43276,9 @@
       <c r="R9" s="86" t="s">
         <v>634</v>
       </c>
-      <c r="S9" s="86" t="s">
-        <v>635</v>
+      <c r="S9" s="86" t="str">
+        <f>M9</f>
+        <v>RA_RASIA02_RF_Intlk_FaultHardMon</v>
       </c>
       <c r="T9" s="86" t="s">
         <v>31</v>
@@ -43366,7 +43292,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C10" s="89" t="s">
         <v>22</v>
@@ -43378,13 +43304,13 @@
         <v>24</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G10" s="89">
         <v>1</v>
       </c>
       <c r="H10" s="89" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I10" s="89" t="s">
         <v>28</v>
@@ -43418,8 +43344,9 @@
       <c r="R10" s="91" t="s">
         <v>634</v>
       </c>
-      <c r="S10" s="91" t="s">
-        <v>639</v>
+      <c r="S10" s="91" t="str">
+        <f t="shared" ref="S10:S33" si="4">M10</f>
+        <v>RA_RASIA02_RF_IntlkComp_1_OpMon</v>
       </c>
       <c r="T10" s="91" t="s">
         <v>31</v>
@@ -43433,7 +43360,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C11" s="89" t="s">
         <v>22</v>
@@ -43445,13 +43372,13 @@
         <v>24</v>
       </c>
       <c r="F11" s="89" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G11" s="89">
         <v>2</v>
       </c>
       <c r="H11" s="89" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I11" s="89" t="s">
         <v>28</v>
@@ -43485,8 +43412,9 @@
       <c r="R11" s="86" t="s">
         <v>634</v>
       </c>
-      <c r="S11" s="86" t="s">
-        <v>641</v>
+      <c r="S11" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_2_OpMon</v>
       </c>
       <c r="T11" s="91" t="s">
         <v>31</v>
@@ -43500,7 +43428,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C12" s="89" t="s">
         <v>22</v>
@@ -43518,7 +43446,7 @@
         <v>26</v>
       </c>
       <c r="H12" s="83" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I12" s="89" t="s">
         <v>28</v>
@@ -43552,8 +43480,9 @@
       <c r="R12" s="91" t="s">
         <v>634</v>
       </c>
-      <c r="S12" s="91" t="s">
-        <v>644</v>
+      <c r="S12" s="91" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkCtrl_IB1601FaultMon</v>
       </c>
       <c r="T12" s="91" t="s">
         <v>31</v>
@@ -43567,7 +43496,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C13" s="89" t="s">
         <v>22</v>
@@ -43585,7 +43514,7 @@
         <v>26</v>
       </c>
       <c r="H13" s="83" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I13" s="83" t="s">
         <v>28</v>
@@ -43619,8 +43548,9 @@
       <c r="R13" s="86" t="s">
         <v>634</v>
       </c>
-      <c r="S13" s="86" t="s">
-        <v>647</v>
+      <c r="S13" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkCtrl_IB1602FaultMon</v>
       </c>
       <c r="T13" s="91" t="s">
         <v>31</v>
@@ -43634,7 +43564,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C14" s="89" t="s">
         <v>22</v>
@@ -43652,7 +43582,7 @@
         <v>26</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="I14" s="89" t="s">
         <v>28</v>
@@ -43686,8 +43616,9 @@
       <c r="R14" s="86" t="s">
         <v>634</v>
       </c>
-      <c r="S14" s="86" t="s">
-        <v>650</v>
+      <c r="S14" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkCtrl_IY403FaultMon</v>
       </c>
       <c r="T14" s="91" t="s">
         <v>31</v>
@@ -43701,7 +43632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C15" s="89" t="s">
         <v>22</v>
@@ -43719,7 +43650,7 @@
         <v>26</v>
       </c>
       <c r="H15" s="83" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="I15" s="83" t="s">
         <v>28</v>
@@ -43735,7 +43666,7 @@
         <v>634</v>
       </c>
       <c r="M15" s="43" t="str">
-        <f t="shared" ref="M15:M17" si="4">IF(G15="-",C15&amp;"_"&amp;D15&amp;"_"&amp;E15&amp;"_"&amp;F15&amp;"_"&amp;H15&amp;""&amp;I15,C15&amp;"_"&amp;D15&amp;"_"&amp;E15&amp;"_"&amp;F15&amp;"_"&amp;G15&amp;"_"&amp;H15&amp;""&amp;I15)</f>
+        <f t="shared" ref="M15:M17" si="5">IF(G15="-",C15&amp;"_"&amp;D15&amp;"_"&amp;E15&amp;"_"&amp;F15&amp;"_"&amp;H15&amp;""&amp;I15,C15&amp;"_"&amp;D15&amp;"_"&amp;E15&amp;"_"&amp;F15&amp;"_"&amp;G15&amp;"_"&amp;H15&amp;""&amp;I15)</f>
         <v>RA_RASIA02_RF_IntlkCtrl_IY404FaultMon</v>
       </c>
       <c r="N15" s="91" t="s">
@@ -43753,8 +43684,9 @@
       <c r="R15" s="86" t="s">
         <v>634</v>
       </c>
-      <c r="S15" s="86" t="s">
-        <v>653</v>
+      <c r="S15" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkCtrl_IY404FaultMon</v>
       </c>
       <c r="T15" s="91" t="s">
         <v>31</v>
@@ -43768,7 +43700,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C16" s="89" t="s">
         <v>22</v>
@@ -43786,7 +43718,7 @@
         <v>26</v>
       </c>
       <c r="H16" s="83" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="I16" s="89" t="s">
         <v>28</v>
@@ -43802,26 +43734,27 @@
         <v>634</v>
       </c>
       <c r="M16" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>RA_RASIA02_RF_IntlkCtrl_IY405FaultMon</v>
+      </c>
+      <c r="N16" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="86" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q16" s="86" t="s">
+        <v>634</v>
+      </c>
+      <c r="R16" s="86" t="s">
+        <v>634</v>
+      </c>
+      <c r="S16" s="86" t="str">
         <f t="shared" si="4"/>
         <v>RA_RASIA02_RF_IntlkCtrl_IY405FaultMon</v>
-      </c>
-      <c r="N16" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="86" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q16" s="86" t="s">
-        <v>634</v>
-      </c>
-      <c r="R16" s="86" t="s">
-        <v>634</v>
-      </c>
-      <c r="S16" s="86" t="s">
-        <v>656</v>
       </c>
       <c r="T16" s="91" t="s">
         <v>31</v>
@@ -43835,7 +43768,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C17" s="83" t="s">
         <v>22</v>
@@ -43853,7 +43786,7 @@
         <v>26</v>
       </c>
       <c r="H17" s="83" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="I17" s="83" t="s">
         <v>28</v>
@@ -43869,26 +43802,27 @@
         <v>634</v>
       </c>
       <c r="M17" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>RA_RASIA02_RF_IntlkCtrl_OB1606FaultMon</v>
+      </c>
+      <c r="N17" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="86" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q17" s="86" t="s">
+        <v>634</v>
+      </c>
+      <c r="R17" s="86" t="s">
+        <v>634</v>
+      </c>
+      <c r="S17" s="86" t="str">
         <f t="shared" si="4"/>
         <v>RA_RASIA02_RF_IntlkCtrl_OB1606FaultMon</v>
-      </c>
-      <c r="N17" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="86" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q17" s="86" t="s">
-        <v>634</v>
-      </c>
-      <c r="R17" s="86" t="s">
-        <v>634</v>
-      </c>
-      <c r="S17" s="86" t="s">
-        <v>659</v>
       </c>
       <c r="T17" s="94" t="s">
         <v>31</v>
@@ -43902,7 +43836,7 @@
         <v>77</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C18" s="77" t="s">
         <v>22</v>
@@ -43914,19 +43848,19 @@
         <v>24</v>
       </c>
       <c r="F18" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G18" s="77">
         <v>1</v>
       </c>
       <c r="H18" s="77" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I18" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J18" s="42" t="str">
-        <f t="shared" ref="J18:J25" si="5">IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18&amp;"-"&amp;I18,C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18&amp;"-"&amp;I18)</f>
+        <f t="shared" ref="J18:J25" si="6">IF(G18="-",C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;":"&amp;H18&amp;"-"&amp;I18,C18&amp;"-"&amp;D18&amp;":"&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;G18&amp;":"&amp;H18&amp;"-"&amp;I18)</f>
         <v>RA-RASIA02:RF-IntlkComp-1:IB1601Fault-Mon</v>
       </c>
       <c r="K18" s="78" t="s">
@@ -43936,7 +43870,7 @@
         <v>634</v>
       </c>
       <c r="M18" s="43" t="str">
-        <f t="shared" ref="M18:M25" si="6">IF(G18="-",C18&amp;"_"&amp;D18&amp;"_"&amp;E18&amp;"_"&amp;F18&amp;"_"&amp;H18&amp;""&amp;I18,C18&amp;"_"&amp;D18&amp;"_"&amp;E18&amp;"_"&amp;F18&amp;"_"&amp;G18&amp;"_"&amp;H18&amp;""&amp;I18)</f>
+        <f t="shared" ref="M18:M25" si="7">IF(G18="-",C18&amp;"_"&amp;D18&amp;"_"&amp;E18&amp;"_"&amp;F18&amp;"_"&amp;H18&amp;""&amp;I18,C18&amp;"_"&amp;D18&amp;"_"&amp;E18&amp;"_"&amp;F18&amp;"_"&amp;G18&amp;"_"&amp;H18&amp;""&amp;I18)</f>
         <v>RA_RASIA02_RF_IntlkComp_1_IB1601FaultMon</v>
       </c>
       <c r="N18" s="94" t="s">
@@ -43954,8 +43888,9 @@
       <c r="R18" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S18" s="79" t="s">
-        <v>661</v>
+      <c r="S18" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_1_IB1601FaultMon</v>
       </c>
       <c r="T18" s="94" t="s">
         <v>31</v>
@@ -43969,7 +43904,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>22</v>
@@ -43981,19 +43916,19 @@
         <v>24</v>
       </c>
       <c r="F19" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G19" s="77">
         <v>1</v>
       </c>
       <c r="H19" s="77" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I19" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>RA-RASIA02:RF-IntlkComp-1:IB1602Fault-Mon</v>
       </c>
       <c r="K19" s="78" t="s">
@@ -44003,7 +43938,7 @@
         <v>634</v>
       </c>
       <c r="M19" s="43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>RA_RASIA02_RF_IntlkComp_1_IB1602FaultMon</v>
       </c>
       <c r="N19" s="94" t="s">
@@ -44021,8 +43956,9 @@
       <c r="R19" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S19" s="79" t="s">
-        <v>663</v>
+      <c r="S19" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_1_IB1602FaultMon</v>
       </c>
       <c r="T19" s="94" t="s">
         <v>31</v>
@@ -44036,7 +43972,7 @@
         <v>79</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>22</v>
@@ -44048,19 +43984,19 @@
         <v>24</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G20" s="77">
         <v>1</v>
       </c>
       <c r="H20" s="77" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="I20" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>RA-RASIA02:RF-IntlkComp-1:IY403Fault-Mon</v>
       </c>
       <c r="K20" s="78" t="s">
@@ -44070,7 +44006,7 @@
         <v>634</v>
       </c>
       <c r="M20" s="43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>RA_RASIA02_RF_IntlkComp_1_IY403FaultMon</v>
       </c>
       <c r="N20" s="94" t="s">
@@ -44088,8 +44024,9 @@
       <c r="R20" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S20" s="79" t="s">
-        <v>665</v>
+      <c r="S20" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_1_IY403FaultMon</v>
       </c>
       <c r="T20" s="94" t="s">
         <v>31</v>
@@ -44103,7 +44040,7 @@
         <v>80</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>22</v>
@@ -44115,19 +44052,19 @@
         <v>24</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G21" s="77">
         <v>1</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="I21" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J21" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>RA-RASIA02:RF-IntlkComp-1:IY404Fault-Mon</v>
       </c>
       <c r="K21" s="78" t="s">
@@ -44137,7 +44074,7 @@
         <v>634</v>
       </c>
       <c r="M21" s="43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>RA_RASIA02_RF_IntlkComp_1_IY404FaultMon</v>
       </c>
       <c r="N21" s="94" t="s">
@@ -44155,8 +44092,9 @@
       <c r="R21" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S21" s="79" t="s">
-        <v>667</v>
+      <c r="S21" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_1_IY404FaultMon</v>
       </c>
       <c r="T21" s="94" t="s">
         <v>31</v>
@@ -44170,7 +44108,7 @@
         <v>81</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="C22" s="77" t="s">
         <v>22</v>
@@ -44182,19 +44120,19 @@
         <v>24</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G22" s="77">
         <v>1</v>
       </c>
       <c r="H22" s="77" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="I22" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>RA-RASIA02:RF-IntlkComp-1:IY405Fault-Mon</v>
       </c>
       <c r="K22" s="78" t="s">
@@ -44204,7 +44142,7 @@
         <v>634</v>
       </c>
       <c r="M22" s="43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>RA_RASIA02_RF_IntlkComp_1_IY405FaultMon</v>
       </c>
       <c r="N22" s="94" t="s">
@@ -44222,8 +44160,9 @@
       <c r="R22" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S22" s="79" t="s">
-        <v>669</v>
+      <c r="S22" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_1_IY405FaultMon</v>
       </c>
       <c r="T22" s="94" t="s">
         <v>31</v>
@@ -44237,7 +44176,7 @@
         <v>82</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="C23" s="77" t="s">
         <v>22</v>
@@ -44249,19 +44188,19 @@
         <v>24</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G23" s="77">
         <v>1</v>
       </c>
       <c r="H23" s="77" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="I23" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>RA-RASIA02:RF-IntlkComp-1:IY406Fault-Mon</v>
       </c>
       <c r="K23" s="78" t="s">
@@ -44271,7 +44210,7 @@
         <v>634</v>
       </c>
       <c r="M23" s="43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>RA_RASIA02_RF_IntlkComp_1_IY406FaultMon</v>
       </c>
       <c r="N23" s="94" t="s">
@@ -44289,8 +44228,9 @@
       <c r="R23" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S23" s="79" t="s">
-        <v>672</v>
+      <c r="S23" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_1_IY406FaultMon</v>
       </c>
       <c r="T23" s="94" t="s">
         <v>31</v>
@@ -44304,7 +44244,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="C24" s="77" t="s">
         <v>22</v>
@@ -44316,19 +44256,19 @@
         <v>24</v>
       </c>
       <c r="F24" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G24" s="77">
         <v>1</v>
       </c>
       <c r="H24" s="77" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="I24" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>RA-RASIA02:RF-IntlkComp-1:IY407Fault-Mon</v>
       </c>
       <c r="K24" s="78" t="s">
@@ -44338,7 +44278,7 @@
         <v>634</v>
       </c>
       <c r="M24" s="43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>RA_RASIA02_RF_IntlkComp_1_IY407FaultMon</v>
       </c>
       <c r="N24" s="94" t="s">
@@ -44356,8 +44296,9 @@
       <c r="R24" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S24" s="79" t="s">
-        <v>675</v>
+      <c r="S24" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_1_IY407FaultMon</v>
       </c>
       <c r="T24" s="94" t="s">
         <v>31</v>
@@ -44371,7 +44312,7 @@
         <v>84</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="C25" s="77" t="s">
         <v>22</v>
@@ -44383,19 +44324,19 @@
         <v>24</v>
       </c>
       <c r="F25" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G25" s="77">
         <v>1</v>
       </c>
       <c r="H25" s="77" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="I25" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J25" s="42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>RA-RASIA02:RF-IntlkComp-1:OB1608Fault-Mon</v>
       </c>
       <c r="K25" s="78" t="s">
@@ -44405,7 +44346,7 @@
         <v>634</v>
       </c>
       <c r="M25" s="43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>RA_RASIA02_RF_IntlkComp_1_OB1608FaultMon</v>
       </c>
       <c r="N25" s="94" t="s">
@@ -44423,8 +44364,9 @@
       <c r="R25" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S25" s="79" t="s">
-        <v>678</v>
+      <c r="S25" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_1_OB1608FaultMon</v>
       </c>
       <c r="T25" s="94" t="s">
         <v>31</v>
@@ -44438,7 +44380,7 @@
         <v>153</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="C26" s="77" t="s">
         <v>22</v>
@@ -44450,19 +44392,19 @@
         <v>24</v>
       </c>
       <c r="F26" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G26" s="77">
         <v>2</v>
       </c>
       <c r="H26" s="77" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I26" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="42" t="str">
-        <f t="shared" ref="J26:J33" si="7">IF(G26="-",C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;":"&amp;H26&amp;"-"&amp;I26,C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;"-"&amp;G26&amp;":"&amp;H26&amp;"-"&amp;I26)</f>
+        <f t="shared" ref="J26:J33" si="8">IF(G26="-",C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;":"&amp;H26&amp;"-"&amp;I26,C26&amp;"-"&amp;D26&amp;":"&amp;E26&amp;"-"&amp;F26&amp;"-"&amp;G26&amp;":"&amp;H26&amp;"-"&amp;I26)</f>
         <v>RA-RASIA02:RF-IntlkComp-2:IB1601Fault-Mon</v>
       </c>
       <c r="K26" s="78" t="s">
@@ -44472,7 +44414,7 @@
         <v>634</v>
       </c>
       <c r="M26" s="43" t="str">
-        <f t="shared" ref="M26:M33" si="8">IF(G26="-",C26&amp;"_"&amp;D26&amp;"_"&amp;E26&amp;"_"&amp;F26&amp;"_"&amp;H26&amp;""&amp;I26,C26&amp;"_"&amp;D26&amp;"_"&amp;E26&amp;"_"&amp;F26&amp;"_"&amp;G26&amp;"_"&amp;H26&amp;""&amp;I26)</f>
+        <f t="shared" ref="M26:M33" si="9">IF(G26="-",C26&amp;"_"&amp;D26&amp;"_"&amp;E26&amp;"_"&amp;F26&amp;"_"&amp;H26&amp;""&amp;I26,C26&amp;"_"&amp;D26&amp;"_"&amp;E26&amp;"_"&amp;F26&amp;"_"&amp;G26&amp;"_"&amp;H26&amp;""&amp;I26)</f>
         <v>RA_RASIA02_RF_IntlkComp_2_IB1601FaultMon</v>
       </c>
       <c r="N26" s="94" t="s">
@@ -44490,8 +44432,9 @@
       <c r="R26" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S26" s="79" t="s">
-        <v>680</v>
+      <c r="S26" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_2_IB1601FaultMon</v>
       </c>
       <c r="T26" s="94" t="s">
         <v>31</v>
@@ -44505,7 +44448,7 @@
         <v>154</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="C27" s="77" t="s">
         <v>22</v>
@@ -44517,19 +44460,19 @@
         <v>24</v>
       </c>
       <c r="F27" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G27" s="77">
         <v>2</v>
       </c>
       <c r="H27" s="77" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I27" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J27" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>RA-RASIA02:RF-IntlkComp-2:IB1602Fault-Mon</v>
       </c>
       <c r="K27" s="78" t="s">
@@ -44539,7 +44482,7 @@
         <v>634</v>
       </c>
       <c r="M27" s="43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>RA_RASIA02_RF_IntlkComp_2_IB1602FaultMon</v>
       </c>
       <c r="N27" s="94" t="s">
@@ -44557,8 +44500,9 @@
       <c r="R27" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S27" s="79" t="s">
-        <v>682</v>
+      <c r="S27" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_2_IB1602FaultMon</v>
       </c>
       <c r="T27" s="94" t="s">
         <v>31</v>
@@ -44572,7 +44516,7 @@
         <v>155</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="C28" s="77" t="s">
         <v>22</v>
@@ -44584,19 +44528,19 @@
         <v>24</v>
       </c>
       <c r="F28" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G28" s="77">
         <v>2</v>
       </c>
       <c r="H28" s="77" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="I28" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>RA-RASIA02:RF-IntlkComp-2:IY403Fault-Mon</v>
       </c>
       <c r="K28" s="78" t="s">
@@ -44606,7 +44550,7 @@
         <v>634</v>
       </c>
       <c r="M28" s="43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>RA_RASIA02_RF_IntlkComp_2_IY403FaultMon</v>
       </c>
       <c r="N28" s="94" t="s">
@@ -44624,8 +44568,9 @@
       <c r="R28" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S28" s="79" t="s">
-        <v>684</v>
+      <c r="S28" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_2_IY403FaultMon</v>
       </c>
       <c r="T28" s="94" t="s">
         <v>31</v>
@@ -44639,7 +44584,7 @@
         <v>156</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="C29" s="77" t="s">
         <v>22</v>
@@ -44651,19 +44596,19 @@
         <v>24</v>
       </c>
       <c r="F29" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G29" s="77">
         <v>2</v>
       </c>
       <c r="H29" s="77" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="I29" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>RA-RASIA02:RF-IntlkComp-2:IY404Fault-Mon</v>
       </c>
       <c r="K29" s="78" t="s">
@@ -44673,7 +44618,7 @@
         <v>634</v>
       </c>
       <c r="M29" s="43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>RA_RASIA02_RF_IntlkComp_2_IY404FaultMon</v>
       </c>
       <c r="N29" s="94" t="s">
@@ -44691,8 +44636,9 @@
       <c r="R29" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S29" s="79" t="s">
-        <v>686</v>
+      <c r="S29" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_2_IY404FaultMon</v>
       </c>
       <c r="T29" s="94" t="s">
         <v>31</v>
@@ -44706,7 +44652,7 @@
         <v>157</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="C30" s="77" t="s">
         <v>22</v>
@@ -44718,19 +44664,19 @@
         <v>24</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G30" s="77">
         <v>2</v>
       </c>
       <c r="H30" s="77" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="I30" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>RA-RASIA02:RF-IntlkComp-2:IY405Fault-Mon</v>
       </c>
       <c r="K30" s="78" t="s">
@@ -44740,7 +44686,7 @@
         <v>634</v>
       </c>
       <c r="M30" s="43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>RA_RASIA02_RF_IntlkComp_2_IY405FaultMon</v>
       </c>
       <c r="N30" s="94" t="s">
@@ -44758,8 +44704,9 @@
       <c r="R30" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S30" s="79" t="s">
-        <v>688</v>
+      <c r="S30" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_2_IY405FaultMon</v>
       </c>
       <c r="T30" s="94" t="s">
         <v>31</v>
@@ -44773,7 +44720,7 @@
         <v>158</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="C31" s="77" t="s">
         <v>22</v>
@@ -44785,19 +44732,19 @@
         <v>24</v>
       </c>
       <c r="F31" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G31" s="77">
         <v>2</v>
       </c>
       <c r="H31" s="77" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="I31" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>RA-RASIA02:RF-IntlkComp-2:IY406Fault-Mon</v>
       </c>
       <c r="K31" s="78" t="s">
@@ -44807,7 +44754,7 @@
         <v>634</v>
       </c>
       <c r="M31" s="43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>RA_RASIA02_RF_IntlkComp_2_IY406FaultMon</v>
       </c>
       <c r="N31" s="94" t="s">
@@ -44825,8 +44772,9 @@
       <c r="R31" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S31" s="79" t="s">
-        <v>690</v>
+      <c r="S31" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_2_IY406FaultMon</v>
       </c>
       <c r="T31" s="94" t="s">
         <v>31</v>
@@ -44840,7 +44788,7 @@
         <v>159</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="C32" s="77" t="s">
         <v>22</v>
@@ -44852,19 +44800,19 @@
         <v>24</v>
       </c>
       <c r="F32" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G32" s="77">
         <v>2</v>
       </c>
       <c r="H32" s="77" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="I32" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>RA-RASIA02:RF-IntlkComp-2:IY407Fault-Mon</v>
       </c>
       <c r="K32" s="78" t="s">
@@ -44874,7 +44822,7 @@
         <v>634</v>
       </c>
       <c r="M32" s="43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>RA_RASIA02_RF_IntlkComp_2_IY407FaultMon</v>
       </c>
       <c r="N32" s="94" t="s">
@@ -44892,8 +44840,9 @@
       <c r="R32" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S32" s="79" t="s">
-        <v>692</v>
+      <c r="S32" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_2_IY407FaultMon</v>
       </c>
       <c r="T32" s="94" t="s">
         <v>31</v>
@@ -44907,7 +44856,7 @@
         <v>160</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="C33" s="77" t="s">
         <v>22</v>
@@ -44919,19 +44868,19 @@
         <v>24</v>
       </c>
       <c r="F33" s="77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G33" s="77">
         <v>2</v>
       </c>
       <c r="H33" s="77" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="I33" s="77" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>RA-RASIA02:RF-IntlkComp-2:OB1608Fault-Mon</v>
       </c>
       <c r="K33" s="78" t="s">
@@ -44941,7 +44890,7 @@
         <v>634</v>
       </c>
       <c r="M33" s="43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>RA_RASIA02_RF_IntlkComp_2_OB1608FaultMon</v>
       </c>
       <c r="N33" s="94" t="s">
@@ -44959,8 +44908,9 @@
       <c r="R33" s="79" t="s">
         <v>634</v>
       </c>
-      <c r="S33" s="79" t="s">
-        <v>694</v>
+      <c r="S33" s="79" t="str">
+        <f t="shared" si="4"/>
+        <v>RA_RASIA02_RF_IntlkComp_2_OB1608FaultMon</v>
       </c>
       <c r="T33" s="94" t="s">
         <v>31</v>
@@ -45074,7 +45024,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>22</v>
@@ -45086,7 +45036,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>26</v>
@@ -45136,7 +45086,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>22</v>
@@ -45148,13 +45098,13 @@
         <v>24</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G3" s="29">
         <v>1</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>28</v>
@@ -45182,7 +45132,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="Q3" s="31" t="s">
         <v>345</v>
@@ -45206,7 +45156,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>22</v>
@@ -45218,13 +45168,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G4" s="29">
         <v>1</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>28</v>
@@ -45252,7 +45202,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="Q4" s="31" t="s">
         <v>345</v>
@@ -45276,7 +45226,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>22</v>
@@ -45288,13 +45238,13 @@
         <v>24</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G5" s="29">
         <v>1</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>28</v>
@@ -45338,7 +45288,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>22</v>
@@ -45350,13 +45300,13 @@
         <v>24</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G6" s="29">
         <v>1</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>28</v>
@@ -45400,7 +45350,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>22</v>
@@ -45412,13 +45362,13 @@
         <v>24</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G7" s="35">
         <v>1</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="I7" s="35" t="s">
         <v>623</v>
@@ -45462,7 +45412,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>22</v>
@@ -45474,13 +45424,13 @@
         <v>24</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G8" s="35">
         <v>1</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="I8" s="35" t="s">
         <v>623</v>
@@ -45524,7 +45474,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>22</v>
@@ -45536,13 +45486,13 @@
         <v>24</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G9" s="35">
         <v>1</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="I9" s="35" t="s">
         <v>623</v>
@@ -45586,7 +45536,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>22</v>
@@ -45598,13 +45548,13 @@
         <v>24</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G10" s="35">
         <v>1</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="I10" s="35" t="s">
         <v>623</v>
@@ -45648,7 +45598,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>22</v>
@@ -45660,13 +45610,13 @@
         <v>24</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G11" s="29">
         <v>1</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>28</v>
@@ -45710,7 +45660,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>22</v>
@@ -45722,13 +45672,13 @@
         <v>24</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G12" s="29">
         <v>1</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>28</v>
@@ -45772,13 +45722,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>24</v>
@@ -45834,7 +45784,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>22</v>
@@ -45846,13 +45796,13 @@
         <v>24</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G14" s="35">
         <v>2</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="I14" s="35" t="s">
         <v>28</v>
@@ -45890,7 +45840,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>22</v>
@@ -45902,13 +45852,13 @@
         <v>24</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G15" s="35">
         <v>2</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>28</v>
@@ -45946,7 +45896,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>22</v>
@@ -45958,13 +45908,13 @@
         <v>24</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G16" s="35">
         <v>2</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>28</v>
@@ -46002,7 +45952,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>22</v>
@@ -46014,13 +45964,13 @@
         <v>24</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G17" s="35">
         <v>2</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>28</v>
@@ -46058,7 +46008,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>22</v>
@@ -46070,7 +46020,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G18" s="35">
         <v>2</v>
@@ -46110,7 +46060,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>22</v>
@@ -46122,7 +46072,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G19" s="35">
         <v>2</v>
@@ -46162,7 +46112,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>22</v>
@@ -46174,7 +46124,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G20" s="35">
         <v>2</v>
@@ -46214,7 +46164,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>22</v>
@@ -46226,7 +46176,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G21" s="35">
         <v>2</v>
@@ -46266,7 +46216,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>22</v>
@@ -46278,7 +46228,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G22" s="35">
         <v>2</v>
@@ -46318,7 +46268,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>22</v>
@@ -46330,7 +46280,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G23" s="41">
         <v>2</v>
@@ -46374,12 +46324,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="40443515-7982-453e-8cc3-61a478897d4d">
+      <UserInfo>
+        <DisplayName>Claudio Ferreira Carneiro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Eduardo Pereira Coelho</DisplayName>
+        <AccountId>65</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Alex Nobre Cavalcante</DisplayName>
+        <AccountId>70</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32dc2326-b69f-4ff3-bc41-ce299fdac243">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="40443515-7982-453e-8cc3-61a478897d4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46620,37 +46589,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="40443515-7982-453e-8cc3-61a478897d4d">
-      <UserInfo>
-        <DisplayName>Claudio Ferreira Carneiro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Eduardo Pereira Coelho</DisplayName>
-        <AccountId>65</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Alex Nobre Cavalcante</DisplayName>
-        <AccountId>70</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32dc2326-b69f-4ff3-bc41-ce299fdac243">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="40443515-7982-453e-8cc3-61a478897d4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3D63F1-BA7A-4803-8927-B1EE04354D12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{700583C3-FE3D-46DA-8F59-8A0B680E439B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="40443515-7982-453e-8cc3-61a478897d4d"/>
+    <ds:schemaRef ds:uri="32dc2326-b69f-4ff3-bc41-ce299fdac243"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46675,12 +46628,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{700583C3-FE3D-46DA-8F59-8A0B680E439B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3D63F1-BA7A-4803-8927-B1EE04354D12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="40443515-7982-453e-8cc3-61a478897d4d"/>
-    <ds:schemaRef ds:uri="32dc2326-b69f-4ff3-bc41-ce299fdac243"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>